--- a/exe/キューサイ/Amazonギフトコード取得/取得したAmazonギフトコード.xlsx
+++ b/exe/キューサイ/Amazonギフトコード取得/取得したAmazonギフトコード.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\YUTAKA\PycharmProjects\PythonApps\002_PythonScripts\exe\キューサイ\Amazonギフトコード取得\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DA530AE-66E5-4DF2-9BB5-E699CD10C4FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E52DDED-3A5C-4653-B056-ABFD7163A8A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10080" activeTab="2" xr2:uid="{DEFA6261-0D25-40A3-84F2-2FFCBDA39E1A}"/>
   </bookViews>
@@ -9588,14 +9588,11 @@
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -9606,35 +9603,38 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="31" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="31" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="31" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="31" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="31" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -9666,20 +9666,20 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="31" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="31" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="31" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="31" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -10010,17 +10010,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="16"/>
+      <c r="A2" s="17"/>
       <c r="B2" s="3">
         <v>266918904631</v>
       </c>
@@ -49865,8 +49865,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51EAE468-3514-4CC7-8045-27F85827609B}">
   <dimension ref="A1:K2037"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A397" workbookViewId="0">
-      <selection activeCell="E370" sqref="E370:E419"/>
+    <sheetView tabSelected="1" topLeftCell="A406" workbookViewId="0">
+      <selection activeCell="B410" sqref="B410"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13"/>
@@ -49897,16 +49897,16 @@
       <c r="E1" s="4" t="s">
         <v>2042</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="F1" s="26" t="s">
         <v>2044</v>
       </c>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17" t="s">
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26" t="s">
         <v>2044</v>
       </c>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="26"/>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="4">
@@ -49915,20 +49915,20 @@
       <c r="B2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="26" t="s">
         <v>2041</v>
       </c>
-      <c r="D2" s="24">
+      <c r="D2" s="27">
         <v>92.8</v>
       </c>
-      <c r="E2" s="18" t="s">
+      <c r="E2" s="31" t="s">
         <v>2048</v>
       </c>
-      <c r="F2" s="28" t="s">
+      <c r="F2" s="21" t="s">
         <v>2045</v>
       </c>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
       <c r="I2" s="6"/>
       <c r="J2" s="6"/>
       <c r="K2" s="6"/>
@@ -49940,12 +49940,12 @@
       <c r="B3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="17"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="28"/>
-      <c r="H3" s="28"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="21"/>
       <c r="I3" s="6"/>
       <c r="J3" s="6"/>
       <c r="K3" s="6"/>
@@ -49957,19 +49957,19 @@
       <c r="B4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="17"/>
-      <c r="D4" s="42">
+      <c r="C4" s="26"/>
+      <c r="D4" s="22">
         <v>92</v>
       </c>
-      <c r="E4" s="17"/>
-      <c r="F4" s="28"/>
-      <c r="G4" s="28"/>
-      <c r="H4" s="28"/>
-      <c r="I4" s="28" t="s">
+      <c r="E4" s="26"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="21" t="s">
         <v>2053</v>
       </c>
-      <c r="J4" s="28"/>
-      <c r="K4" s="28"/>
+      <c r="J4" s="21"/>
+      <c r="K4" s="21"/>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="4">
@@ -49978,15 +49978,15 @@
       <c r="B5" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="17"/>
-      <c r="D5" s="43"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="28"/>
-      <c r="G5" s="28"/>
-      <c r="H5" s="28"/>
-      <c r="I5" s="28"/>
-      <c r="J5" s="28"/>
-      <c r="K5" s="28"/>
+      <c r="C5" s="26"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="21"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="21"/>
+      <c r="J5" s="21"/>
+      <c r="K5" s="21"/>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="4">
@@ -49995,15 +49995,15 @@
       <c r="B6" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="17"/>
-      <c r="D6" s="43"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="28"/>
-      <c r="G6" s="28"/>
-      <c r="H6" s="28"/>
-      <c r="I6" s="28"/>
-      <c r="J6" s="28"/>
-      <c r="K6" s="28"/>
+      <c r="C6" s="26"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="21"/>
+      <c r="J6" s="21"/>
+      <c r="K6" s="21"/>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="4">
@@ -50012,15 +50012,15 @@
       <c r="B7" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="17"/>
-      <c r="D7" s="44"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="28"/>
-      <c r="G7" s="28"/>
-      <c r="H7" s="28"/>
-      <c r="I7" s="28"/>
-      <c r="J7" s="28"/>
-      <c r="K7" s="28"/>
+      <c r="C7" s="26"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="21"/>
+      <c r="J7" s="21"/>
+      <c r="K7" s="21"/>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="4">
@@ -50029,19 +50029,19 @@
       <c r="B8" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="17"/>
-      <c r="D8" s="24">
+      <c r="C8" s="26"/>
+      <c r="D8" s="27">
         <v>92.3</v>
       </c>
-      <c r="E8" s="17"/>
-      <c r="F8" s="28"/>
-      <c r="G8" s="28"/>
-      <c r="H8" s="28"/>
-      <c r="I8" s="28" t="s">
+      <c r="E8" s="26"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="21"/>
+      <c r="I8" s="21" t="s">
         <v>2054</v>
       </c>
-      <c r="J8" s="28"/>
-      <c r="K8" s="28"/>
+      <c r="J8" s="21"/>
+      <c r="K8" s="21"/>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="4">
@@ -50050,15 +50050,15 @@
       <c r="B9" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="17"/>
-      <c r="D9" s="22"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="28"/>
-      <c r="G9" s="28"/>
-      <c r="H9" s="28"/>
-      <c r="I9" s="28"/>
-      <c r="J9" s="28"/>
-      <c r="K9" s="28"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="29"/>
+      <c r="E9" s="26"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="21"/>
+      <c r="I9" s="21"/>
+      <c r="J9" s="21"/>
+      <c r="K9" s="21"/>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="4">
@@ -50067,15 +50067,15 @@
       <c r="B10" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C10" s="17"/>
-      <c r="D10" s="22"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="28"/>
-      <c r="G10" s="28"/>
-      <c r="H10" s="28"/>
-      <c r="I10" s="28"/>
-      <c r="J10" s="28"/>
-      <c r="K10" s="28"/>
+      <c r="C10" s="26"/>
+      <c r="D10" s="29"/>
+      <c r="E10" s="26"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="21"/>
+      <c r="I10" s="21"/>
+      <c r="J10" s="21"/>
+      <c r="K10" s="21"/>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="4">
@@ -50084,15 +50084,15 @@
       <c r="B11" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="17"/>
-      <c r="D11" s="23"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="28"/>
-      <c r="G11" s="28"/>
-      <c r="H11" s="28"/>
-      <c r="I11" s="28"/>
-      <c r="J11" s="28"/>
-      <c r="K11" s="28"/>
+      <c r="C11" s="26"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="26"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="21"/>
+      <c r="H11" s="21"/>
+      <c r="I11" s="21"/>
+      <c r="J11" s="21"/>
+      <c r="K11" s="21"/>
     </row>
     <row r="12" spans="1:11" ht="13" customHeight="1">
       <c r="A12" s="4">
@@ -50101,20 +50101,20 @@
       <c r="B12" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="17" t="s">
+      <c r="C12" s="26" t="s">
         <v>2046</v>
       </c>
-      <c r="D12" s="17">
+      <c r="D12" s="26">
         <v>91.8</v>
       </c>
-      <c r="E12" s="18" t="s">
+      <c r="E12" s="31" t="s">
         <v>2049</v>
       </c>
-      <c r="F12" s="45" t="s">
+      <c r="F12" s="30" t="s">
         <v>2047</v>
       </c>
-      <c r="G12" s="45"/>
-      <c r="H12" s="45"/>
+      <c r="G12" s="30"/>
+      <c r="H12" s="30"/>
       <c r="I12" s="6"/>
       <c r="J12" s="6"/>
       <c r="K12" s="6"/>
@@ -50126,12 +50126,12 @@
       <c r="B13" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="17"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="45"/>
-      <c r="G13" s="45"/>
-      <c r="H13" s="45"/>
+      <c r="C13" s="26"/>
+      <c r="D13" s="26"/>
+      <c r="E13" s="26"/>
+      <c r="F13" s="30"/>
+      <c r="G13" s="30"/>
+      <c r="H13" s="30"/>
       <c r="I13" s="6"/>
       <c r="J13" s="6"/>
       <c r="K13" s="6"/>
@@ -50143,12 +50143,12 @@
       <c r="B14" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="17"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="45"/>
-      <c r="G14" s="45"/>
-      <c r="H14" s="45"/>
+      <c r="C14" s="26"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="30"/>
+      <c r="G14" s="30"/>
+      <c r="H14" s="30"/>
       <c r="I14" s="6"/>
       <c r="J14" s="6"/>
       <c r="K14" s="6"/>
@@ -50160,12 +50160,12 @@
       <c r="B15" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="17"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="45"/>
-      <c r="G15" s="45"/>
-      <c r="H15" s="45"/>
+      <c r="C15" s="26"/>
+      <c r="D15" s="26"/>
+      <c r="E15" s="26"/>
+      <c r="F15" s="30"/>
+      <c r="G15" s="30"/>
+      <c r="H15" s="30"/>
       <c r="I15" s="6"/>
       <c r="J15" s="6"/>
       <c r="K15" s="6"/>
@@ -50177,12 +50177,12 @@
       <c r="B16" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C16" s="17"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="45"/>
-      <c r="G16" s="45"/>
-      <c r="H16" s="45"/>
+      <c r="C16" s="26"/>
+      <c r="D16" s="26"/>
+      <c r="E16" s="26"/>
+      <c r="F16" s="30"/>
+      <c r="G16" s="30"/>
+      <c r="H16" s="30"/>
       <c r="I16" s="6"/>
       <c r="J16" s="6"/>
       <c r="K16" s="6"/>
@@ -50194,13 +50194,13 @@
       <c r="B17" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="24" t="s">
+      <c r="C17" s="27" t="s">
         <v>2050</v>
       </c>
-      <c r="D17" s="30">
+      <c r="D17" s="25">
         <v>92</v>
       </c>
-      <c r="E17" s="19" t="s">
+      <c r="E17" s="18" t="s">
         <v>2051</v>
       </c>
       <c r="F17" s="33" t="s">
@@ -50219,9 +50219,9 @@
       <c r="B18" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C18" s="22"/>
-      <c r="D18" s="30"/>
-      <c r="E18" s="22"/>
+      <c r="C18" s="29"/>
+      <c r="D18" s="25"/>
+      <c r="E18" s="29"/>
       <c r="F18" s="36"/>
       <c r="G18" s="37"/>
       <c r="H18" s="38"/>
@@ -50236,9 +50236,9 @@
       <c r="B19" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C19" s="22"/>
-      <c r="D19" s="30"/>
-      <c r="E19" s="22"/>
+      <c r="C19" s="29"/>
+      <c r="D19" s="25"/>
+      <c r="E19" s="29"/>
       <c r="F19" s="36"/>
       <c r="G19" s="37"/>
       <c r="H19" s="38"/>
@@ -50253,9 +50253,9 @@
       <c r="B20" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C20" s="22"/>
-      <c r="D20" s="30"/>
-      <c r="E20" s="22"/>
+      <c r="C20" s="29"/>
+      <c r="D20" s="25"/>
+      <c r="E20" s="29"/>
       <c r="F20" s="36"/>
       <c r="G20" s="37"/>
       <c r="H20" s="38"/>
@@ -50270,11 +50270,11 @@
       <c r="B21" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C21" s="22"/>
-      <c r="D21" s="17">
+      <c r="C21" s="29"/>
+      <c r="D21" s="26">
         <v>92.4</v>
       </c>
-      <c r="E21" s="22"/>
+      <c r="E21" s="29"/>
       <c r="F21" s="36"/>
       <c r="G21" s="37"/>
       <c r="H21" s="38"/>
@@ -50289,9 +50289,9 @@
       <c r="B22" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C22" s="22"/>
-      <c r="D22" s="17"/>
-      <c r="E22" s="22"/>
+      <c r="C22" s="29"/>
+      <c r="D22" s="26"/>
+      <c r="E22" s="29"/>
       <c r="F22" s="36"/>
       <c r="G22" s="37"/>
       <c r="H22" s="38"/>
@@ -50306,9 +50306,9 @@
       <c r="B23" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C23" s="22"/>
-      <c r="D23" s="17"/>
-      <c r="E23" s="22"/>
+      <c r="C23" s="29"/>
+      <c r="D23" s="26"/>
+      <c r="E23" s="29"/>
       <c r="F23" s="36"/>
       <c r="G23" s="37"/>
       <c r="H23" s="38"/>
@@ -50323,9 +50323,9 @@
       <c r="B24" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C24" s="23"/>
-      <c r="D24" s="17"/>
-      <c r="E24" s="23"/>
+      <c r="C24" s="28"/>
+      <c r="D24" s="26"/>
+      <c r="E24" s="28"/>
       <c r="F24" s="39"/>
       <c r="G24" s="40"/>
       <c r="H24" s="41"/>
@@ -50340,25 +50340,25 @@
       <c r="B25" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C25" s="18" t="s">
+      <c r="C25" s="31" t="s">
         <v>2069</v>
       </c>
-      <c r="D25" s="42">
+      <c r="D25" s="22">
         <v>95</v>
       </c>
-      <c r="E25" s="18" t="s">
+      <c r="E25" s="31" t="s">
         <v>2059</v>
       </c>
-      <c r="F25" s="28" t="s">
+      <c r="F25" s="21" t="s">
         <v>2060</v>
       </c>
-      <c r="G25" s="28"/>
-      <c r="H25" s="28"/>
-      <c r="I25" s="28" t="s">
+      <c r="G25" s="21"/>
+      <c r="H25" s="21"/>
+      <c r="I25" s="21" t="s">
         <v>2061</v>
       </c>
-      <c r="J25" s="28"/>
-      <c r="K25" s="28"/>
+      <c r="J25" s="21"/>
+      <c r="K25" s="21"/>
     </row>
     <row r="26" spans="1:11">
       <c r="A26" s="4">
@@ -50367,15 +50367,15 @@
       <c r="B26" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C26" s="17"/>
-      <c r="D26" s="43"/>
-      <c r="E26" s="17"/>
-      <c r="F26" s="28"/>
-      <c r="G26" s="28"/>
-      <c r="H26" s="28"/>
-      <c r="I26" s="28"/>
-      <c r="J26" s="28"/>
-      <c r="K26" s="28"/>
+      <c r="C26" s="26"/>
+      <c r="D26" s="23"/>
+      <c r="E26" s="26"/>
+      <c r="F26" s="21"/>
+      <c r="G26" s="21"/>
+      <c r="H26" s="21"/>
+      <c r="I26" s="21"/>
+      <c r="J26" s="21"/>
+      <c r="K26" s="21"/>
     </row>
     <row r="27" spans="1:11">
       <c r="A27" s="4">
@@ -50384,15 +50384,15 @@
       <c r="B27" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C27" s="17"/>
-      <c r="D27" s="43"/>
-      <c r="E27" s="17"/>
-      <c r="F27" s="28"/>
-      <c r="G27" s="28"/>
-      <c r="H27" s="28"/>
-      <c r="I27" s="28"/>
-      <c r="J27" s="28"/>
-      <c r="K27" s="28"/>
+      <c r="C27" s="26"/>
+      <c r="D27" s="23"/>
+      <c r="E27" s="26"/>
+      <c r="F27" s="21"/>
+      <c r="G27" s="21"/>
+      <c r="H27" s="21"/>
+      <c r="I27" s="21"/>
+      <c r="J27" s="21"/>
+      <c r="K27" s="21"/>
     </row>
     <row r="28" spans="1:11">
       <c r="A28" s="4">
@@ -50401,15 +50401,15 @@
       <c r="B28" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C28" s="17"/>
-      <c r="D28" s="43"/>
-      <c r="E28" s="17"/>
-      <c r="F28" s="28"/>
-      <c r="G28" s="28"/>
-      <c r="H28" s="28"/>
-      <c r="I28" s="28"/>
-      <c r="J28" s="28"/>
-      <c r="K28" s="28"/>
+      <c r="C28" s="26"/>
+      <c r="D28" s="23"/>
+      <c r="E28" s="26"/>
+      <c r="F28" s="21"/>
+      <c r="G28" s="21"/>
+      <c r="H28" s="21"/>
+      <c r="I28" s="21"/>
+      <c r="J28" s="21"/>
+      <c r="K28" s="21"/>
     </row>
     <row r="29" spans="1:11">
       <c r="A29" s="4">
@@ -50418,15 +50418,15 @@
       <c r="B29" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C29" s="17"/>
-      <c r="D29" s="43"/>
-      <c r="E29" s="17"/>
-      <c r="F29" s="28"/>
-      <c r="G29" s="28"/>
-      <c r="H29" s="28"/>
-      <c r="I29" s="28"/>
-      <c r="J29" s="28"/>
-      <c r="K29" s="28"/>
+      <c r="C29" s="26"/>
+      <c r="D29" s="23"/>
+      <c r="E29" s="26"/>
+      <c r="F29" s="21"/>
+      <c r="G29" s="21"/>
+      <c r="H29" s="21"/>
+      <c r="I29" s="21"/>
+      <c r="J29" s="21"/>
+      <c r="K29" s="21"/>
     </row>
     <row r="30" spans="1:11">
       <c r="A30" s="4">
@@ -50435,15 +50435,15 @@
       <c r="B30" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C30" s="17"/>
-      <c r="D30" s="43"/>
-      <c r="E30" s="17"/>
-      <c r="F30" s="28"/>
-      <c r="G30" s="28"/>
-      <c r="H30" s="28"/>
-      <c r="I30" s="28"/>
-      <c r="J30" s="28"/>
-      <c r="K30" s="28"/>
+      <c r="C30" s="26"/>
+      <c r="D30" s="23"/>
+      <c r="E30" s="26"/>
+      <c r="F30" s="21"/>
+      <c r="G30" s="21"/>
+      <c r="H30" s="21"/>
+      <c r="I30" s="21"/>
+      <c r="J30" s="21"/>
+      <c r="K30" s="21"/>
     </row>
     <row r="31" spans="1:11">
       <c r="A31" s="4">
@@ -50452,15 +50452,15 @@
       <c r="B31" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C31" s="17"/>
-      <c r="D31" s="43"/>
-      <c r="E31" s="17"/>
-      <c r="F31" s="28"/>
-      <c r="G31" s="28"/>
-      <c r="H31" s="28"/>
-      <c r="I31" s="28"/>
-      <c r="J31" s="28"/>
-      <c r="K31" s="28"/>
+      <c r="C31" s="26"/>
+      <c r="D31" s="23"/>
+      <c r="E31" s="26"/>
+      <c r="F31" s="21"/>
+      <c r="G31" s="21"/>
+      <c r="H31" s="21"/>
+      <c r="I31" s="21"/>
+      <c r="J31" s="21"/>
+      <c r="K31" s="21"/>
     </row>
     <row r="32" spans="1:11">
       <c r="A32" s="4">
@@ -50469,15 +50469,15 @@
       <c r="B32" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C32" s="17"/>
-      <c r="D32" s="43"/>
-      <c r="E32" s="17"/>
-      <c r="F32" s="28"/>
-      <c r="G32" s="28"/>
-      <c r="H32" s="28"/>
-      <c r="I32" s="28"/>
-      <c r="J32" s="28"/>
-      <c r="K32" s="28"/>
+      <c r="C32" s="26"/>
+      <c r="D32" s="23"/>
+      <c r="E32" s="26"/>
+      <c r="F32" s="21"/>
+      <c r="G32" s="21"/>
+      <c r="H32" s="21"/>
+      <c r="I32" s="21"/>
+      <c r="J32" s="21"/>
+      <c r="K32" s="21"/>
     </row>
     <row r="33" spans="1:11">
       <c r="A33" s="4">
@@ -50486,15 +50486,15 @@
       <c r="B33" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C33" s="17"/>
-      <c r="D33" s="43"/>
-      <c r="E33" s="17"/>
-      <c r="F33" s="28"/>
-      <c r="G33" s="28"/>
-      <c r="H33" s="28"/>
-      <c r="I33" s="28"/>
-      <c r="J33" s="28"/>
-      <c r="K33" s="28"/>
+      <c r="C33" s="26"/>
+      <c r="D33" s="23"/>
+      <c r="E33" s="26"/>
+      <c r="F33" s="21"/>
+      <c r="G33" s="21"/>
+      <c r="H33" s="21"/>
+      <c r="I33" s="21"/>
+      <c r="J33" s="21"/>
+      <c r="K33" s="21"/>
     </row>
     <row r="34" spans="1:11">
       <c r="A34" s="4">
@@ -50503,15 +50503,15 @@
       <c r="B34" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C34" s="17"/>
-      <c r="D34" s="43"/>
-      <c r="E34" s="17"/>
-      <c r="F34" s="28"/>
-      <c r="G34" s="28"/>
-      <c r="H34" s="28"/>
-      <c r="I34" s="28"/>
-      <c r="J34" s="28"/>
-      <c r="K34" s="28"/>
+      <c r="C34" s="26"/>
+      <c r="D34" s="23"/>
+      <c r="E34" s="26"/>
+      <c r="F34" s="21"/>
+      <c r="G34" s="21"/>
+      <c r="H34" s="21"/>
+      <c r="I34" s="21"/>
+      <c r="J34" s="21"/>
+      <c r="K34" s="21"/>
     </row>
     <row r="35" spans="1:11">
       <c r="A35" s="4">
@@ -50520,15 +50520,15 @@
       <c r="B35" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="C35" s="17"/>
-      <c r="D35" s="43"/>
-      <c r="E35" s="17"/>
-      <c r="F35" s="28"/>
-      <c r="G35" s="28"/>
-      <c r="H35" s="28"/>
-      <c r="I35" s="28"/>
-      <c r="J35" s="28"/>
-      <c r="K35" s="28"/>
+      <c r="C35" s="26"/>
+      <c r="D35" s="23"/>
+      <c r="E35" s="26"/>
+      <c r="F35" s="21"/>
+      <c r="G35" s="21"/>
+      <c r="H35" s="21"/>
+      <c r="I35" s="21"/>
+      <c r="J35" s="21"/>
+      <c r="K35" s="21"/>
     </row>
     <row r="36" spans="1:11">
       <c r="A36" s="4">
@@ -50537,15 +50537,15 @@
       <c r="B36" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="C36" s="17"/>
-      <c r="D36" s="43"/>
-      <c r="E36" s="17"/>
-      <c r="F36" s="28"/>
-      <c r="G36" s="28"/>
-      <c r="H36" s="28"/>
-      <c r="I36" s="28"/>
-      <c r="J36" s="28"/>
-      <c r="K36" s="28"/>
+      <c r="C36" s="26"/>
+      <c r="D36" s="23"/>
+      <c r="E36" s="26"/>
+      <c r="F36" s="21"/>
+      <c r="G36" s="21"/>
+      <c r="H36" s="21"/>
+      <c r="I36" s="21"/>
+      <c r="J36" s="21"/>
+      <c r="K36" s="21"/>
     </row>
     <row r="37" spans="1:11">
       <c r="A37" s="4">
@@ -50554,15 +50554,15 @@
       <c r="B37" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="C37" s="17"/>
-      <c r="D37" s="43"/>
-      <c r="E37" s="17"/>
-      <c r="F37" s="28"/>
-      <c r="G37" s="28"/>
-      <c r="H37" s="28"/>
-      <c r="I37" s="28"/>
-      <c r="J37" s="28"/>
-      <c r="K37" s="28"/>
+      <c r="C37" s="26"/>
+      <c r="D37" s="23"/>
+      <c r="E37" s="26"/>
+      <c r="F37" s="21"/>
+      <c r="G37" s="21"/>
+      <c r="H37" s="21"/>
+      <c r="I37" s="21"/>
+      <c r="J37" s="21"/>
+      <c r="K37" s="21"/>
     </row>
     <row r="38" spans="1:11">
       <c r="A38" s="4">
@@ -50571,15 +50571,15 @@
       <c r="B38" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C38" s="17"/>
-      <c r="D38" s="43"/>
-      <c r="E38" s="17"/>
-      <c r="F38" s="28"/>
-      <c r="G38" s="28"/>
-      <c r="H38" s="28"/>
-      <c r="I38" s="28"/>
-      <c r="J38" s="28"/>
-      <c r="K38" s="28"/>
+      <c r="C38" s="26"/>
+      <c r="D38" s="23"/>
+      <c r="E38" s="26"/>
+      <c r="F38" s="21"/>
+      <c r="G38" s="21"/>
+      <c r="H38" s="21"/>
+      <c r="I38" s="21"/>
+      <c r="J38" s="21"/>
+      <c r="K38" s="21"/>
     </row>
     <row r="39" spans="1:11">
       <c r="A39" s="4">
@@ -50588,15 +50588,15 @@
       <c r="B39" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C39" s="17"/>
-      <c r="D39" s="44"/>
-      <c r="E39" s="17"/>
-      <c r="F39" s="28"/>
-      <c r="G39" s="28"/>
-      <c r="H39" s="28"/>
-      <c r="I39" s="28"/>
-      <c r="J39" s="28"/>
-      <c r="K39" s="28"/>
+      <c r="C39" s="26"/>
+      <c r="D39" s="24"/>
+      <c r="E39" s="26"/>
+      <c r="F39" s="21"/>
+      <c r="G39" s="21"/>
+      <c r="H39" s="21"/>
+      <c r="I39" s="21"/>
+      <c r="J39" s="21"/>
+      <c r="K39" s="21"/>
     </row>
     <row r="40" spans="1:11">
       <c r="A40" s="4">
@@ -50605,16 +50605,16 @@
       <c r="B40" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="C40" s="17" t="s">
+      <c r="C40" s="26" t="s">
         <v>2046</v>
       </c>
-      <c r="D40" s="30">
+      <c r="D40" s="25">
         <v>95</v>
       </c>
-      <c r="E40" s="17"/>
-      <c r="F40" s="28"/>
-      <c r="G40" s="28"/>
-      <c r="H40" s="28"/>
+      <c r="E40" s="26"/>
+      <c r="F40" s="21"/>
+      <c r="G40" s="21"/>
+      <c r="H40" s="21"/>
     </row>
     <row r="41" spans="1:11">
       <c r="A41" s="4">
@@ -50623,12 +50623,12 @@
       <c r="B41" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="C41" s="17"/>
-      <c r="D41" s="30"/>
-      <c r="E41" s="17"/>
-      <c r="F41" s="28"/>
-      <c r="G41" s="28"/>
-      <c r="H41" s="28"/>
+      <c r="C41" s="26"/>
+      <c r="D41" s="25"/>
+      <c r="E41" s="26"/>
+      <c r="F41" s="21"/>
+      <c r="G41" s="21"/>
+      <c r="H41" s="21"/>
     </row>
     <row r="42" spans="1:11">
       <c r="A42" s="4">
@@ -50637,12 +50637,12 @@
       <c r="B42" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="C42" s="17"/>
-      <c r="D42" s="30"/>
-      <c r="E42" s="17"/>
-      <c r="F42" s="28"/>
-      <c r="G42" s="28"/>
-      <c r="H42" s="28"/>
+      <c r="C42" s="26"/>
+      <c r="D42" s="25"/>
+      <c r="E42" s="26"/>
+      <c r="F42" s="21"/>
+      <c r="G42" s="21"/>
+      <c r="H42" s="21"/>
     </row>
     <row r="43" spans="1:11">
       <c r="A43" s="4">
@@ -50651,12 +50651,12 @@
       <c r="B43" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="C43" s="17"/>
-      <c r="D43" s="30"/>
-      <c r="E43" s="17"/>
-      <c r="F43" s="28"/>
-      <c r="G43" s="28"/>
-      <c r="H43" s="28"/>
+      <c r="C43" s="26"/>
+      <c r="D43" s="25"/>
+      <c r="E43" s="26"/>
+      <c r="F43" s="21"/>
+      <c r="G43" s="21"/>
+      <c r="H43" s="21"/>
     </row>
     <row r="44" spans="1:11">
       <c r="A44" s="4">
@@ -50665,12 +50665,12 @@
       <c r="B44" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="C44" s="17"/>
-      <c r="D44" s="30"/>
-      <c r="E44" s="17"/>
-      <c r="F44" s="28"/>
-      <c r="G44" s="28"/>
-      <c r="H44" s="28"/>
+      <c r="C44" s="26"/>
+      <c r="D44" s="25"/>
+      <c r="E44" s="26"/>
+      <c r="F44" s="21"/>
+      <c r="G44" s="21"/>
+      <c r="H44" s="21"/>
     </row>
     <row r="45" spans="1:11">
       <c r="A45" s="4">
@@ -50679,14 +50679,14 @@
       <c r="B45" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="C45" s="17"/>
-      <c r="D45" s="30">
+      <c r="C45" s="26"/>
+      <c r="D45" s="25">
         <v>94</v>
       </c>
-      <c r="E45" s="17"/>
-      <c r="F45" s="28"/>
-      <c r="G45" s="28"/>
-      <c r="H45" s="28"/>
+      <c r="E45" s="26"/>
+      <c r="F45" s="21"/>
+      <c r="G45" s="21"/>
+      <c r="H45" s="21"/>
     </row>
     <row r="46" spans="1:11">
       <c r="A46" s="4">
@@ -50695,12 +50695,12 @@
       <c r="B46" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="C46" s="17"/>
-      <c r="D46" s="30"/>
-      <c r="E46" s="17"/>
-      <c r="F46" s="28"/>
-      <c r="G46" s="28"/>
-      <c r="H46" s="28"/>
+      <c r="C46" s="26"/>
+      <c r="D46" s="25"/>
+      <c r="E46" s="26"/>
+      <c r="F46" s="21"/>
+      <c r="G46" s="21"/>
+      <c r="H46" s="21"/>
     </row>
     <row r="47" spans="1:11">
       <c r="A47" s="4">
@@ -50709,12 +50709,12 @@
       <c r="B47" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="C47" s="17"/>
-      <c r="D47" s="30"/>
-      <c r="E47" s="17"/>
-      <c r="F47" s="28"/>
-      <c r="G47" s="28"/>
-      <c r="H47" s="28"/>
+      <c r="C47" s="26"/>
+      <c r="D47" s="25"/>
+      <c r="E47" s="26"/>
+      <c r="F47" s="21"/>
+      <c r="G47" s="21"/>
+      <c r="H47" s="21"/>
     </row>
     <row r="48" spans="1:11">
       <c r="A48" s="4">
@@ -50723,12 +50723,12 @@
       <c r="B48" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="C48" s="17"/>
-      <c r="D48" s="30"/>
-      <c r="E48" s="17"/>
-      <c r="F48" s="28"/>
-      <c r="G48" s="28"/>
-      <c r="H48" s="28"/>
+      <c r="C48" s="26"/>
+      <c r="D48" s="25"/>
+      <c r="E48" s="26"/>
+      <c r="F48" s="21"/>
+      <c r="G48" s="21"/>
+      <c r="H48" s="21"/>
     </row>
     <row r="49" spans="1:8">
       <c r="A49" s="4">
@@ -50737,12 +50737,12 @@
       <c r="B49" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="C49" s="17"/>
-      <c r="D49" s="30"/>
-      <c r="E49" s="17"/>
-      <c r="F49" s="28"/>
-      <c r="G49" s="28"/>
-      <c r="H49" s="28"/>
+      <c r="C49" s="26"/>
+      <c r="D49" s="25"/>
+      <c r="E49" s="26"/>
+      <c r="F49" s="21"/>
+      <c r="G49" s="21"/>
+      <c r="H49" s="21"/>
     </row>
     <row r="50" spans="1:8">
       <c r="A50" s="4">
@@ -50751,14 +50751,14 @@
       <c r="B50" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="C50" s="17"/>
-      <c r="D50" s="30">
+      <c r="C50" s="26"/>
+      <c r="D50" s="25">
         <v>93</v>
       </c>
-      <c r="E50" s="17"/>
-      <c r="F50" s="28"/>
-      <c r="G50" s="28"/>
-      <c r="H50" s="28"/>
+      <c r="E50" s="26"/>
+      <c r="F50" s="21"/>
+      <c r="G50" s="21"/>
+      <c r="H50" s="21"/>
     </row>
     <row r="51" spans="1:8">
       <c r="A51" s="4">
@@ -50767,12 +50767,12 @@
       <c r="B51" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="C51" s="17"/>
-      <c r="D51" s="30"/>
-      <c r="E51" s="17"/>
-      <c r="F51" s="28"/>
-      <c r="G51" s="28"/>
-      <c r="H51" s="28"/>
+      <c r="C51" s="26"/>
+      <c r="D51" s="25"/>
+      <c r="E51" s="26"/>
+      <c r="F51" s="21"/>
+      <c r="G51" s="21"/>
+      <c r="H51" s="21"/>
     </row>
     <row r="52" spans="1:8">
       <c r="A52" s="4">
@@ -50781,12 +50781,12 @@
       <c r="B52" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="C52" s="17"/>
-      <c r="D52" s="30"/>
-      <c r="E52" s="17"/>
-      <c r="F52" s="28"/>
-      <c r="G52" s="28"/>
-      <c r="H52" s="28"/>
+      <c r="C52" s="26"/>
+      <c r="D52" s="25"/>
+      <c r="E52" s="26"/>
+      <c r="F52" s="21"/>
+      <c r="G52" s="21"/>
+      <c r="H52" s="21"/>
     </row>
     <row r="53" spans="1:8">
       <c r="A53" s="4">
@@ -50795,12 +50795,12 @@
       <c r="B53" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="C53" s="17"/>
-      <c r="D53" s="30"/>
-      <c r="E53" s="17"/>
-      <c r="F53" s="28"/>
-      <c r="G53" s="28"/>
-      <c r="H53" s="28"/>
+      <c r="C53" s="26"/>
+      <c r="D53" s="25"/>
+      <c r="E53" s="26"/>
+      <c r="F53" s="21"/>
+      <c r="G53" s="21"/>
+      <c r="H53" s="21"/>
     </row>
     <row r="54" spans="1:8">
       <c r="A54" s="4">
@@ -50809,12 +50809,12 @@
       <c r="B54" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="C54" s="17"/>
-      <c r="D54" s="30"/>
-      <c r="E54" s="17"/>
-      <c r="F54" s="28"/>
-      <c r="G54" s="28"/>
-      <c r="H54" s="28"/>
+      <c r="C54" s="26"/>
+      <c r="D54" s="25"/>
+      <c r="E54" s="26"/>
+      <c r="F54" s="21"/>
+      <c r="G54" s="21"/>
+      <c r="H54" s="21"/>
     </row>
     <row r="55" spans="1:8">
       <c r="A55" s="4">
@@ -50823,20 +50823,20 @@
       <c r="B55" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="C55" s="17" t="s">
+      <c r="C55" s="26" t="s">
         <v>2046</v>
       </c>
-      <c r="D55" s="30">
+      <c r="D55" s="25">
         <v>94</v>
       </c>
       <c r="E55" s="32" t="s">
         <v>2063</v>
       </c>
-      <c r="F55" s="28" t="s">
+      <c r="F55" s="21" t="s">
         <v>2068</v>
       </c>
-      <c r="G55" s="29"/>
-      <c r="H55" s="29"/>
+      <c r="G55" s="42"/>
+      <c r="H55" s="42"/>
     </row>
     <row r="56" spans="1:8">
       <c r="A56" s="4">
@@ -50845,12 +50845,12 @@
       <c r="B56" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="C56" s="17"/>
-      <c r="D56" s="30"/>
-      <c r="E56" s="17"/>
-      <c r="F56" s="29"/>
-      <c r="G56" s="29"/>
-      <c r="H56" s="29"/>
+      <c r="C56" s="26"/>
+      <c r="D56" s="25"/>
+      <c r="E56" s="26"/>
+      <c r="F56" s="42"/>
+      <c r="G56" s="42"/>
+      <c r="H56" s="42"/>
     </row>
     <row r="57" spans="1:8">
       <c r="A57" s="4">
@@ -50859,12 +50859,12 @@
       <c r="B57" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="C57" s="17"/>
-      <c r="D57" s="30"/>
-      <c r="E57" s="17"/>
-      <c r="F57" s="29"/>
-      <c r="G57" s="29"/>
-      <c r="H57" s="29"/>
+      <c r="C57" s="26"/>
+      <c r="D57" s="25"/>
+      <c r="E57" s="26"/>
+      <c r="F57" s="42"/>
+      <c r="G57" s="42"/>
+      <c r="H57" s="42"/>
     </row>
     <row r="58" spans="1:8">
       <c r="A58" s="4">
@@ -50873,12 +50873,12 @@
       <c r="B58" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="C58" s="17"/>
-      <c r="D58" s="30"/>
-      <c r="E58" s="17"/>
-      <c r="F58" s="29"/>
-      <c r="G58" s="29"/>
-      <c r="H58" s="29"/>
+      <c r="C58" s="26"/>
+      <c r="D58" s="25"/>
+      <c r="E58" s="26"/>
+      <c r="F58" s="42"/>
+      <c r="G58" s="42"/>
+      <c r="H58" s="42"/>
     </row>
     <row r="59" spans="1:8">
       <c r="A59" s="4">
@@ -50887,12 +50887,12 @@
       <c r="B59" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="C59" s="17"/>
-      <c r="D59" s="30"/>
-      <c r="E59" s="17"/>
-      <c r="F59" s="29"/>
-      <c r="G59" s="29"/>
-      <c r="H59" s="29"/>
+      <c r="C59" s="26"/>
+      <c r="D59" s="25"/>
+      <c r="E59" s="26"/>
+      <c r="F59" s="42"/>
+      <c r="G59" s="42"/>
+      <c r="H59" s="42"/>
     </row>
     <row r="60" spans="1:8">
       <c r="A60" s="4">
@@ -50901,12 +50901,12 @@
       <c r="B60" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="C60" s="17"/>
-      <c r="D60" s="30"/>
-      <c r="E60" s="17"/>
-      <c r="F60" s="29"/>
-      <c r="G60" s="29"/>
-      <c r="H60" s="29"/>
+      <c r="C60" s="26"/>
+      <c r="D60" s="25"/>
+      <c r="E60" s="26"/>
+      <c r="F60" s="42"/>
+      <c r="G60" s="42"/>
+      <c r="H60" s="42"/>
     </row>
     <row r="61" spans="1:8">
       <c r="A61" s="4">
@@ -50915,12 +50915,12 @@
       <c r="B61" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="C61" s="17"/>
-      <c r="D61" s="30"/>
-      <c r="E61" s="17"/>
-      <c r="F61" s="29"/>
-      <c r="G61" s="29"/>
-      <c r="H61" s="29"/>
+      <c r="C61" s="26"/>
+      <c r="D61" s="25"/>
+      <c r="E61" s="26"/>
+      <c r="F61" s="42"/>
+      <c r="G61" s="42"/>
+      <c r="H61" s="42"/>
     </row>
     <row r="62" spans="1:8">
       <c r="A62" s="4">
@@ -50929,12 +50929,12 @@
       <c r="B62" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="C62" s="17"/>
-      <c r="D62" s="30"/>
-      <c r="E62" s="17"/>
-      <c r="F62" s="29"/>
-      <c r="G62" s="29"/>
-      <c r="H62" s="29"/>
+      <c r="C62" s="26"/>
+      <c r="D62" s="25"/>
+      <c r="E62" s="26"/>
+      <c r="F62" s="42"/>
+      <c r="G62" s="42"/>
+      <c r="H62" s="42"/>
     </row>
     <row r="63" spans="1:8">
       <c r="A63" s="4">
@@ -50943,12 +50943,12 @@
       <c r="B63" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="C63" s="17"/>
-      <c r="D63" s="30"/>
-      <c r="E63" s="17"/>
-      <c r="F63" s="29"/>
-      <c r="G63" s="29"/>
-      <c r="H63" s="29"/>
+      <c r="C63" s="26"/>
+      <c r="D63" s="25"/>
+      <c r="E63" s="26"/>
+      <c r="F63" s="42"/>
+      <c r="G63" s="42"/>
+      <c r="H63" s="42"/>
     </row>
     <row r="64" spans="1:8">
       <c r="A64" s="4">
@@ -50957,12 +50957,12 @@
       <c r="B64" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="C64" s="17"/>
-      <c r="D64" s="30"/>
-      <c r="E64" s="17"/>
-      <c r="F64" s="29"/>
-      <c r="G64" s="29"/>
-      <c r="H64" s="29"/>
+      <c r="C64" s="26"/>
+      <c r="D64" s="25"/>
+      <c r="E64" s="26"/>
+      <c r="F64" s="42"/>
+      <c r="G64" s="42"/>
+      <c r="H64" s="42"/>
     </row>
     <row r="65" spans="1:8">
       <c r="A65" s="4">
@@ -50971,12 +50971,12 @@
       <c r="B65" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="C65" s="17"/>
-      <c r="D65" s="30"/>
-      <c r="E65" s="17"/>
-      <c r="F65" s="29"/>
-      <c r="G65" s="29"/>
-      <c r="H65" s="29"/>
+      <c r="C65" s="26"/>
+      <c r="D65" s="25"/>
+      <c r="E65" s="26"/>
+      <c r="F65" s="42"/>
+      <c r="G65" s="42"/>
+      <c r="H65" s="42"/>
     </row>
     <row r="66" spans="1:8">
       <c r="A66" s="4">
@@ -50985,12 +50985,12 @@
       <c r="B66" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="C66" s="17"/>
-      <c r="D66" s="30"/>
-      <c r="E66" s="17"/>
-      <c r="F66" s="29"/>
-      <c r="G66" s="29"/>
-      <c r="H66" s="29"/>
+      <c r="C66" s="26"/>
+      <c r="D66" s="25"/>
+      <c r="E66" s="26"/>
+      <c r="F66" s="42"/>
+      <c r="G66" s="42"/>
+      <c r="H66" s="42"/>
     </row>
     <row r="67" spans="1:8">
       <c r="A67" s="4">
@@ -50999,12 +50999,12 @@
       <c r="B67" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="C67" s="17"/>
-      <c r="D67" s="30"/>
-      <c r="E67" s="17"/>
-      <c r="F67" s="29"/>
-      <c r="G67" s="29"/>
-      <c r="H67" s="29"/>
+      <c r="C67" s="26"/>
+      <c r="D67" s="25"/>
+      <c r="E67" s="26"/>
+      <c r="F67" s="42"/>
+      <c r="G67" s="42"/>
+      <c r="H67" s="42"/>
     </row>
     <row r="68" spans="1:8">
       <c r="A68" s="4">
@@ -51013,12 +51013,12 @@
       <c r="B68" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="C68" s="17"/>
-      <c r="D68" s="30"/>
-      <c r="E68" s="17"/>
-      <c r="F68" s="29"/>
-      <c r="G68" s="29"/>
-      <c r="H68" s="29"/>
+      <c r="C68" s="26"/>
+      <c r="D68" s="25"/>
+      <c r="E68" s="26"/>
+      <c r="F68" s="42"/>
+      <c r="G68" s="42"/>
+      <c r="H68" s="42"/>
     </row>
     <row r="69" spans="1:8">
       <c r="A69" s="4">
@@ -51027,12 +51027,12 @@
       <c r="B69" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="C69" s="17"/>
-      <c r="D69" s="30"/>
-      <c r="E69" s="17"/>
-      <c r="F69" s="29"/>
-      <c r="G69" s="29"/>
-      <c r="H69" s="29"/>
+      <c r="C69" s="26"/>
+      <c r="D69" s="25"/>
+      <c r="E69" s="26"/>
+      <c r="F69" s="42"/>
+      <c r="G69" s="42"/>
+      <c r="H69" s="42"/>
     </row>
     <row r="70" spans="1:8">
       <c r="A70" s="4">
@@ -51041,14 +51041,14 @@
       <c r="B70" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="C70" s="17"/>
-      <c r="D70" s="30">
+      <c r="C70" s="26"/>
+      <c r="D70" s="25">
         <v>93</v>
       </c>
-      <c r="E70" s="17"/>
-      <c r="F70" s="29"/>
-      <c r="G70" s="29"/>
-      <c r="H70" s="29"/>
+      <c r="E70" s="26"/>
+      <c r="F70" s="42"/>
+      <c r="G70" s="42"/>
+      <c r="H70" s="42"/>
     </row>
     <row r="71" spans="1:8">
       <c r="A71" s="4">
@@ -51057,12 +51057,12 @@
       <c r="B71" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="C71" s="17"/>
-      <c r="D71" s="30"/>
-      <c r="E71" s="17"/>
-      <c r="F71" s="29"/>
-      <c r="G71" s="29"/>
-      <c r="H71" s="29"/>
+      <c r="C71" s="26"/>
+      <c r="D71" s="25"/>
+      <c r="E71" s="26"/>
+      <c r="F71" s="42"/>
+      <c r="G71" s="42"/>
+      <c r="H71" s="42"/>
     </row>
     <row r="72" spans="1:8">
       <c r="A72" s="4">
@@ -51071,12 +51071,12 @@
       <c r="B72" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="C72" s="17"/>
-      <c r="D72" s="30"/>
-      <c r="E72" s="17"/>
-      <c r="F72" s="29"/>
-      <c r="G72" s="29"/>
-      <c r="H72" s="29"/>
+      <c r="C72" s="26"/>
+      <c r="D72" s="25"/>
+      <c r="E72" s="26"/>
+      <c r="F72" s="42"/>
+      <c r="G72" s="42"/>
+      <c r="H72" s="42"/>
     </row>
     <row r="73" spans="1:8">
       <c r="A73" s="4">
@@ -51085,12 +51085,12 @@
       <c r="B73" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="C73" s="17"/>
-      <c r="D73" s="30"/>
-      <c r="E73" s="17"/>
-      <c r="F73" s="29"/>
-      <c r="G73" s="29"/>
-      <c r="H73" s="29"/>
+      <c r="C73" s="26"/>
+      <c r="D73" s="25"/>
+      <c r="E73" s="26"/>
+      <c r="F73" s="42"/>
+      <c r="G73" s="42"/>
+      <c r="H73" s="42"/>
     </row>
     <row r="74" spans="1:8">
       <c r="A74" s="4">
@@ -51099,12 +51099,12 @@
       <c r="B74" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="C74" s="17"/>
-      <c r="D74" s="30"/>
-      <c r="E74" s="17"/>
-      <c r="F74" s="29"/>
-      <c r="G74" s="29"/>
-      <c r="H74" s="29"/>
+      <c r="C74" s="26"/>
+      <c r="D74" s="25"/>
+      <c r="E74" s="26"/>
+      <c r="F74" s="42"/>
+      <c r="G74" s="42"/>
+      <c r="H74" s="42"/>
     </row>
     <row r="75" spans="1:8">
       <c r="A75" s="4">
@@ -51113,12 +51113,12 @@
       <c r="B75" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="C75" s="17"/>
-      <c r="D75" s="30"/>
-      <c r="E75" s="17"/>
-      <c r="F75" s="29"/>
-      <c r="G75" s="29"/>
-      <c r="H75" s="29"/>
+      <c r="C75" s="26"/>
+      <c r="D75" s="25"/>
+      <c r="E75" s="26"/>
+      <c r="F75" s="42"/>
+      <c r="G75" s="42"/>
+      <c r="H75" s="42"/>
     </row>
     <row r="76" spans="1:8">
       <c r="A76" s="4">
@@ -51127,12 +51127,12 @@
       <c r="B76" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="C76" s="17"/>
-      <c r="D76" s="30"/>
-      <c r="E76" s="17"/>
-      <c r="F76" s="29"/>
-      <c r="G76" s="29"/>
-      <c r="H76" s="29"/>
+      <c r="C76" s="26"/>
+      <c r="D76" s="25"/>
+      <c r="E76" s="26"/>
+      <c r="F76" s="42"/>
+      <c r="G76" s="42"/>
+      <c r="H76" s="42"/>
     </row>
     <row r="77" spans="1:8">
       <c r="A77" s="4">
@@ -51141,12 +51141,12 @@
       <c r="B77" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="C77" s="17"/>
-      <c r="D77" s="30"/>
-      <c r="E77" s="17"/>
-      <c r="F77" s="29"/>
-      <c r="G77" s="29"/>
-      <c r="H77" s="29"/>
+      <c r="C77" s="26"/>
+      <c r="D77" s="25"/>
+      <c r="E77" s="26"/>
+      <c r="F77" s="42"/>
+      <c r="G77" s="42"/>
+      <c r="H77" s="42"/>
     </row>
     <row r="78" spans="1:8">
       <c r="A78" s="4">
@@ -51155,12 +51155,12 @@
       <c r="B78" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="C78" s="17"/>
-      <c r="D78" s="30"/>
-      <c r="E78" s="17"/>
-      <c r="F78" s="29"/>
-      <c r="G78" s="29"/>
-      <c r="H78" s="29"/>
+      <c r="C78" s="26"/>
+      <c r="D78" s="25"/>
+      <c r="E78" s="26"/>
+      <c r="F78" s="42"/>
+      <c r="G78" s="42"/>
+      <c r="H78" s="42"/>
     </row>
     <row r="79" spans="1:8">
       <c r="A79" s="4">
@@ -51169,12 +51169,12 @@
       <c r="B79" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="C79" s="17"/>
-      <c r="D79" s="30"/>
-      <c r="E79" s="17"/>
-      <c r="F79" s="29"/>
-      <c r="G79" s="29"/>
-      <c r="H79" s="29"/>
+      <c r="C79" s="26"/>
+      <c r="D79" s="25"/>
+      <c r="E79" s="26"/>
+      <c r="F79" s="42"/>
+      <c r="G79" s="42"/>
+      <c r="H79" s="42"/>
     </row>
     <row r="80" spans="1:8">
       <c r="A80" s="4">
@@ -51183,12 +51183,12 @@
       <c r="B80" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="C80" s="17"/>
-      <c r="D80" s="30"/>
-      <c r="E80" s="17"/>
-      <c r="F80" s="29"/>
-      <c r="G80" s="29"/>
-      <c r="H80" s="29"/>
+      <c r="C80" s="26"/>
+      <c r="D80" s="25"/>
+      <c r="E80" s="26"/>
+      <c r="F80" s="42"/>
+      <c r="G80" s="42"/>
+      <c r="H80" s="42"/>
     </row>
     <row r="81" spans="1:8">
       <c r="A81" s="4">
@@ -51197,12 +51197,12 @@
       <c r="B81" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="C81" s="17"/>
-      <c r="D81" s="30"/>
-      <c r="E81" s="17"/>
-      <c r="F81" s="29"/>
-      <c r="G81" s="29"/>
-      <c r="H81" s="29"/>
+      <c r="C81" s="26"/>
+      <c r="D81" s="25"/>
+      <c r="E81" s="26"/>
+      <c r="F81" s="42"/>
+      <c r="G81" s="42"/>
+      <c r="H81" s="42"/>
     </row>
     <row r="82" spans="1:8">
       <c r="A82" s="4">
@@ -51211,12 +51211,12 @@
       <c r="B82" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="C82" s="17"/>
-      <c r="D82" s="30"/>
-      <c r="E82" s="17"/>
-      <c r="F82" s="29"/>
-      <c r="G82" s="29"/>
-      <c r="H82" s="29"/>
+      <c r="C82" s="26"/>
+      <c r="D82" s="25"/>
+      <c r="E82" s="26"/>
+      <c r="F82" s="42"/>
+      <c r="G82" s="42"/>
+      <c r="H82" s="42"/>
     </row>
     <row r="83" spans="1:8">
       <c r="A83" s="4">
@@ -51225,12 +51225,12 @@
       <c r="B83" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="C83" s="17"/>
-      <c r="D83" s="30"/>
-      <c r="E83" s="17"/>
-      <c r="F83" s="29"/>
-      <c r="G83" s="29"/>
-      <c r="H83" s="29"/>
+      <c r="C83" s="26"/>
+      <c r="D83" s="25"/>
+      <c r="E83" s="26"/>
+      <c r="F83" s="42"/>
+      <c r="G83" s="42"/>
+      <c r="H83" s="42"/>
     </row>
     <row r="84" spans="1:8">
       <c r="A84" s="4">
@@ -51239,12 +51239,12 @@
       <c r="B84" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="C84" s="17"/>
-      <c r="D84" s="30"/>
-      <c r="E84" s="17"/>
-      <c r="F84" s="29"/>
-      <c r="G84" s="29"/>
-      <c r="H84" s="29"/>
+      <c r="C84" s="26"/>
+      <c r="D84" s="25"/>
+      <c r="E84" s="26"/>
+      <c r="F84" s="42"/>
+      <c r="G84" s="42"/>
+      <c r="H84" s="42"/>
     </row>
     <row r="85" spans="1:8">
       <c r="A85" s="4">
@@ -51254,17 +51254,17 @@
         <v>86</v>
       </c>
       <c r="C85" s="6"/>
-      <c r="D85" s="17">
+      <c r="D85" s="26">
         <v>94</v>
       </c>
-      <c r="E85" s="18" t="s">
+      <c r="E85" s="31" t="s">
         <v>2070</v>
       </c>
-      <c r="F85" s="18" t="s">
+      <c r="F85" s="31" t="s">
         <v>2071</v>
       </c>
-      <c r="G85" s="18"/>
-      <c r="H85" s="18"/>
+      <c r="G85" s="31"/>
+      <c r="H85" s="31"/>
     </row>
     <row r="86" spans="1:8">
       <c r="A86" s="4">
@@ -51274,11 +51274,11 @@
         <v>87</v>
       </c>
       <c r="C86" s="6"/>
-      <c r="D86" s="17"/>
-      <c r="E86" s="17"/>
-      <c r="F86" s="18"/>
-      <c r="G86" s="18"/>
-      <c r="H86" s="18"/>
+      <c r="D86" s="26"/>
+      <c r="E86" s="26"/>
+      <c r="F86" s="31"/>
+      <c r="G86" s="31"/>
+      <c r="H86" s="31"/>
     </row>
     <row r="87" spans="1:8">
       <c r="A87" s="4">
@@ -51288,11 +51288,11 @@
         <v>88</v>
       </c>
       <c r="C87" s="6"/>
-      <c r="D87" s="17"/>
-      <c r="E87" s="17"/>
-      <c r="F87" s="18"/>
-      <c r="G87" s="18"/>
-      <c r="H87" s="18"/>
+      <c r="D87" s="26"/>
+      <c r="E87" s="26"/>
+      <c r="F87" s="31"/>
+      <c r="G87" s="31"/>
+      <c r="H87" s="31"/>
     </row>
     <row r="88" spans="1:8">
       <c r="A88" s="4">
@@ -51302,11 +51302,11 @@
         <v>89</v>
       </c>
       <c r="C88" s="6"/>
-      <c r="D88" s="17"/>
-      <c r="E88" s="17"/>
-      <c r="F88" s="18"/>
-      <c r="G88" s="18"/>
-      <c r="H88" s="18"/>
+      <c r="D88" s="26"/>
+      <c r="E88" s="26"/>
+      <c r="F88" s="31"/>
+      <c r="G88" s="31"/>
+      <c r="H88" s="31"/>
     </row>
     <row r="89" spans="1:8">
       <c r="A89" s="4">
@@ -51316,11 +51316,11 @@
         <v>90</v>
       </c>
       <c r="C89" s="6"/>
-      <c r="D89" s="17"/>
-      <c r="E89" s="17"/>
-      <c r="F89" s="18"/>
-      <c r="G89" s="18"/>
-      <c r="H89" s="18"/>
+      <c r="D89" s="26"/>
+      <c r="E89" s="26"/>
+      <c r="F89" s="31"/>
+      <c r="G89" s="31"/>
+      <c r="H89" s="31"/>
     </row>
     <row r="90" spans="1:8">
       <c r="A90" s="4">
@@ -51330,11 +51330,11 @@
         <v>91</v>
       </c>
       <c r="C90" s="6"/>
-      <c r="D90" s="17"/>
-      <c r="E90" s="17"/>
-      <c r="F90" s="18"/>
-      <c r="G90" s="18"/>
-      <c r="H90" s="18"/>
+      <c r="D90" s="26"/>
+      <c r="E90" s="26"/>
+      <c r="F90" s="31"/>
+      <c r="G90" s="31"/>
+      <c r="H90" s="31"/>
     </row>
     <row r="91" spans="1:8">
       <c r="A91" s="4">
@@ -51344,11 +51344,11 @@
         <v>92</v>
       </c>
       <c r="C91" s="6"/>
-      <c r="D91" s="17"/>
-      <c r="E91" s="17"/>
-      <c r="F91" s="18"/>
-      <c r="G91" s="18"/>
-      <c r="H91" s="18"/>
+      <c r="D91" s="26"/>
+      <c r="E91" s="26"/>
+      <c r="F91" s="31"/>
+      <c r="G91" s="31"/>
+      <c r="H91" s="31"/>
     </row>
     <row r="92" spans="1:8">
       <c r="A92" s="4">
@@ -51358,11 +51358,11 @@
         <v>93</v>
       </c>
       <c r="C92" s="6"/>
-      <c r="D92" s="17"/>
-      <c r="E92" s="17"/>
-      <c r="F92" s="18"/>
-      <c r="G92" s="18"/>
-      <c r="H92" s="18"/>
+      <c r="D92" s="26"/>
+      <c r="E92" s="26"/>
+      <c r="F92" s="31"/>
+      <c r="G92" s="31"/>
+      <c r="H92" s="31"/>
     </row>
     <row r="93" spans="1:8">
       <c r="A93" s="4">
@@ -51372,11 +51372,11 @@
         <v>94</v>
       </c>
       <c r="C93" s="6"/>
-      <c r="D93" s="17"/>
-      <c r="E93" s="17"/>
-      <c r="F93" s="18"/>
-      <c r="G93" s="18"/>
-      <c r="H93" s="18"/>
+      <c r="D93" s="26"/>
+      <c r="E93" s="26"/>
+      <c r="F93" s="31"/>
+      <c r="G93" s="31"/>
+      <c r="H93" s="31"/>
     </row>
     <row r="94" spans="1:8">
       <c r="A94" s="4">
@@ -51386,11 +51386,11 @@
         <v>95</v>
       </c>
       <c r="C94" s="6"/>
-      <c r="D94" s="17"/>
-      <c r="E94" s="17"/>
-      <c r="F94" s="18"/>
-      <c r="G94" s="18"/>
-      <c r="H94" s="18"/>
+      <c r="D94" s="26"/>
+      <c r="E94" s="26"/>
+      <c r="F94" s="31"/>
+      <c r="G94" s="31"/>
+      <c r="H94" s="31"/>
     </row>
     <row r="95" spans="1:8">
       <c r="A95" s="4">
@@ -51400,11 +51400,11 @@
         <v>96</v>
       </c>
       <c r="C95" s="6"/>
-      <c r="D95" s="17"/>
-      <c r="E95" s="17"/>
-      <c r="F95" s="18"/>
-      <c r="G95" s="18"/>
-      <c r="H95" s="18"/>
+      <c r="D95" s="26"/>
+      <c r="E95" s="26"/>
+      <c r="F95" s="31"/>
+      <c r="G95" s="31"/>
+      <c r="H95" s="31"/>
     </row>
     <row r="96" spans="1:8">
       <c r="A96" s="4">
@@ -51414,11 +51414,11 @@
         <v>97</v>
       </c>
       <c r="C96" s="6"/>
-      <c r="D96" s="17"/>
-      <c r="E96" s="17"/>
-      <c r="F96" s="18"/>
-      <c r="G96" s="18"/>
-      <c r="H96" s="18"/>
+      <c r="D96" s="26"/>
+      <c r="E96" s="26"/>
+      <c r="F96" s="31"/>
+      <c r="G96" s="31"/>
+      <c r="H96" s="31"/>
     </row>
     <row r="97" spans="1:8">
       <c r="A97" s="4">
@@ -51428,11 +51428,11 @@
         <v>98</v>
       </c>
       <c r="C97" s="6"/>
-      <c r="D97" s="17"/>
-      <c r="E97" s="17"/>
-      <c r="F97" s="18"/>
-      <c r="G97" s="18"/>
-      <c r="H97" s="18"/>
+      <c r="D97" s="26"/>
+      <c r="E97" s="26"/>
+      <c r="F97" s="31"/>
+      <c r="G97" s="31"/>
+      <c r="H97" s="31"/>
     </row>
     <row r="98" spans="1:8">
       <c r="A98" s="4">
@@ -51442,11 +51442,11 @@
         <v>99</v>
       </c>
       <c r="C98" s="6"/>
-      <c r="D98" s="17"/>
-      <c r="E98" s="17"/>
-      <c r="F98" s="18"/>
-      <c r="G98" s="18"/>
-      <c r="H98" s="18"/>
+      <c r="D98" s="26"/>
+      <c r="E98" s="26"/>
+      <c r="F98" s="31"/>
+      <c r="G98" s="31"/>
+      <c r="H98" s="31"/>
     </row>
     <row r="99" spans="1:8">
       <c r="A99" s="4">
@@ -51456,11 +51456,11 @@
         <v>100</v>
       </c>
       <c r="C99" s="6"/>
-      <c r="D99" s="17"/>
-      <c r="E99" s="17"/>
-      <c r="F99" s="18"/>
-      <c r="G99" s="18"/>
-      <c r="H99" s="18"/>
+      <c r="D99" s="26"/>
+      <c r="E99" s="26"/>
+      <c r="F99" s="31"/>
+      <c r="G99" s="31"/>
+      <c r="H99" s="31"/>
     </row>
     <row r="100" spans="1:8">
       <c r="A100" s="4">
@@ -51470,11 +51470,11 @@
         <v>101</v>
       </c>
       <c r="C100" s="6"/>
-      <c r="D100" s="17"/>
-      <c r="E100" s="17"/>
-      <c r="F100" s="18"/>
-      <c r="G100" s="18"/>
-      <c r="H100" s="18"/>
+      <c r="D100" s="26"/>
+      <c r="E100" s="26"/>
+      <c r="F100" s="31"/>
+      <c r="G100" s="31"/>
+      <c r="H100" s="31"/>
     </row>
     <row r="101" spans="1:8">
       <c r="A101" s="4">
@@ -51484,11 +51484,11 @@
         <v>102</v>
       </c>
       <c r="C101" s="6"/>
-      <c r="D101" s="17"/>
-      <c r="E101" s="17"/>
-      <c r="F101" s="18"/>
-      <c r="G101" s="18"/>
-      <c r="H101" s="18"/>
+      <c r="D101" s="26"/>
+      <c r="E101" s="26"/>
+      <c r="F101" s="31"/>
+      <c r="G101" s="31"/>
+      <c r="H101" s="31"/>
     </row>
     <row r="102" spans="1:8">
       <c r="A102" s="4">
@@ -51498,11 +51498,11 @@
         <v>103</v>
       </c>
       <c r="C102" s="6"/>
-      <c r="D102" s="17"/>
-      <c r="E102" s="17"/>
-      <c r="F102" s="18"/>
-      <c r="G102" s="18"/>
-      <c r="H102" s="18"/>
+      <c r="D102" s="26"/>
+      <c r="E102" s="26"/>
+      <c r="F102" s="31"/>
+      <c r="G102" s="31"/>
+      <c r="H102" s="31"/>
     </row>
     <row r="103" spans="1:8">
       <c r="A103" s="4">
@@ -51512,11 +51512,11 @@
         <v>104</v>
       </c>
       <c r="C103" s="6"/>
-      <c r="D103" s="17"/>
-      <c r="E103" s="17"/>
-      <c r="F103" s="18"/>
-      <c r="G103" s="18"/>
-      <c r="H103" s="18"/>
+      <c r="D103" s="26"/>
+      <c r="E103" s="26"/>
+      <c r="F103" s="31"/>
+      <c r="G103" s="31"/>
+      <c r="H103" s="31"/>
     </row>
     <row r="104" spans="1:8">
       <c r="A104" s="4">
@@ -51526,11 +51526,11 @@
         <v>105</v>
       </c>
       <c r="C104" s="6"/>
-      <c r="D104" s="17"/>
-      <c r="E104" s="17"/>
-      <c r="F104" s="18"/>
-      <c r="G104" s="18"/>
-      <c r="H104" s="18"/>
+      <c r="D104" s="26"/>
+      <c r="E104" s="26"/>
+      <c r="F104" s="31"/>
+      <c r="G104" s="31"/>
+      <c r="H104" s="31"/>
     </row>
     <row r="105" spans="1:8">
       <c r="A105" s="4">
@@ -51540,11 +51540,11 @@
         <v>106</v>
       </c>
       <c r="C105" s="6"/>
-      <c r="D105" s="17"/>
-      <c r="E105" s="17"/>
-      <c r="F105" s="18"/>
-      <c r="G105" s="18"/>
-      <c r="H105" s="18"/>
+      <c r="D105" s="26"/>
+      <c r="E105" s="26"/>
+      <c r="F105" s="31"/>
+      <c r="G105" s="31"/>
+      <c r="H105" s="31"/>
     </row>
     <row r="106" spans="1:8">
       <c r="A106" s="4">
@@ -51554,11 +51554,11 @@
         <v>107</v>
       </c>
       <c r="C106" s="6"/>
-      <c r="D106" s="17"/>
-      <c r="E106" s="17"/>
-      <c r="F106" s="18"/>
-      <c r="G106" s="18"/>
-      <c r="H106" s="18"/>
+      <c r="D106" s="26"/>
+      <c r="E106" s="26"/>
+      <c r="F106" s="31"/>
+      <c r="G106" s="31"/>
+      <c r="H106" s="31"/>
     </row>
     <row r="107" spans="1:8">
       <c r="A107" s="4">
@@ -51568,11 +51568,11 @@
         <v>108</v>
       </c>
       <c r="C107" s="6"/>
-      <c r="D107" s="17"/>
-      <c r="E107" s="17"/>
-      <c r="F107" s="18"/>
-      <c r="G107" s="18"/>
-      <c r="H107" s="18"/>
+      <c r="D107" s="26"/>
+      <c r="E107" s="26"/>
+      <c r="F107" s="31"/>
+      <c r="G107" s="31"/>
+      <c r="H107" s="31"/>
     </row>
     <row r="108" spans="1:8">
       <c r="A108" s="4">
@@ -51582,11 +51582,11 @@
         <v>109</v>
       </c>
       <c r="C108" s="6"/>
-      <c r="D108" s="17"/>
-      <c r="E108" s="17"/>
-      <c r="F108" s="18"/>
-      <c r="G108" s="18"/>
-      <c r="H108" s="18"/>
+      <c r="D108" s="26"/>
+      <c r="E108" s="26"/>
+      <c r="F108" s="31"/>
+      <c r="G108" s="31"/>
+      <c r="H108" s="31"/>
     </row>
     <row r="109" spans="1:8">
       <c r="A109" s="4">
@@ -51596,11 +51596,11 @@
         <v>110</v>
       </c>
       <c r="C109" s="6"/>
-      <c r="D109" s="17"/>
-      <c r="E109" s="17"/>
-      <c r="F109" s="18"/>
-      <c r="G109" s="18"/>
-      <c r="H109" s="18"/>
+      <c r="D109" s="26"/>
+      <c r="E109" s="26"/>
+      <c r="F109" s="31"/>
+      <c r="G109" s="31"/>
+      <c r="H109" s="31"/>
     </row>
     <row r="110" spans="1:8">
       <c r="A110" s="4">
@@ -51610,11 +51610,11 @@
         <v>111</v>
       </c>
       <c r="C110" s="6"/>
-      <c r="D110" s="17"/>
-      <c r="E110" s="17"/>
-      <c r="F110" s="18"/>
-      <c r="G110" s="18"/>
-      <c r="H110" s="18"/>
+      <c r="D110" s="26"/>
+      <c r="E110" s="26"/>
+      <c r="F110" s="31"/>
+      <c r="G110" s="31"/>
+      <c r="H110" s="31"/>
     </row>
     <row r="111" spans="1:8">
       <c r="A111" s="4">
@@ -51624,11 +51624,11 @@
         <v>112</v>
       </c>
       <c r="C111" s="6"/>
-      <c r="D111" s="17"/>
-      <c r="E111" s="17"/>
-      <c r="F111" s="18"/>
-      <c r="G111" s="18"/>
-      <c r="H111" s="18"/>
+      <c r="D111" s="26"/>
+      <c r="E111" s="26"/>
+      <c r="F111" s="31"/>
+      <c r="G111" s="31"/>
+      <c r="H111" s="31"/>
     </row>
     <row r="112" spans="1:8">
       <c r="A112" s="4">
@@ -51638,11 +51638,11 @@
         <v>113</v>
       </c>
       <c r="C112" s="6"/>
-      <c r="D112" s="17"/>
-      <c r="E112" s="17"/>
-      <c r="F112" s="18"/>
-      <c r="G112" s="18"/>
-      <c r="H112" s="18"/>
+      <c r="D112" s="26"/>
+      <c r="E112" s="26"/>
+      <c r="F112" s="31"/>
+      <c r="G112" s="31"/>
+      <c r="H112" s="31"/>
     </row>
     <row r="113" spans="1:8">
       <c r="A113" s="4">
@@ -51652,11 +51652,11 @@
         <v>114</v>
       </c>
       <c r="C113" s="6"/>
-      <c r="D113" s="17"/>
-      <c r="E113" s="17"/>
-      <c r="F113" s="18"/>
-      <c r="G113" s="18"/>
-      <c r="H113" s="18"/>
+      <c r="D113" s="26"/>
+      <c r="E113" s="26"/>
+      <c r="F113" s="31"/>
+      <c r="G113" s="31"/>
+      <c r="H113" s="31"/>
     </row>
     <row r="114" spans="1:8">
       <c r="A114" s="4">
@@ -51666,11 +51666,11 @@
         <v>115</v>
       </c>
       <c r="C114" s="6"/>
-      <c r="D114" s="17"/>
-      <c r="E114" s="17"/>
-      <c r="F114" s="18"/>
-      <c r="G114" s="18"/>
-      <c r="H114" s="18"/>
+      <c r="D114" s="26"/>
+      <c r="E114" s="26"/>
+      <c r="F114" s="31"/>
+      <c r="G114" s="31"/>
+      <c r="H114" s="31"/>
     </row>
     <row r="115" spans="1:8">
       <c r="A115" s="4">
@@ -51680,17 +51680,17 @@
         <v>116</v>
       </c>
       <c r="C115" s="4"/>
-      <c r="D115" s="17">
+      <c r="D115" s="26">
         <v>96</v>
       </c>
-      <c r="E115" s="31">
+      <c r="E115" s="43">
         <v>45041</v>
       </c>
-      <c r="F115" s="18" t="s">
+      <c r="F115" s="31" t="s">
         <v>2072</v>
       </c>
-      <c r="G115" s="18"/>
-      <c r="H115" s="18"/>
+      <c r="G115" s="31"/>
+      <c r="H115" s="31"/>
     </row>
     <row r="116" spans="1:8">
       <c r="A116" s="4">
@@ -51700,11 +51700,11 @@
         <v>117</v>
       </c>
       <c r="C116" s="4"/>
-      <c r="D116" s="17"/>
-      <c r="E116" s="17"/>
-      <c r="F116" s="18"/>
-      <c r="G116" s="18"/>
-      <c r="H116" s="18"/>
+      <c r="D116" s="26"/>
+      <c r="E116" s="26"/>
+      <c r="F116" s="31"/>
+      <c r="G116" s="31"/>
+      <c r="H116" s="31"/>
     </row>
     <row r="117" spans="1:8">
       <c r="A117" s="4">
@@ -51714,11 +51714,11 @@
         <v>118</v>
       </c>
       <c r="C117" s="4"/>
-      <c r="D117" s="17"/>
-      <c r="E117" s="17"/>
-      <c r="F117" s="18"/>
-      <c r="G117" s="18"/>
-      <c r="H117" s="18"/>
+      <c r="D117" s="26"/>
+      <c r="E117" s="26"/>
+      <c r="F117" s="31"/>
+      <c r="G117" s="31"/>
+      <c r="H117" s="31"/>
     </row>
     <row r="118" spans="1:8">
       <c r="A118" s="4">
@@ -51728,11 +51728,11 @@
         <v>119</v>
       </c>
       <c r="C118" s="4"/>
-      <c r="D118" s="17"/>
-      <c r="E118" s="17"/>
-      <c r="F118" s="18"/>
-      <c r="G118" s="18"/>
-      <c r="H118" s="18"/>
+      <c r="D118" s="26"/>
+      <c r="E118" s="26"/>
+      <c r="F118" s="31"/>
+      <c r="G118" s="31"/>
+      <c r="H118" s="31"/>
     </row>
     <row r="119" spans="1:8">
       <c r="A119" s="4">
@@ -51742,11 +51742,11 @@
         <v>120</v>
       </c>
       <c r="C119" s="4"/>
-      <c r="D119" s="17"/>
-      <c r="E119" s="17"/>
-      <c r="F119" s="18"/>
-      <c r="G119" s="18"/>
-      <c r="H119" s="18"/>
+      <c r="D119" s="26"/>
+      <c r="E119" s="26"/>
+      <c r="F119" s="31"/>
+      <c r="G119" s="31"/>
+      <c r="H119" s="31"/>
     </row>
     <row r="120" spans="1:8">
       <c r="A120" s="4">
@@ -51756,11 +51756,11 @@
         <v>121</v>
       </c>
       <c r="C120" s="4"/>
-      <c r="D120" s="17"/>
-      <c r="E120" s="17"/>
-      <c r="F120" s="18"/>
-      <c r="G120" s="18"/>
-      <c r="H120" s="18"/>
+      <c r="D120" s="26"/>
+      <c r="E120" s="26"/>
+      <c r="F120" s="31"/>
+      <c r="G120" s="31"/>
+      <c r="H120" s="31"/>
     </row>
     <row r="121" spans="1:8">
       <c r="A121" s="4">
@@ -51770,11 +51770,11 @@
         <v>122</v>
       </c>
       <c r="C121" s="4"/>
-      <c r="D121" s="17"/>
-      <c r="E121" s="17"/>
-      <c r="F121" s="18"/>
-      <c r="G121" s="18"/>
-      <c r="H121" s="18"/>
+      <c r="D121" s="26"/>
+      <c r="E121" s="26"/>
+      <c r="F121" s="31"/>
+      <c r="G121" s="31"/>
+      <c r="H121" s="31"/>
     </row>
     <row r="122" spans="1:8">
       <c r="A122" s="4">
@@ -51784,11 +51784,11 @@
         <v>123</v>
       </c>
       <c r="C122" s="4"/>
-      <c r="D122" s="17"/>
-      <c r="E122" s="17"/>
-      <c r="F122" s="18"/>
-      <c r="G122" s="18"/>
-      <c r="H122" s="18"/>
+      <c r="D122" s="26"/>
+      <c r="E122" s="26"/>
+      <c r="F122" s="31"/>
+      <c r="G122" s="31"/>
+      <c r="H122" s="31"/>
     </row>
     <row r="123" spans="1:8">
       <c r="A123" s="4">
@@ -51798,11 +51798,11 @@
         <v>124</v>
       </c>
       <c r="C123" s="4"/>
-      <c r="D123" s="17"/>
-      <c r="E123" s="17"/>
-      <c r="F123" s="18"/>
-      <c r="G123" s="18"/>
-      <c r="H123" s="18"/>
+      <c r="D123" s="26"/>
+      <c r="E123" s="26"/>
+      <c r="F123" s="31"/>
+      <c r="G123" s="31"/>
+      <c r="H123" s="31"/>
     </row>
     <row r="124" spans="1:8">
       <c r="A124" s="8">
@@ -51812,11 +51812,11 @@
         <v>125</v>
       </c>
       <c r="C124" s="4"/>
-      <c r="D124" s="17"/>
-      <c r="E124" s="17"/>
-      <c r="F124" s="18"/>
-      <c r="G124" s="18"/>
-      <c r="H124" s="18"/>
+      <c r="D124" s="26"/>
+      <c r="E124" s="26"/>
+      <c r="F124" s="31"/>
+      <c r="G124" s="31"/>
+      <c r="H124" s="31"/>
     </row>
     <row r="125" spans="1:8" ht="13" customHeight="1">
       <c r="A125" s="4">
@@ -51826,13 +51826,13 @@
         <v>126</v>
       </c>
       <c r="C125" s="9"/>
-      <c r="D125" s="24">
+      <c r="D125" s="27">
         <v>96</v>
       </c>
-      <c r="E125" s="25" t="s">
+      <c r="E125" s="44" t="s">
         <v>2073</v>
       </c>
-      <c r="F125" s="19" t="s">
+      <c r="F125" s="18" t="s">
         <v>2074</v>
       </c>
     </row>
@@ -51844,9 +51844,9 @@
         <v>127</v>
       </c>
       <c r="C126" s="4"/>
-      <c r="D126" s="22"/>
-      <c r="E126" s="26"/>
-      <c r="F126" s="20"/>
+      <c r="D126" s="29"/>
+      <c r="E126" s="45"/>
+      <c r="F126" s="19"/>
     </row>
     <row r="127" spans="1:8">
       <c r="A127" s="4">
@@ -51856,9 +51856,9 @@
         <v>128</v>
       </c>
       <c r="C127" s="4"/>
-      <c r="D127" s="22"/>
-      <c r="E127" s="26"/>
-      <c r="F127" s="20"/>
+      <c r="D127" s="29"/>
+      <c r="E127" s="45"/>
+      <c r="F127" s="19"/>
     </row>
     <row r="128" spans="1:8">
       <c r="A128" s="4">
@@ -51868,9 +51868,9 @@
         <v>129</v>
       </c>
       <c r="C128" s="4"/>
-      <c r="D128" s="22"/>
-      <c r="E128" s="26"/>
-      <c r="F128" s="20"/>
+      <c r="D128" s="29"/>
+      <c r="E128" s="45"/>
+      <c r="F128" s="19"/>
     </row>
     <row r="129" spans="1:7">
       <c r="A129" s="4">
@@ -51880,9 +51880,9 @@
         <v>130</v>
       </c>
       <c r="C129" s="4"/>
-      <c r="D129" s="23"/>
-      <c r="E129" s="27"/>
-      <c r="F129" s="20"/>
+      <c r="D129" s="28"/>
+      <c r="E129" s="46"/>
+      <c r="F129" s="19"/>
     </row>
     <row r="130" spans="1:7" ht="13" customHeight="1">
       <c r="A130" s="4">
@@ -51892,16 +51892,16 @@
         <v>131</v>
       </c>
       <c r="C130" s="4"/>
-      <c r="D130" s="24">
+      <c r="D130" s="27">
         <v>94.4</v>
       </c>
-      <c r="E130" s="19" t="s">
+      <c r="E130" s="18" t="s">
         <v>2075</v>
       </c>
-      <c r="F130" s="18" t="s">
+      <c r="F130" s="31" t="s">
         <v>2076</v>
       </c>
-      <c r="G130" s="18"/>
+      <c r="G130" s="31"/>
     </row>
     <row r="131" spans="1:7">
       <c r="A131" s="4">
@@ -51911,10 +51911,10 @@
         <v>132</v>
       </c>
       <c r="C131" s="4"/>
-      <c r="D131" s="22"/>
-      <c r="E131" s="22"/>
-      <c r="F131" s="18"/>
-      <c r="G131" s="18"/>
+      <c r="D131" s="29"/>
+      <c r="E131" s="29"/>
+      <c r="F131" s="31"/>
+      <c r="G131" s="31"/>
     </row>
     <row r="132" spans="1:7">
       <c r="A132" s="4">
@@ -51924,10 +51924,10 @@
         <v>133</v>
       </c>
       <c r="C132" s="4"/>
-      <c r="D132" s="22"/>
-      <c r="E132" s="22"/>
-      <c r="F132" s="18"/>
-      <c r="G132" s="18"/>
+      <c r="D132" s="29"/>
+      <c r="E132" s="29"/>
+      <c r="F132" s="31"/>
+      <c r="G132" s="31"/>
     </row>
     <row r="133" spans="1:7">
       <c r="A133" s="4">
@@ -51937,10 +51937,10 @@
         <v>134</v>
       </c>
       <c r="C133" s="4"/>
-      <c r="D133" s="22"/>
-      <c r="E133" s="22"/>
-      <c r="F133" s="18"/>
-      <c r="G133" s="18"/>
+      <c r="D133" s="29"/>
+      <c r="E133" s="29"/>
+      <c r="F133" s="31"/>
+      <c r="G133" s="31"/>
     </row>
     <row r="134" spans="1:7">
       <c r="A134" s="4">
@@ -51950,10 +51950,10 @@
         <v>135</v>
       </c>
       <c r="C134" s="4"/>
-      <c r="D134" s="22"/>
-      <c r="E134" s="22"/>
-      <c r="F134" s="18"/>
-      <c r="G134" s="18"/>
+      <c r="D134" s="29"/>
+      <c r="E134" s="29"/>
+      <c r="F134" s="31"/>
+      <c r="G134" s="31"/>
     </row>
     <row r="135" spans="1:7">
       <c r="A135" s="4">
@@ -51963,10 +51963,10 @@
         <v>136</v>
       </c>
       <c r="C135" s="4"/>
-      <c r="D135" s="22"/>
-      <c r="E135" s="22"/>
-      <c r="F135" s="18"/>
-      <c r="G135" s="18"/>
+      <c r="D135" s="29"/>
+      <c r="E135" s="29"/>
+      <c r="F135" s="31"/>
+      <c r="G135" s="31"/>
     </row>
     <row r="136" spans="1:7">
       <c r="A136" s="4">
@@ -51976,10 +51976,10 @@
         <v>137</v>
       </c>
       <c r="C136" s="4"/>
-      <c r="D136" s="22"/>
-      <c r="E136" s="22"/>
-      <c r="F136" s="18"/>
-      <c r="G136" s="18"/>
+      <c r="D136" s="29"/>
+      <c r="E136" s="29"/>
+      <c r="F136" s="31"/>
+      <c r="G136" s="31"/>
     </row>
     <row r="137" spans="1:7">
       <c r="A137" s="4">
@@ -51989,10 +51989,10 @@
         <v>138</v>
       </c>
       <c r="C137" s="4"/>
-      <c r="D137" s="22"/>
-      <c r="E137" s="22"/>
-      <c r="F137" s="18"/>
-      <c r="G137" s="18"/>
+      <c r="D137" s="29"/>
+      <c r="E137" s="29"/>
+      <c r="F137" s="31"/>
+      <c r="G137" s="31"/>
     </row>
     <row r="138" spans="1:7">
       <c r="A138" s="4">
@@ -52002,10 +52002,10 @@
         <v>139</v>
       </c>
       <c r="C138" s="4"/>
-      <c r="D138" s="22"/>
-      <c r="E138" s="22"/>
-      <c r="F138" s="18"/>
-      <c r="G138" s="18"/>
+      <c r="D138" s="29"/>
+      <c r="E138" s="29"/>
+      <c r="F138" s="31"/>
+      <c r="G138" s="31"/>
     </row>
     <row r="139" spans="1:7">
       <c r="A139" s="4">
@@ -52015,10 +52015,10 @@
         <v>140</v>
       </c>
       <c r="C139" s="4"/>
-      <c r="D139" s="23"/>
-      <c r="E139" s="23"/>
-      <c r="F139" s="18"/>
-      <c r="G139" s="18"/>
+      <c r="D139" s="28"/>
+      <c r="E139" s="28"/>
+      <c r="F139" s="31"/>
+      <c r="G139" s="31"/>
     </row>
     <row r="140" spans="1:7">
       <c r="A140" s="4">
@@ -52028,16 +52028,16 @@
         <v>141</v>
       </c>
       <c r="C140" s="4"/>
-      <c r="D140" s="17">
+      <c r="D140" s="26">
         <v>94.8</v>
       </c>
-      <c r="E140" s="18" t="s">
+      <c r="E140" s="31" t="s">
         <v>2077</v>
       </c>
-      <c r="F140" s="18" t="s">
+      <c r="F140" s="31" t="s">
         <v>2078</v>
       </c>
-      <c r="G140" s="18"/>
+      <c r="G140" s="31"/>
     </row>
     <row r="141" spans="1:7">
       <c r="A141" s="4">
@@ -52047,10 +52047,10 @@
         <v>142</v>
       </c>
       <c r="C141" s="4"/>
-      <c r="D141" s="17"/>
-      <c r="E141" s="17"/>
-      <c r="F141" s="18"/>
-      <c r="G141" s="18"/>
+      <c r="D141" s="26"/>
+      <c r="E141" s="26"/>
+      <c r="F141" s="31"/>
+      <c r="G141" s="31"/>
     </row>
     <row r="142" spans="1:7">
       <c r="A142" s="4">
@@ -52060,10 +52060,10 @@
         <v>143</v>
       </c>
       <c r="C142" s="4"/>
-      <c r="D142" s="17"/>
-      <c r="E142" s="17"/>
-      <c r="F142" s="18"/>
-      <c r="G142" s="18"/>
+      <c r="D142" s="26"/>
+      <c r="E142" s="26"/>
+      <c r="F142" s="31"/>
+      <c r="G142" s="31"/>
     </row>
     <row r="143" spans="1:7">
       <c r="A143" s="4">
@@ -52073,10 +52073,10 @@
         <v>144</v>
       </c>
       <c r="C143" s="4"/>
-      <c r="D143" s="17"/>
-      <c r="E143" s="17"/>
-      <c r="F143" s="18"/>
-      <c r="G143" s="18"/>
+      <c r="D143" s="26"/>
+      <c r="E143" s="26"/>
+      <c r="F143" s="31"/>
+      <c r="G143" s="31"/>
     </row>
     <row r="144" spans="1:7">
       <c r="A144" s="4">
@@ -52086,10 +52086,10 @@
         <v>145</v>
       </c>
       <c r="C144" s="4"/>
-      <c r="D144" s="17"/>
-      <c r="E144" s="17"/>
-      <c r="F144" s="18"/>
-      <c r="G144" s="18"/>
+      <c r="D144" s="26"/>
+      <c r="E144" s="26"/>
+      <c r="F144" s="31"/>
+      <c r="G144" s="31"/>
     </row>
     <row r="145" spans="1:7">
       <c r="A145" s="4">
@@ -52099,10 +52099,10 @@
         <v>146</v>
       </c>
       <c r="C145" s="4"/>
-      <c r="D145" s="17"/>
-      <c r="E145" s="17"/>
-      <c r="F145" s="18"/>
-      <c r="G145" s="18"/>
+      <c r="D145" s="26"/>
+      <c r="E145" s="26"/>
+      <c r="F145" s="31"/>
+      <c r="G145" s="31"/>
     </row>
     <row r="146" spans="1:7">
       <c r="A146" s="4">
@@ -52112,10 +52112,10 @@
         <v>147</v>
       </c>
       <c r="C146" s="4"/>
-      <c r="D146" s="17"/>
-      <c r="E146" s="17"/>
-      <c r="F146" s="18"/>
-      <c r="G146" s="18"/>
+      <c r="D146" s="26"/>
+      <c r="E146" s="26"/>
+      <c r="F146" s="31"/>
+      <c r="G146" s="31"/>
     </row>
     <row r="147" spans="1:7">
       <c r="A147" s="4">
@@ -52125,10 +52125,10 @@
         <v>148</v>
       </c>
       <c r="C147" s="4"/>
-      <c r="D147" s="17"/>
-      <c r="E147" s="17"/>
-      <c r="F147" s="18"/>
-      <c r="G147" s="18"/>
+      <c r="D147" s="26"/>
+      <c r="E147" s="26"/>
+      <c r="F147" s="31"/>
+      <c r="G147" s="31"/>
     </row>
     <row r="148" spans="1:7">
       <c r="A148" s="4">
@@ -52138,10 +52138,10 @@
         <v>149</v>
       </c>
       <c r="C148" s="4"/>
-      <c r="D148" s="17"/>
-      <c r="E148" s="17"/>
-      <c r="F148" s="18"/>
-      <c r="G148" s="18"/>
+      <c r="D148" s="26"/>
+      <c r="E148" s="26"/>
+      <c r="F148" s="31"/>
+      <c r="G148" s="31"/>
     </row>
     <row r="149" spans="1:7">
       <c r="A149" s="4">
@@ -52151,10 +52151,10 @@
         <v>150</v>
       </c>
       <c r="C149" s="4"/>
-      <c r="D149" s="17"/>
-      <c r="E149" s="17"/>
-      <c r="F149" s="18"/>
-      <c r="G149" s="18"/>
+      <c r="D149" s="26"/>
+      <c r="E149" s="26"/>
+      <c r="F149" s="31"/>
+      <c r="G149" s="31"/>
     </row>
     <row r="150" spans="1:7">
       <c r="A150" s="4">
@@ -52164,10 +52164,10 @@
         <v>151</v>
       </c>
       <c r="C150" s="4"/>
-      <c r="D150" s="17"/>
-      <c r="E150" s="17"/>
-      <c r="F150" s="18"/>
-      <c r="G150" s="18"/>
+      <c r="D150" s="26"/>
+      <c r="E150" s="26"/>
+      <c r="F150" s="31"/>
+      <c r="G150" s="31"/>
     </row>
     <row r="151" spans="1:7">
       <c r="A151" s="4">
@@ -52177,10 +52177,10 @@
         <v>152</v>
       </c>
       <c r="C151" s="4"/>
-      <c r="D151" s="17"/>
-      <c r="E151" s="17"/>
-      <c r="F151" s="18"/>
-      <c r="G151" s="18"/>
+      <c r="D151" s="26"/>
+      <c r="E151" s="26"/>
+      <c r="F151" s="31"/>
+      <c r="G151" s="31"/>
     </row>
     <row r="152" spans="1:7">
       <c r="A152" s="4">
@@ -52190,10 +52190,10 @@
         <v>153</v>
       </c>
       <c r="C152" s="4"/>
-      <c r="D152" s="17"/>
-      <c r="E152" s="17"/>
-      <c r="F152" s="18"/>
-      <c r="G152" s="18"/>
+      <c r="D152" s="26"/>
+      <c r="E152" s="26"/>
+      <c r="F152" s="31"/>
+      <c r="G152" s="31"/>
     </row>
     <row r="153" spans="1:7">
       <c r="A153" s="4">
@@ -52203,10 +52203,10 @@
         <v>154</v>
       </c>
       <c r="C153" s="4"/>
-      <c r="D153" s="17"/>
-      <c r="E153" s="17"/>
-      <c r="F153" s="18"/>
-      <c r="G153" s="18"/>
+      <c r="D153" s="26"/>
+      <c r="E153" s="26"/>
+      <c r="F153" s="31"/>
+      <c r="G153" s="31"/>
     </row>
     <row r="154" spans="1:7">
       <c r="A154" s="4">
@@ -52216,10 +52216,10 @@
         <v>155</v>
       </c>
       <c r="C154" s="4"/>
-      <c r="D154" s="17"/>
-      <c r="E154" s="17"/>
-      <c r="F154" s="18"/>
-      <c r="G154" s="18"/>
+      <c r="D154" s="26"/>
+      <c r="E154" s="26"/>
+      <c r="F154" s="31"/>
+      <c r="G154" s="31"/>
     </row>
     <row r="155" spans="1:7">
       <c r="A155" s="4">
@@ -52229,10 +52229,10 @@
         <v>156</v>
       </c>
       <c r="C155" s="4"/>
-      <c r="D155" s="17"/>
-      <c r="E155" s="17"/>
-      <c r="F155" s="18"/>
-      <c r="G155" s="18"/>
+      <c r="D155" s="26"/>
+      <c r="E155" s="26"/>
+      <c r="F155" s="31"/>
+      <c r="G155" s="31"/>
     </row>
     <row r="156" spans="1:7">
       <c r="A156" s="4">
@@ -52242,10 +52242,10 @@
         <v>157</v>
       </c>
       <c r="C156" s="4"/>
-      <c r="D156" s="17"/>
-      <c r="E156" s="17"/>
-      <c r="F156" s="18"/>
-      <c r="G156" s="18"/>
+      <c r="D156" s="26"/>
+      <c r="E156" s="26"/>
+      <c r="F156" s="31"/>
+      <c r="G156" s="31"/>
     </row>
     <row r="157" spans="1:7">
       <c r="A157" s="4">
@@ -52255,10 +52255,10 @@
         <v>158</v>
       </c>
       <c r="C157" s="4"/>
-      <c r="D157" s="17"/>
-      <c r="E157" s="17"/>
-      <c r="F157" s="18"/>
-      <c r="G157" s="18"/>
+      <c r="D157" s="26"/>
+      <c r="E157" s="26"/>
+      <c r="F157" s="31"/>
+      <c r="G157" s="31"/>
     </row>
     <row r="158" spans="1:7">
       <c r="A158" s="4">
@@ -52268,10 +52268,10 @@
         <v>159</v>
       </c>
       <c r="C158" s="4"/>
-      <c r="D158" s="17"/>
-      <c r="E158" s="17"/>
-      <c r="F158" s="18"/>
-      <c r="G158" s="18"/>
+      <c r="D158" s="26"/>
+      <c r="E158" s="26"/>
+      <c r="F158" s="31"/>
+      <c r="G158" s="31"/>
     </row>
     <row r="159" spans="1:7">
       <c r="A159" s="4">
@@ -52281,10 +52281,10 @@
         <v>160</v>
       </c>
       <c r="C159" s="4"/>
-      <c r="D159" s="17"/>
-      <c r="E159" s="17"/>
-      <c r="F159" s="19"/>
-      <c r="G159" s="19"/>
+      <c r="D159" s="26"/>
+      <c r="E159" s="26"/>
+      <c r="F159" s="18"/>
+      <c r="G159" s="18"/>
     </row>
     <row r="160" spans="1:7">
       <c r="A160" s="4">
@@ -52293,16 +52293,16 @@
       <c r="B160" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="D160" s="17">
+      <c r="D160" s="26">
         <v>95</v>
       </c>
-      <c r="E160" s="18" t="s">
+      <c r="E160" s="31" t="s">
         <v>2079</v>
       </c>
-      <c r="F160" s="18" t="s">
+      <c r="F160" s="31" t="s">
         <v>2080</v>
       </c>
-      <c r="G160" s="18"/>
+      <c r="G160" s="31"/>
     </row>
     <row r="161" spans="1:7">
       <c r="A161" s="4">
@@ -52311,10 +52311,10 @@
       <c r="B161" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="D161" s="17"/>
-      <c r="E161" s="17"/>
-      <c r="F161" s="18"/>
-      <c r="G161" s="18"/>
+      <c r="D161" s="26"/>
+      <c r="E161" s="26"/>
+      <c r="F161" s="31"/>
+      <c r="G161" s="31"/>
     </row>
     <row r="162" spans="1:7">
       <c r="A162" s="4">
@@ -52323,10 +52323,10 @@
       <c r="B162" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="D162" s="17"/>
-      <c r="E162" s="17"/>
-      <c r="F162" s="18"/>
-      <c r="G162" s="18"/>
+      <c r="D162" s="26"/>
+      <c r="E162" s="26"/>
+      <c r="F162" s="31"/>
+      <c r="G162" s="31"/>
     </row>
     <row r="163" spans="1:7">
       <c r="A163" s="4">
@@ -52335,10 +52335,10 @@
       <c r="B163" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="D163" s="17"/>
-      <c r="E163" s="17"/>
-      <c r="F163" s="18"/>
-      <c r="G163" s="18"/>
+      <c r="D163" s="26"/>
+      <c r="E163" s="26"/>
+      <c r="F163" s="31"/>
+      <c r="G163" s="31"/>
     </row>
     <row r="164" spans="1:7">
       <c r="A164" s="4">
@@ -52347,10 +52347,10 @@
       <c r="B164" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="D164" s="17"/>
-      <c r="E164" s="17"/>
-      <c r="F164" s="18"/>
-      <c r="G164" s="18"/>
+      <c r="D164" s="26"/>
+      <c r="E164" s="26"/>
+      <c r="F164" s="31"/>
+      <c r="G164" s="31"/>
     </row>
     <row r="165" spans="1:7">
       <c r="A165" s="4">
@@ -52359,10 +52359,10 @@
       <c r="B165" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="D165" s="17"/>
-      <c r="E165" s="17"/>
-      <c r="F165" s="18"/>
-      <c r="G165" s="18"/>
+      <c r="D165" s="26"/>
+      <c r="E165" s="26"/>
+      <c r="F165" s="31"/>
+      <c r="G165" s="31"/>
     </row>
     <row r="166" spans="1:7">
       <c r="A166" s="4">
@@ -52371,10 +52371,10 @@
       <c r="B166" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="D166" s="17"/>
-      <c r="E166" s="17"/>
-      <c r="F166" s="18"/>
-      <c r="G166" s="18"/>
+      <c r="D166" s="26"/>
+      <c r="E166" s="26"/>
+      <c r="F166" s="31"/>
+      <c r="G166" s="31"/>
     </row>
     <row r="167" spans="1:7">
       <c r="A167" s="4">
@@ -52383,10 +52383,10 @@
       <c r="B167" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="D167" s="17"/>
-      <c r="E167" s="17"/>
-      <c r="F167" s="18"/>
-      <c r="G167" s="18"/>
+      <c r="D167" s="26"/>
+      <c r="E167" s="26"/>
+      <c r="F167" s="31"/>
+      <c r="G167" s="31"/>
     </row>
     <row r="168" spans="1:7">
       <c r="A168" s="4">
@@ -52395,10 +52395,10 @@
       <c r="B168" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="D168" s="17"/>
-      <c r="E168" s="17"/>
-      <c r="F168" s="18"/>
-      <c r="G168" s="18"/>
+      <c r="D168" s="26"/>
+      <c r="E168" s="26"/>
+      <c r="F168" s="31"/>
+      <c r="G168" s="31"/>
     </row>
     <row r="169" spans="1:7">
       <c r="A169" s="4">
@@ -52407,10 +52407,10 @@
       <c r="B169" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="D169" s="17"/>
-      <c r="E169" s="17"/>
-      <c r="F169" s="18"/>
-      <c r="G169" s="18"/>
+      <c r="D169" s="26"/>
+      <c r="E169" s="26"/>
+      <c r="F169" s="31"/>
+      <c r="G169" s="31"/>
     </row>
     <row r="170" spans="1:7">
       <c r="A170" s="4">
@@ -52419,10 +52419,10 @@
       <c r="B170" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="D170" s="17"/>
-      <c r="E170" s="17"/>
-      <c r="F170" s="18"/>
-      <c r="G170" s="18"/>
+      <c r="D170" s="26"/>
+      <c r="E170" s="26"/>
+      <c r="F170" s="31"/>
+      <c r="G170" s="31"/>
     </row>
     <row r="171" spans="1:7">
       <c r="A171" s="4">
@@ -52431,10 +52431,10 @@
       <c r="B171" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="D171" s="17"/>
-      <c r="E171" s="17"/>
-      <c r="F171" s="18"/>
-      <c r="G171" s="18"/>
+      <c r="D171" s="26"/>
+      <c r="E171" s="26"/>
+      <c r="F171" s="31"/>
+      <c r="G171" s="31"/>
     </row>
     <row r="172" spans="1:7">
       <c r="A172" s="4">
@@ -52443,10 +52443,10 @@
       <c r="B172" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="D172" s="17"/>
-      <c r="E172" s="17"/>
-      <c r="F172" s="18"/>
-      <c r="G172" s="18"/>
+      <c r="D172" s="26"/>
+      <c r="E172" s="26"/>
+      <c r="F172" s="31"/>
+      <c r="G172" s="31"/>
     </row>
     <row r="173" spans="1:7">
       <c r="A173" s="4">
@@ -52455,10 +52455,10 @@
       <c r="B173" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="D173" s="17"/>
-      <c r="E173" s="17"/>
-      <c r="F173" s="18"/>
-      <c r="G173" s="18"/>
+      <c r="D173" s="26"/>
+      <c r="E173" s="26"/>
+      <c r="F173" s="31"/>
+      <c r="G173" s="31"/>
     </row>
     <row r="174" spans="1:7">
       <c r="A174" s="4">
@@ -52467,10 +52467,10 @@
       <c r="B174" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="D174" s="17"/>
-      <c r="E174" s="17"/>
-      <c r="F174" s="18"/>
-      <c r="G174" s="18"/>
+      <c r="D174" s="26"/>
+      <c r="E174" s="26"/>
+      <c r="F174" s="31"/>
+      <c r="G174" s="31"/>
     </row>
     <row r="175" spans="1:7">
       <c r="A175" s="4">
@@ -52479,10 +52479,10 @@
       <c r="B175" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="D175" s="17"/>
-      <c r="E175" s="17"/>
-      <c r="F175" s="18"/>
-      <c r="G175" s="18"/>
+      <c r="D175" s="26"/>
+      <c r="E175" s="26"/>
+      <c r="F175" s="31"/>
+      <c r="G175" s="31"/>
     </row>
     <row r="176" spans="1:7">
       <c r="A176" s="4">
@@ -52491,10 +52491,10 @@
       <c r="B176" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="D176" s="17"/>
-      <c r="E176" s="17"/>
-      <c r="F176" s="18"/>
-      <c r="G176" s="18"/>
+      <c r="D176" s="26"/>
+      <c r="E176" s="26"/>
+      <c r="F176" s="31"/>
+      <c r="G176" s="31"/>
     </row>
     <row r="177" spans="1:7">
       <c r="A177" s="4">
@@ -52503,10 +52503,10 @@
       <c r="B177" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="D177" s="17"/>
-      <c r="E177" s="17"/>
-      <c r="F177" s="18"/>
-      <c r="G177" s="18"/>
+      <c r="D177" s="26"/>
+      <c r="E177" s="26"/>
+      <c r="F177" s="31"/>
+      <c r="G177" s="31"/>
     </row>
     <row r="178" spans="1:7">
       <c r="A178" s="4">
@@ -52515,10 +52515,10 @@
       <c r="B178" s="5" t="s">
         <v>179</v>
       </c>
-      <c r="D178" s="17"/>
-      <c r="E178" s="17"/>
-      <c r="F178" s="18"/>
-      <c r="G178" s="18"/>
+      <c r="D178" s="26"/>
+      <c r="E178" s="26"/>
+      <c r="F178" s="31"/>
+      <c r="G178" s="31"/>
     </row>
     <row r="179" spans="1:7">
       <c r="A179" s="8">
@@ -52527,10 +52527,10 @@
       <c r="B179" s="13" t="s">
         <v>180</v>
       </c>
-      <c r="D179" s="24"/>
-      <c r="E179" s="24"/>
-      <c r="F179" s="19"/>
-      <c r="G179" s="19"/>
+      <c r="D179" s="27"/>
+      <c r="E179" s="27"/>
+      <c r="F179" s="18"/>
+      <c r="G179" s="18"/>
     </row>
     <row r="180" spans="1:7">
       <c r="A180" s="4">
@@ -52540,16 +52540,16 @@
         <v>181</v>
       </c>
       <c r="C180" s="4"/>
-      <c r="D180" s="17">
+      <c r="D180" s="26">
         <v>96</v>
       </c>
-      <c r="E180" s="19" t="s">
+      <c r="E180" s="18" t="s">
         <v>2090</v>
       </c>
-      <c r="F180" s="18" t="s">
+      <c r="F180" s="31" t="s">
         <v>2092</v>
       </c>
-      <c r="G180" s="18"/>
+      <c r="G180" s="31"/>
     </row>
     <row r="181" spans="1:7">
       <c r="A181" s="4">
@@ -52559,10 +52559,10 @@
         <v>182</v>
       </c>
       <c r="C181" s="4"/>
-      <c r="D181" s="17"/>
-      <c r="E181" s="22"/>
-      <c r="F181" s="18"/>
-      <c r="G181" s="18"/>
+      <c r="D181" s="26"/>
+      <c r="E181" s="29"/>
+      <c r="F181" s="31"/>
+      <c r="G181" s="31"/>
     </row>
     <row r="182" spans="1:7">
       <c r="A182" s="4">
@@ -52572,10 +52572,10 @@
         <v>183</v>
       </c>
       <c r="C182" s="4"/>
-      <c r="D182" s="17"/>
-      <c r="E182" s="22"/>
-      <c r="F182" s="18"/>
-      <c r="G182" s="18"/>
+      <c r="D182" s="26"/>
+      <c r="E182" s="29"/>
+      <c r="F182" s="31"/>
+      <c r="G182" s="31"/>
     </row>
     <row r="183" spans="1:7">
       <c r="A183" s="4">
@@ -52585,10 +52585,10 @@
         <v>184</v>
       </c>
       <c r="C183" s="4"/>
-      <c r="D183" s="17"/>
-      <c r="E183" s="22"/>
-      <c r="F183" s="18"/>
-      <c r="G183" s="18"/>
+      <c r="D183" s="26"/>
+      <c r="E183" s="29"/>
+      <c r="F183" s="31"/>
+      <c r="G183" s="31"/>
     </row>
     <row r="184" spans="1:7">
       <c r="A184" s="4">
@@ -52598,10 +52598,10 @@
         <v>185</v>
       </c>
       <c r="C184" s="4"/>
-      <c r="D184" s="17"/>
-      <c r="E184" s="22"/>
-      <c r="F184" s="18"/>
-      <c r="G184" s="18"/>
+      <c r="D184" s="26"/>
+      <c r="E184" s="29"/>
+      <c r="F184" s="31"/>
+      <c r="G184" s="31"/>
     </row>
     <row r="185" spans="1:7">
       <c r="A185" s="4">
@@ -52611,10 +52611,10 @@
         <v>186</v>
       </c>
       <c r="C185" s="4"/>
-      <c r="D185" s="17"/>
-      <c r="E185" s="22"/>
-      <c r="F185" s="18"/>
-      <c r="G185" s="18"/>
+      <c r="D185" s="26"/>
+      <c r="E185" s="29"/>
+      <c r="F185" s="31"/>
+      <c r="G185" s="31"/>
     </row>
     <row r="186" spans="1:7">
       <c r="A186" s="4">
@@ -52624,10 +52624,10 @@
         <v>187</v>
       </c>
       <c r="C186" s="4"/>
-      <c r="D186" s="17"/>
-      <c r="E186" s="22"/>
-      <c r="F186" s="18"/>
-      <c r="G186" s="18"/>
+      <c r="D186" s="26"/>
+      <c r="E186" s="29"/>
+      <c r="F186" s="31"/>
+      <c r="G186" s="31"/>
     </row>
     <row r="187" spans="1:7">
       <c r="A187" s="4">
@@ -52637,10 +52637,10 @@
         <v>188</v>
       </c>
       <c r="C187" s="4"/>
-      <c r="D187" s="17"/>
-      <c r="E187" s="22"/>
-      <c r="F187" s="18"/>
-      <c r="G187" s="18"/>
+      <c r="D187" s="26"/>
+      <c r="E187" s="29"/>
+      <c r="F187" s="31"/>
+      <c r="G187" s="31"/>
     </row>
     <row r="188" spans="1:7">
       <c r="A188" s="4">
@@ -52650,10 +52650,10 @@
         <v>189</v>
       </c>
       <c r="C188" s="4"/>
-      <c r="D188" s="17"/>
-      <c r="E188" s="22"/>
-      <c r="F188" s="18"/>
-      <c r="G188" s="18"/>
+      <c r="D188" s="26"/>
+      <c r="E188" s="29"/>
+      <c r="F188" s="31"/>
+      <c r="G188" s="31"/>
     </row>
     <row r="189" spans="1:7">
       <c r="A189" s="4">
@@ -52663,10 +52663,10 @@
         <v>190</v>
       </c>
       <c r="C189" s="4"/>
-      <c r="D189" s="17"/>
-      <c r="E189" s="22"/>
-      <c r="F189" s="18"/>
-      <c r="G189" s="18"/>
+      <c r="D189" s="26"/>
+      <c r="E189" s="29"/>
+      <c r="F189" s="31"/>
+      <c r="G189" s="31"/>
     </row>
     <row r="190" spans="1:7">
       <c r="A190" s="4">
@@ -52676,12 +52676,12 @@
         <v>191</v>
       </c>
       <c r="C190" s="4"/>
-      <c r="D190" s="17">
+      <c r="D190" s="26">
         <v>97</v>
       </c>
-      <c r="E190" s="22"/>
-      <c r="F190" s="18"/>
-      <c r="G190" s="18"/>
+      <c r="E190" s="29"/>
+      <c r="F190" s="31"/>
+      <c r="G190" s="31"/>
     </row>
     <row r="191" spans="1:7">
       <c r="A191" s="4">
@@ -52691,10 +52691,10 @@
         <v>192</v>
       </c>
       <c r="C191" s="4"/>
-      <c r="D191" s="17"/>
-      <c r="E191" s="22"/>
-      <c r="F191" s="18"/>
-      <c r="G191" s="18"/>
+      <c r="D191" s="26"/>
+      <c r="E191" s="29"/>
+      <c r="F191" s="31"/>
+      <c r="G191" s="31"/>
     </row>
     <row r="192" spans="1:7">
       <c r="A192" s="4">
@@ -52704,10 +52704,10 @@
         <v>193</v>
       </c>
       <c r="C192" s="4"/>
-      <c r="D192" s="17"/>
-      <c r="E192" s="22"/>
-      <c r="F192" s="18"/>
-      <c r="G192" s="18"/>
+      <c r="D192" s="26"/>
+      <c r="E192" s="29"/>
+      <c r="F192" s="31"/>
+      <c r="G192" s="31"/>
     </row>
     <row r="193" spans="1:7">
       <c r="A193" s="4">
@@ -52717,10 +52717,10 @@
         <v>194</v>
       </c>
       <c r="C193" s="4"/>
-      <c r="D193" s="17"/>
-      <c r="E193" s="22"/>
-      <c r="F193" s="18"/>
-      <c r="G193" s="18"/>
+      <c r="D193" s="26"/>
+      <c r="E193" s="29"/>
+      <c r="F193" s="31"/>
+      <c r="G193" s="31"/>
     </row>
     <row r="194" spans="1:7">
       <c r="A194" s="4">
@@ -52730,10 +52730,10 @@
         <v>195</v>
       </c>
       <c r="C194" s="4"/>
-      <c r="D194" s="17"/>
-      <c r="E194" s="22"/>
-      <c r="F194" s="18"/>
-      <c r="G194" s="18"/>
+      <c r="D194" s="26"/>
+      <c r="E194" s="29"/>
+      <c r="F194" s="31"/>
+      <c r="G194" s="31"/>
     </row>
     <row r="195" spans="1:7">
       <c r="A195" s="4">
@@ -52743,10 +52743,10 @@
         <v>196</v>
       </c>
       <c r="C195" s="4"/>
-      <c r="D195" s="17"/>
-      <c r="E195" s="22"/>
-      <c r="F195" s="18"/>
-      <c r="G195" s="18"/>
+      <c r="D195" s="26"/>
+      <c r="E195" s="29"/>
+      <c r="F195" s="31"/>
+      <c r="G195" s="31"/>
     </row>
     <row r="196" spans="1:7">
       <c r="A196" s="4">
@@ -52756,10 +52756,10 @@
         <v>197</v>
       </c>
       <c r="C196" s="4"/>
-      <c r="D196" s="17"/>
-      <c r="E196" s="22"/>
-      <c r="F196" s="18"/>
-      <c r="G196" s="18"/>
+      <c r="D196" s="26"/>
+      <c r="E196" s="29"/>
+      <c r="F196" s="31"/>
+      <c r="G196" s="31"/>
     </row>
     <row r="197" spans="1:7">
       <c r="A197" s="4">
@@ -52769,10 +52769,10 @@
         <v>198</v>
       </c>
       <c r="C197" s="4"/>
-      <c r="D197" s="17"/>
-      <c r="E197" s="22"/>
-      <c r="F197" s="18"/>
-      <c r="G197" s="18"/>
+      <c r="D197" s="26"/>
+      <c r="E197" s="29"/>
+      <c r="F197" s="31"/>
+      <c r="G197" s="31"/>
     </row>
     <row r="198" spans="1:7">
       <c r="A198" s="4">
@@ -52782,10 +52782,10 @@
         <v>199</v>
       </c>
       <c r="C198" s="4"/>
-      <c r="D198" s="17"/>
-      <c r="E198" s="22"/>
-      <c r="F198" s="18"/>
-      <c r="G198" s="18"/>
+      <c r="D198" s="26"/>
+      <c r="E198" s="29"/>
+      <c r="F198" s="31"/>
+      <c r="G198" s="31"/>
     </row>
     <row r="199" spans="1:7">
       <c r="A199" s="4">
@@ -52795,10 +52795,10 @@
         <v>200</v>
       </c>
       <c r="C199" s="4"/>
-      <c r="D199" s="17"/>
-      <c r="E199" s="22"/>
-      <c r="F199" s="18"/>
-      <c r="G199" s="18"/>
+      <c r="D199" s="26"/>
+      <c r="E199" s="29"/>
+      <c r="F199" s="31"/>
+      <c r="G199" s="31"/>
     </row>
     <row r="200" spans="1:7">
       <c r="A200" s="4">
@@ -52808,12 +52808,12 @@
         <v>201</v>
       </c>
       <c r="C200" s="4"/>
-      <c r="D200" s="17" t="s">
+      <c r="D200" s="26" t="s">
         <v>2091</v>
       </c>
-      <c r="E200" s="22"/>
-      <c r="F200" s="18"/>
-      <c r="G200" s="18"/>
+      <c r="E200" s="29"/>
+      <c r="F200" s="31"/>
+      <c r="G200" s="31"/>
     </row>
     <row r="201" spans="1:7">
       <c r="A201" s="4">
@@ -52823,10 +52823,10 @@
         <v>202</v>
       </c>
       <c r="C201" s="4"/>
-      <c r="D201" s="17"/>
-      <c r="E201" s="22"/>
-      <c r="F201" s="18"/>
-      <c r="G201" s="18"/>
+      <c r="D201" s="26"/>
+      <c r="E201" s="29"/>
+      <c r="F201" s="31"/>
+      <c r="G201" s="31"/>
     </row>
     <row r="202" spans="1:7">
       <c r="A202" s="4">
@@ -52836,10 +52836,10 @@
         <v>203</v>
       </c>
       <c r="C202" s="4"/>
-      <c r="D202" s="17"/>
-      <c r="E202" s="22"/>
-      <c r="F202" s="18"/>
-      <c r="G202" s="18"/>
+      <c r="D202" s="26"/>
+      <c r="E202" s="29"/>
+      <c r="F202" s="31"/>
+      <c r="G202" s="31"/>
     </row>
     <row r="203" spans="1:7">
       <c r="A203" s="4">
@@ -52849,10 +52849,10 @@
         <v>204</v>
       </c>
       <c r="C203" s="4"/>
-      <c r="D203" s="17"/>
-      <c r="E203" s="22"/>
-      <c r="F203" s="18"/>
-      <c r="G203" s="18"/>
+      <c r="D203" s="26"/>
+      <c r="E203" s="29"/>
+      <c r="F203" s="31"/>
+      <c r="G203" s="31"/>
     </row>
     <row r="204" spans="1:7">
       <c r="A204" s="4">
@@ -52862,10 +52862,10 @@
         <v>205</v>
       </c>
       <c r="C204" s="4"/>
-      <c r="D204" s="17"/>
-      <c r="E204" s="22"/>
-      <c r="F204" s="18"/>
-      <c r="G204" s="18"/>
+      <c r="D204" s="26"/>
+      <c r="E204" s="29"/>
+      <c r="F204" s="31"/>
+      <c r="G204" s="31"/>
     </row>
     <row r="205" spans="1:7">
       <c r="A205" s="4">
@@ -52875,10 +52875,10 @@
         <v>206</v>
       </c>
       <c r="C205" s="4"/>
-      <c r="D205" s="17"/>
-      <c r="E205" s="22"/>
-      <c r="F205" s="18"/>
-      <c r="G205" s="18"/>
+      <c r="D205" s="26"/>
+      <c r="E205" s="29"/>
+      <c r="F205" s="31"/>
+      <c r="G205" s="31"/>
     </row>
     <row r="206" spans="1:7">
       <c r="A206" s="4">
@@ -52888,10 +52888,10 @@
         <v>207</v>
       </c>
       <c r="C206" s="4"/>
-      <c r="D206" s="17"/>
-      <c r="E206" s="22"/>
-      <c r="F206" s="18"/>
-      <c r="G206" s="18"/>
+      <c r="D206" s="26"/>
+      <c r="E206" s="29"/>
+      <c r="F206" s="31"/>
+      <c r="G206" s="31"/>
     </row>
     <row r="207" spans="1:7">
       <c r="A207" s="4">
@@ -52901,10 +52901,10 @@
         <v>208</v>
       </c>
       <c r="C207" s="4"/>
-      <c r="D207" s="17"/>
-      <c r="E207" s="22"/>
-      <c r="F207" s="18"/>
-      <c r="G207" s="18"/>
+      <c r="D207" s="26"/>
+      <c r="E207" s="29"/>
+      <c r="F207" s="31"/>
+      <c r="G207" s="31"/>
     </row>
     <row r="208" spans="1:7">
       <c r="A208" s="4">
@@ -52914,10 +52914,10 @@
         <v>209</v>
       </c>
       <c r="C208" s="4"/>
-      <c r="D208" s="17"/>
-      <c r="E208" s="22"/>
-      <c r="F208" s="18"/>
-      <c r="G208" s="18"/>
+      <c r="D208" s="26"/>
+      <c r="E208" s="29"/>
+      <c r="F208" s="31"/>
+      <c r="G208" s="31"/>
     </row>
     <row r="209" spans="1:7">
       <c r="A209" s="4">
@@ -52927,10 +52927,10 @@
         <v>210</v>
       </c>
       <c r="C209" s="4"/>
-      <c r="D209" s="17"/>
-      <c r="E209" s="23"/>
-      <c r="F209" s="18"/>
-      <c r="G209" s="18"/>
+      <c r="D209" s="26"/>
+      <c r="E209" s="28"/>
+      <c r="F209" s="31"/>
+      <c r="G209" s="31"/>
     </row>
     <row r="210" spans="1:7">
       <c r="A210" s="4">
@@ -52940,16 +52940,16 @@
         <v>211</v>
       </c>
       <c r="C210" s="4"/>
-      <c r="D210" s="17">
+      <c r="D210" s="26">
         <v>96</v>
       </c>
-      <c r="E210" s="18" t="s">
+      <c r="E210" s="31" t="s">
         <v>2081</v>
       </c>
-      <c r="F210" s="18" t="s">
+      <c r="F210" s="31" t="s">
         <v>2082</v>
       </c>
-      <c r="G210" s="18"/>
+      <c r="G210" s="31"/>
     </row>
     <row r="211" spans="1:7">
       <c r="A211" s="4">
@@ -52959,10 +52959,10 @@
         <v>212</v>
       </c>
       <c r="C211" s="4"/>
-      <c r="D211" s="17"/>
-      <c r="E211" s="17"/>
-      <c r="F211" s="18"/>
-      <c r="G211" s="18"/>
+      <c r="D211" s="26"/>
+      <c r="E211" s="26"/>
+      <c r="F211" s="31"/>
+      <c r="G211" s="31"/>
     </row>
     <row r="212" spans="1:7">
       <c r="A212" s="4">
@@ -52972,10 +52972,10 @@
         <v>213</v>
       </c>
       <c r="C212" s="4"/>
-      <c r="D212" s="17"/>
-      <c r="E212" s="17"/>
-      <c r="F212" s="18"/>
-      <c r="G212" s="18"/>
+      <c r="D212" s="26"/>
+      <c r="E212" s="26"/>
+      <c r="F212" s="31"/>
+      <c r="G212" s="31"/>
     </row>
     <row r="213" spans="1:7">
       <c r="A213" s="4">
@@ -52985,10 +52985,10 @@
         <v>214</v>
       </c>
       <c r="C213" s="4"/>
-      <c r="D213" s="17"/>
-      <c r="E213" s="17"/>
-      <c r="F213" s="18"/>
-      <c r="G213" s="18"/>
+      <c r="D213" s="26"/>
+      <c r="E213" s="26"/>
+      <c r="F213" s="31"/>
+      <c r="G213" s="31"/>
     </row>
     <row r="214" spans="1:7">
       <c r="A214" s="4">
@@ -52998,10 +52998,10 @@
         <v>215</v>
       </c>
       <c r="C214" s="4"/>
-      <c r="D214" s="17"/>
-      <c r="E214" s="17"/>
-      <c r="F214" s="18"/>
-      <c r="G214" s="18"/>
+      <c r="D214" s="26"/>
+      <c r="E214" s="26"/>
+      <c r="F214" s="31"/>
+      <c r="G214" s="31"/>
     </row>
     <row r="215" spans="1:7">
       <c r="A215" s="4">
@@ -53011,10 +53011,10 @@
         <v>216</v>
       </c>
       <c r="C215" s="4"/>
-      <c r="D215" s="17"/>
-      <c r="E215" s="17"/>
-      <c r="F215" s="18"/>
-      <c r="G215" s="18"/>
+      <c r="D215" s="26"/>
+      <c r="E215" s="26"/>
+      <c r="F215" s="31"/>
+      <c r="G215" s="31"/>
     </row>
     <row r="216" spans="1:7">
       <c r="A216" s="4">
@@ -53024,10 +53024,10 @@
         <v>217</v>
       </c>
       <c r="C216" s="4"/>
-      <c r="D216" s="17"/>
-      <c r="E216" s="17"/>
-      <c r="F216" s="18"/>
-      <c r="G216" s="18"/>
+      <c r="D216" s="26"/>
+      <c r="E216" s="26"/>
+      <c r="F216" s="31"/>
+      <c r="G216" s="31"/>
     </row>
     <row r="217" spans="1:7">
       <c r="A217" s="4">
@@ -53037,10 +53037,10 @@
         <v>218</v>
       </c>
       <c r="C217" s="4"/>
-      <c r="D217" s="17"/>
-      <c r="E217" s="17"/>
-      <c r="F217" s="18"/>
-      <c r="G217" s="18"/>
+      <c r="D217" s="26"/>
+      <c r="E217" s="26"/>
+      <c r="F217" s="31"/>
+      <c r="G217" s="31"/>
     </row>
     <row r="218" spans="1:7">
       <c r="A218" s="4">
@@ -53050,10 +53050,10 @@
         <v>219</v>
       </c>
       <c r="C218" s="4"/>
-      <c r="D218" s="17"/>
-      <c r="E218" s="17"/>
-      <c r="F218" s="18"/>
-      <c r="G218" s="18"/>
+      <c r="D218" s="26"/>
+      <c r="E218" s="26"/>
+      <c r="F218" s="31"/>
+      <c r="G218" s="31"/>
     </row>
     <row r="219" spans="1:7">
       <c r="A219" s="4">
@@ -53063,10 +53063,10 @@
         <v>220</v>
       </c>
       <c r="C219" s="4"/>
-      <c r="D219" s="17"/>
-      <c r="E219" s="17"/>
-      <c r="F219" s="18"/>
-      <c r="G219" s="18"/>
+      <c r="D219" s="26"/>
+      <c r="E219" s="26"/>
+      <c r="F219" s="31"/>
+      <c r="G219" s="31"/>
     </row>
     <row r="220" spans="1:7">
       <c r="A220" s="4">
@@ -53076,16 +53076,16 @@
         <v>221</v>
       </c>
       <c r="C220" s="4"/>
-      <c r="D220" s="17">
+      <c r="D220" s="26">
         <v>96</v>
       </c>
-      <c r="E220" s="18" t="s">
+      <c r="E220" s="31" t="s">
         <v>2083</v>
       </c>
-      <c r="F220" s="18" t="s">
+      <c r="F220" s="31" t="s">
         <v>2084</v>
       </c>
-      <c r="G220" s="18"/>
+      <c r="G220" s="31"/>
     </row>
     <row r="221" spans="1:7">
       <c r="A221" s="4">
@@ -53095,10 +53095,10 @@
         <v>222</v>
       </c>
       <c r="C221" s="4"/>
-      <c r="D221" s="17"/>
-      <c r="E221" s="17"/>
-      <c r="F221" s="18"/>
-      <c r="G221" s="18"/>
+      <c r="D221" s="26"/>
+      <c r="E221" s="26"/>
+      <c r="F221" s="31"/>
+      <c r="G221" s="31"/>
     </row>
     <row r="222" spans="1:7">
       <c r="A222" s="4">
@@ -53108,10 +53108,10 @@
         <v>223</v>
       </c>
       <c r="C222" s="4"/>
-      <c r="D222" s="17"/>
-      <c r="E222" s="17"/>
-      <c r="F222" s="18"/>
-      <c r="G222" s="18"/>
+      <c r="D222" s="26"/>
+      <c r="E222" s="26"/>
+      <c r="F222" s="31"/>
+      <c r="G222" s="31"/>
     </row>
     <row r="223" spans="1:7">
       <c r="A223" s="4">
@@ -53121,10 +53121,10 @@
         <v>224</v>
       </c>
       <c r="C223" s="4"/>
-      <c r="D223" s="17"/>
-      <c r="E223" s="17"/>
-      <c r="F223" s="18"/>
-      <c r="G223" s="18"/>
+      <c r="D223" s="26"/>
+      <c r="E223" s="26"/>
+      <c r="F223" s="31"/>
+      <c r="G223" s="31"/>
     </row>
     <row r="224" spans="1:7">
       <c r="A224" s="4">
@@ -53134,10 +53134,10 @@
         <v>225</v>
       </c>
       <c r="C224" s="4"/>
-      <c r="D224" s="17"/>
-      <c r="E224" s="17"/>
-      <c r="F224" s="18"/>
-      <c r="G224" s="18"/>
+      <c r="D224" s="26"/>
+      <c r="E224" s="26"/>
+      <c r="F224" s="31"/>
+      <c r="G224" s="31"/>
     </row>
     <row r="225" spans="1:7">
       <c r="A225" s="4">
@@ -53147,10 +53147,10 @@
         <v>226</v>
       </c>
       <c r="C225" s="4"/>
-      <c r="D225" s="17"/>
-      <c r="E225" s="17"/>
-      <c r="F225" s="18"/>
-      <c r="G225" s="18"/>
+      <c r="D225" s="26"/>
+      <c r="E225" s="26"/>
+      <c r="F225" s="31"/>
+      <c r="G225" s="31"/>
     </row>
     <row r="226" spans="1:7">
       <c r="A226" s="4">
@@ -53160,10 +53160,10 @@
         <v>227</v>
       </c>
       <c r="C226" s="4"/>
-      <c r="D226" s="17"/>
-      <c r="E226" s="17"/>
-      <c r="F226" s="18"/>
-      <c r="G226" s="18"/>
+      <c r="D226" s="26"/>
+      <c r="E226" s="26"/>
+      <c r="F226" s="31"/>
+      <c r="G226" s="31"/>
     </row>
     <row r="227" spans="1:7">
       <c r="A227" s="4">
@@ -53173,10 +53173,10 @@
         <v>228</v>
       </c>
       <c r="C227" s="4"/>
-      <c r="D227" s="17"/>
-      <c r="E227" s="17"/>
-      <c r="F227" s="18"/>
-      <c r="G227" s="18"/>
+      <c r="D227" s="26"/>
+      <c r="E227" s="26"/>
+      <c r="F227" s="31"/>
+      <c r="G227" s="31"/>
     </row>
     <row r="228" spans="1:7">
       <c r="A228" s="4">
@@ -53186,10 +53186,10 @@
         <v>229</v>
       </c>
       <c r="C228" s="4"/>
-      <c r="D228" s="17"/>
-      <c r="E228" s="17"/>
-      <c r="F228" s="18"/>
-      <c r="G228" s="18"/>
+      <c r="D228" s="26"/>
+      <c r="E228" s="26"/>
+      <c r="F228" s="31"/>
+      <c r="G228" s="31"/>
     </row>
     <row r="229" spans="1:7">
       <c r="A229" s="4">
@@ -53199,10 +53199,10 @@
         <v>230</v>
       </c>
       <c r="C229" s="4"/>
-      <c r="D229" s="17"/>
-      <c r="E229" s="17"/>
-      <c r="F229" s="18"/>
-      <c r="G229" s="18"/>
+      <c r="D229" s="26"/>
+      <c r="E229" s="26"/>
+      <c r="F229" s="31"/>
+      <c r="G229" s="31"/>
     </row>
     <row r="230" spans="1:7">
       <c r="A230" s="4">
@@ -53212,10 +53212,10 @@
         <v>231</v>
       </c>
       <c r="C230" s="4"/>
-      <c r="D230" s="17"/>
-      <c r="E230" s="17"/>
-      <c r="F230" s="18"/>
-      <c r="G230" s="18"/>
+      <c r="D230" s="26"/>
+      <c r="E230" s="26"/>
+      <c r="F230" s="31"/>
+      <c r="G230" s="31"/>
     </row>
     <row r="231" spans="1:7">
       <c r="A231" s="4">
@@ -53225,10 +53225,10 @@
         <v>232</v>
       </c>
       <c r="C231" s="4"/>
-      <c r="D231" s="17"/>
-      <c r="E231" s="17"/>
-      <c r="F231" s="18"/>
-      <c r="G231" s="18"/>
+      <c r="D231" s="26"/>
+      <c r="E231" s="26"/>
+      <c r="F231" s="31"/>
+      <c r="G231" s="31"/>
     </row>
     <row r="232" spans="1:7">
       <c r="A232" s="4">
@@ -53238,10 +53238,10 @@
         <v>233</v>
       </c>
       <c r="C232" s="4"/>
-      <c r="D232" s="17"/>
-      <c r="E232" s="17"/>
-      <c r="F232" s="18"/>
-      <c r="G232" s="18"/>
+      <c r="D232" s="26"/>
+      <c r="E232" s="26"/>
+      <c r="F232" s="31"/>
+      <c r="G232" s="31"/>
     </row>
     <row r="233" spans="1:7">
       <c r="A233" s="4">
@@ -53251,10 +53251,10 @@
         <v>234</v>
       </c>
       <c r="C233" s="4"/>
-      <c r="D233" s="17"/>
-      <c r="E233" s="17"/>
-      <c r="F233" s="18"/>
-      <c r="G233" s="18"/>
+      <c r="D233" s="26"/>
+      <c r="E233" s="26"/>
+      <c r="F233" s="31"/>
+      <c r="G233" s="31"/>
     </row>
     <row r="234" spans="1:7">
       <c r="A234" s="4">
@@ -53264,10 +53264,10 @@
         <v>235</v>
       </c>
       <c r="C234" s="4"/>
-      <c r="D234" s="17"/>
-      <c r="E234" s="17"/>
-      <c r="F234" s="18"/>
-      <c r="G234" s="18"/>
+      <c r="D234" s="26"/>
+      <c r="E234" s="26"/>
+      <c r="F234" s="31"/>
+      <c r="G234" s="31"/>
     </row>
     <row r="235" spans="1:7">
       <c r="A235" s="4">
@@ -53277,10 +53277,10 @@
         <v>236</v>
       </c>
       <c r="C235" s="4"/>
-      <c r="D235" s="17"/>
-      <c r="E235" s="17"/>
-      <c r="F235" s="18"/>
-      <c r="G235" s="18"/>
+      <c r="D235" s="26"/>
+      <c r="E235" s="26"/>
+      <c r="F235" s="31"/>
+      <c r="G235" s="31"/>
     </row>
     <row r="236" spans="1:7">
       <c r="A236" s="4">
@@ -53290,10 +53290,10 @@
         <v>237</v>
       </c>
       <c r="C236" s="4"/>
-      <c r="D236" s="17"/>
-      <c r="E236" s="17"/>
-      <c r="F236" s="18"/>
-      <c r="G236" s="18"/>
+      <c r="D236" s="26"/>
+      <c r="E236" s="26"/>
+      <c r="F236" s="31"/>
+      <c r="G236" s="31"/>
     </row>
     <row r="237" spans="1:7">
       <c r="A237" s="4">
@@ -53303,10 +53303,10 @@
         <v>238</v>
       </c>
       <c r="C237" s="4"/>
-      <c r="D237" s="17"/>
-      <c r="E237" s="17"/>
-      <c r="F237" s="18"/>
-      <c r="G237" s="18"/>
+      <c r="D237" s="26"/>
+      <c r="E237" s="26"/>
+      <c r="F237" s="31"/>
+      <c r="G237" s="31"/>
     </row>
     <row r="238" spans="1:7">
       <c r="A238" s="4">
@@ -53316,10 +53316,10 @@
         <v>239</v>
       </c>
       <c r="C238" s="4"/>
-      <c r="D238" s="17"/>
-      <c r="E238" s="17"/>
-      <c r="F238" s="18"/>
-      <c r="G238" s="18"/>
+      <c r="D238" s="26"/>
+      <c r="E238" s="26"/>
+      <c r="F238" s="31"/>
+      <c r="G238" s="31"/>
     </row>
     <row r="239" spans="1:7">
       <c r="A239" s="4">
@@ -53329,10 +53329,10 @@
         <v>240</v>
       </c>
       <c r="C239" s="4"/>
-      <c r="D239" s="17"/>
-      <c r="E239" s="17"/>
-      <c r="F239" s="18"/>
-      <c r="G239" s="18"/>
+      <c r="D239" s="26"/>
+      <c r="E239" s="26"/>
+      <c r="F239" s="31"/>
+      <c r="G239" s="31"/>
     </row>
     <row r="240" spans="1:7">
       <c r="A240" s="4">
@@ -53342,16 +53342,16 @@
         <v>241</v>
       </c>
       <c r="C240" s="4"/>
-      <c r="D240" s="17">
+      <c r="D240" s="26">
         <v>97</v>
       </c>
-      <c r="E240" s="18" t="s">
+      <c r="E240" s="31" t="s">
         <v>2093</v>
       </c>
-      <c r="F240" s="18" t="s">
+      <c r="F240" s="31" t="s">
         <v>2094</v>
       </c>
-      <c r="G240" s="18"/>
+      <c r="G240" s="31"/>
     </row>
     <row r="241" spans="1:7">
       <c r="A241" s="4">
@@ -53361,10 +53361,10 @@
         <v>242</v>
       </c>
       <c r="C241" s="4"/>
-      <c r="D241" s="17"/>
-      <c r="E241" s="17"/>
-      <c r="F241" s="18"/>
-      <c r="G241" s="18"/>
+      <c r="D241" s="26"/>
+      <c r="E241" s="26"/>
+      <c r="F241" s="31"/>
+      <c r="G241" s="31"/>
     </row>
     <row r="242" spans="1:7">
       <c r="A242" s="4">
@@ -53374,10 +53374,10 @@
         <v>243</v>
       </c>
       <c r="C242" s="4"/>
-      <c r="D242" s="17"/>
-      <c r="E242" s="17"/>
-      <c r="F242" s="18"/>
-      <c r="G242" s="18"/>
+      <c r="D242" s="26"/>
+      <c r="E242" s="26"/>
+      <c r="F242" s="31"/>
+      <c r="G242" s="31"/>
     </row>
     <row r="243" spans="1:7">
       <c r="A243" s="4">
@@ -53387,10 +53387,10 @@
         <v>244</v>
       </c>
       <c r="C243" s="4"/>
-      <c r="D243" s="17"/>
-      <c r="E243" s="17"/>
-      <c r="F243" s="18"/>
-      <c r="G243" s="18"/>
+      <c r="D243" s="26"/>
+      <c r="E243" s="26"/>
+      <c r="F243" s="31"/>
+      <c r="G243" s="31"/>
     </row>
     <row r="244" spans="1:7">
       <c r="A244" s="4">
@@ -53400,10 +53400,10 @@
         <v>245</v>
       </c>
       <c r="C244" s="4"/>
-      <c r="D244" s="17"/>
-      <c r="E244" s="17"/>
-      <c r="F244" s="18"/>
-      <c r="G244" s="18"/>
+      <c r="D244" s="26"/>
+      <c r="E244" s="26"/>
+      <c r="F244" s="31"/>
+      <c r="G244" s="31"/>
     </row>
     <row r="245" spans="1:7">
       <c r="A245" s="4">
@@ -53413,10 +53413,10 @@
         <v>246</v>
       </c>
       <c r="C245" s="4"/>
-      <c r="D245" s="17"/>
-      <c r="E245" s="17"/>
-      <c r="F245" s="18"/>
-      <c r="G245" s="18"/>
+      <c r="D245" s="26"/>
+      <c r="E245" s="26"/>
+      <c r="F245" s="31"/>
+      <c r="G245" s="31"/>
     </row>
     <row r="246" spans="1:7">
       <c r="A246" s="4">
@@ -53426,10 +53426,10 @@
         <v>247</v>
       </c>
       <c r="C246" s="4"/>
-      <c r="D246" s="17"/>
-      <c r="E246" s="17"/>
-      <c r="F246" s="18"/>
-      <c r="G246" s="18"/>
+      <c r="D246" s="26"/>
+      <c r="E246" s="26"/>
+      <c r="F246" s="31"/>
+      <c r="G246" s="31"/>
     </row>
     <row r="247" spans="1:7">
       <c r="A247" s="4">
@@ -53439,10 +53439,10 @@
         <v>248</v>
       </c>
       <c r="C247" s="4"/>
-      <c r="D247" s="17"/>
-      <c r="E247" s="17"/>
-      <c r="F247" s="18"/>
-      <c r="G247" s="18"/>
+      <c r="D247" s="26"/>
+      <c r="E247" s="26"/>
+      <c r="F247" s="31"/>
+      <c r="G247" s="31"/>
     </row>
     <row r="248" spans="1:7">
       <c r="A248" s="4">
@@ -53452,10 +53452,10 @@
         <v>249</v>
       </c>
       <c r="C248" s="4"/>
-      <c r="D248" s="17"/>
-      <c r="E248" s="17"/>
-      <c r="F248" s="18"/>
-      <c r="G248" s="18"/>
+      <c r="D248" s="26"/>
+      <c r="E248" s="26"/>
+      <c r="F248" s="31"/>
+      <c r="G248" s="31"/>
     </row>
     <row r="249" spans="1:7">
       <c r="A249" s="4">
@@ -53465,10 +53465,10 @@
         <v>250</v>
       </c>
       <c r="C249" s="4"/>
-      <c r="D249" s="17"/>
-      <c r="E249" s="17"/>
-      <c r="F249" s="18"/>
-      <c r="G249" s="18"/>
+      <c r="D249" s="26"/>
+      <c r="E249" s="26"/>
+      <c r="F249" s="31"/>
+      <c r="G249" s="31"/>
     </row>
     <row r="250" spans="1:7">
       <c r="A250" s="4">
@@ -53478,10 +53478,10 @@
         <v>251</v>
       </c>
       <c r="C250" s="4"/>
-      <c r="D250" s="17"/>
-      <c r="E250" s="17"/>
-      <c r="F250" s="18"/>
-      <c r="G250" s="18"/>
+      <c r="D250" s="26"/>
+      <c r="E250" s="26"/>
+      <c r="F250" s="31"/>
+      <c r="G250" s="31"/>
     </row>
     <row r="251" spans="1:7">
       <c r="A251" s="4">
@@ -53491,10 +53491,10 @@
         <v>252</v>
       </c>
       <c r="C251" s="4"/>
-      <c r="D251" s="17"/>
-      <c r="E251" s="17"/>
-      <c r="F251" s="18"/>
-      <c r="G251" s="18"/>
+      <c r="D251" s="26"/>
+      <c r="E251" s="26"/>
+      <c r="F251" s="31"/>
+      <c r="G251" s="31"/>
     </row>
     <row r="252" spans="1:7">
       <c r="A252" s="4">
@@ -53504,10 +53504,10 @@
         <v>253</v>
       </c>
       <c r="C252" s="4"/>
-      <c r="D252" s="17"/>
-      <c r="E252" s="17"/>
-      <c r="F252" s="18"/>
-      <c r="G252" s="18"/>
+      <c r="D252" s="26"/>
+      <c r="E252" s="26"/>
+      <c r="F252" s="31"/>
+      <c r="G252" s="31"/>
     </row>
     <row r="253" spans="1:7">
       <c r="A253" s="4">
@@ -53517,10 +53517,10 @@
         <v>254</v>
       </c>
       <c r="C253" s="4"/>
-      <c r="D253" s="17"/>
-      <c r="E253" s="17"/>
-      <c r="F253" s="18"/>
-      <c r="G253" s="18"/>
+      <c r="D253" s="26"/>
+      <c r="E253" s="26"/>
+      <c r="F253" s="31"/>
+      <c r="G253" s="31"/>
     </row>
     <row r="254" spans="1:7">
       <c r="A254" s="4">
@@ -53530,10 +53530,10 @@
         <v>255</v>
       </c>
       <c r="C254" s="4"/>
-      <c r="D254" s="17"/>
-      <c r="E254" s="17"/>
-      <c r="F254" s="18"/>
-      <c r="G254" s="18"/>
+      <c r="D254" s="26"/>
+      <c r="E254" s="26"/>
+      <c r="F254" s="31"/>
+      <c r="G254" s="31"/>
     </row>
     <row r="255" spans="1:7">
       <c r="A255" s="4">
@@ -53543,10 +53543,10 @@
         <v>256</v>
       </c>
       <c r="C255" s="4"/>
-      <c r="D255" s="17"/>
-      <c r="E255" s="17"/>
-      <c r="F255" s="18"/>
-      <c r="G255" s="18"/>
+      <c r="D255" s="26"/>
+      <c r="E255" s="26"/>
+      <c r="F255" s="31"/>
+      <c r="G255" s="31"/>
     </row>
     <row r="256" spans="1:7">
       <c r="A256" s="4">
@@ -53556,10 +53556,10 @@
         <v>257</v>
       </c>
       <c r="C256" s="4"/>
-      <c r="D256" s="17"/>
-      <c r="E256" s="17"/>
-      <c r="F256" s="18"/>
-      <c r="G256" s="18"/>
+      <c r="D256" s="26"/>
+      <c r="E256" s="26"/>
+      <c r="F256" s="31"/>
+      <c r="G256" s="31"/>
     </row>
     <row r="257" spans="1:7">
       <c r="A257" s="4">
@@ -53569,10 +53569,10 @@
         <v>258</v>
       </c>
       <c r="C257" s="4"/>
-      <c r="D257" s="17"/>
-      <c r="E257" s="17"/>
-      <c r="F257" s="18"/>
-      <c r="G257" s="18"/>
+      <c r="D257" s="26"/>
+      <c r="E257" s="26"/>
+      <c r="F257" s="31"/>
+      <c r="G257" s="31"/>
     </row>
     <row r="258" spans="1:7">
       <c r="A258" s="4">
@@ -53582,10 +53582,10 @@
         <v>259</v>
       </c>
       <c r="C258" s="4"/>
-      <c r="D258" s="17"/>
-      <c r="E258" s="17"/>
-      <c r="F258" s="18"/>
-      <c r="G258" s="18"/>
+      <c r="D258" s="26"/>
+      <c r="E258" s="26"/>
+      <c r="F258" s="31"/>
+      <c r="G258" s="31"/>
     </row>
     <row r="259" spans="1:7">
       <c r="A259" s="4">
@@ -53595,10 +53595,10 @@
         <v>260</v>
       </c>
       <c r="C259" s="4"/>
-      <c r="D259" s="17"/>
-      <c r="E259" s="17"/>
-      <c r="F259" s="18"/>
-      <c r="G259" s="18"/>
+      <c r="D259" s="26"/>
+      <c r="E259" s="26"/>
+      <c r="F259" s="31"/>
+      <c r="G259" s="31"/>
     </row>
     <row r="260" spans="1:7">
       <c r="A260" s="4">
@@ -53608,10 +53608,10 @@
         <v>261</v>
       </c>
       <c r="C260" s="4"/>
-      <c r="D260" s="17"/>
-      <c r="E260" s="17"/>
-      <c r="F260" s="18"/>
-      <c r="G260" s="18"/>
+      <c r="D260" s="26"/>
+      <c r="E260" s="26"/>
+      <c r="F260" s="31"/>
+      <c r="G260" s="31"/>
     </row>
     <row r="261" spans="1:7">
       <c r="A261" s="4">
@@ -53621,10 +53621,10 @@
         <v>262</v>
       </c>
       <c r="C261" s="4"/>
-      <c r="D261" s="17"/>
-      <c r="E261" s="17"/>
-      <c r="F261" s="18"/>
-      <c r="G261" s="18"/>
+      <c r="D261" s="26"/>
+      <c r="E261" s="26"/>
+      <c r="F261" s="31"/>
+      <c r="G261" s="31"/>
     </row>
     <row r="262" spans="1:7">
       <c r="A262" s="4">
@@ -53634,10 +53634,10 @@
         <v>263</v>
       </c>
       <c r="C262" s="4"/>
-      <c r="D262" s="17"/>
-      <c r="E262" s="17"/>
-      <c r="F262" s="18"/>
-      <c r="G262" s="18"/>
+      <c r="D262" s="26"/>
+      <c r="E262" s="26"/>
+      <c r="F262" s="31"/>
+      <c r="G262" s="31"/>
     </row>
     <row r="263" spans="1:7">
       <c r="A263" s="4">
@@ -53647,10 +53647,10 @@
         <v>264</v>
       </c>
       <c r="C263" s="4"/>
-      <c r="D263" s="17"/>
-      <c r="E263" s="17"/>
-      <c r="F263" s="18"/>
-      <c r="G263" s="18"/>
+      <c r="D263" s="26"/>
+      <c r="E263" s="26"/>
+      <c r="F263" s="31"/>
+      <c r="G263" s="31"/>
     </row>
     <row r="264" spans="1:7">
       <c r="A264" s="4">
@@ -53660,10 +53660,10 @@
         <v>265</v>
       </c>
       <c r="C264" s="4"/>
-      <c r="D264" s="17"/>
-      <c r="E264" s="17"/>
-      <c r="F264" s="18"/>
-      <c r="G264" s="18"/>
+      <c r="D264" s="26"/>
+      <c r="E264" s="26"/>
+      <c r="F264" s="31"/>
+      <c r="G264" s="31"/>
     </row>
     <row r="265" spans="1:7">
       <c r="A265" s="4">
@@ -53673,10 +53673,10 @@
         <v>266</v>
       </c>
       <c r="C265" s="4"/>
-      <c r="D265" s="17"/>
-      <c r="E265" s="17"/>
-      <c r="F265" s="18"/>
-      <c r="G265" s="18"/>
+      <c r="D265" s="26"/>
+      <c r="E265" s="26"/>
+      <c r="F265" s="31"/>
+      <c r="G265" s="31"/>
     </row>
     <row r="266" spans="1:7">
       <c r="A266" s="4">
@@ -53686,10 +53686,10 @@
         <v>267</v>
       </c>
       <c r="C266" s="4"/>
-      <c r="D266" s="17"/>
-      <c r="E266" s="17"/>
-      <c r="F266" s="18"/>
-      <c r="G266" s="18"/>
+      <c r="D266" s="26"/>
+      <c r="E266" s="26"/>
+      <c r="F266" s="31"/>
+      <c r="G266" s="31"/>
     </row>
     <row r="267" spans="1:7">
       <c r="A267" s="4">
@@ -53699,10 +53699,10 @@
         <v>268</v>
       </c>
       <c r="C267" s="4"/>
-      <c r="D267" s="17"/>
-      <c r="E267" s="17"/>
-      <c r="F267" s="18"/>
-      <c r="G267" s="18"/>
+      <c r="D267" s="26"/>
+      <c r="E267" s="26"/>
+      <c r="F267" s="31"/>
+      <c r="G267" s="31"/>
     </row>
     <row r="268" spans="1:7">
       <c r="A268" s="4">
@@ -53712,10 +53712,10 @@
         <v>269</v>
       </c>
       <c r="C268" s="4"/>
-      <c r="D268" s="17"/>
-      <c r="E268" s="17"/>
-      <c r="F268" s="18"/>
-      <c r="G268" s="18"/>
+      <c r="D268" s="26"/>
+      <c r="E268" s="26"/>
+      <c r="F268" s="31"/>
+      <c r="G268" s="31"/>
     </row>
     <row r="269" spans="1:7">
       <c r="A269" s="4">
@@ -53725,10 +53725,10 @@
         <v>270</v>
       </c>
       <c r="C269" s="4"/>
-      <c r="D269" s="17"/>
-      <c r="E269" s="17"/>
-      <c r="F269" s="18"/>
-      <c r="G269" s="18"/>
+      <c r="D269" s="26"/>
+      <c r="E269" s="26"/>
+      <c r="F269" s="31"/>
+      <c r="G269" s="31"/>
     </row>
     <row r="270" spans="1:7">
       <c r="A270" s="4">
@@ -53738,13 +53738,13 @@
         <v>271</v>
       </c>
       <c r="C270" s="4"/>
-      <c r="D270" s="17">
+      <c r="D270" s="26">
         <v>97</v>
       </c>
-      <c r="E270" s="19" t="s">
+      <c r="E270" s="18" t="s">
         <v>2095</v>
       </c>
-      <c r="F270" s="19" t="s">
+      <c r="F270" s="18" t="s">
         <v>2096</v>
       </c>
     </row>
@@ -53756,9 +53756,9 @@
         <v>272</v>
       </c>
       <c r="C271" s="4"/>
-      <c r="D271" s="17"/>
-      <c r="E271" s="22"/>
-      <c r="F271" s="20"/>
+      <c r="D271" s="26"/>
+      <c r="E271" s="29"/>
+      <c r="F271" s="19"/>
     </row>
     <row r="272" spans="1:7">
       <c r="A272" s="4">
@@ -53768,9 +53768,9 @@
         <v>273</v>
       </c>
       <c r="C272" s="4"/>
-      <c r="D272" s="17"/>
-      <c r="E272" s="22"/>
-      <c r="F272" s="20"/>
+      <c r="D272" s="26"/>
+      <c r="E272" s="29"/>
+      <c r="F272" s="19"/>
     </row>
     <row r="273" spans="1:6">
       <c r="A273" s="4">
@@ -53780,9 +53780,9 @@
         <v>274</v>
       </c>
       <c r="C273" s="4"/>
-      <c r="D273" s="17"/>
-      <c r="E273" s="22"/>
-      <c r="F273" s="20"/>
+      <c r="D273" s="26"/>
+      <c r="E273" s="29"/>
+      <c r="F273" s="19"/>
     </row>
     <row r="274" spans="1:6">
       <c r="A274" s="4">
@@ -53792,9 +53792,9 @@
         <v>275</v>
       </c>
       <c r="C274" s="4"/>
-      <c r="D274" s="17"/>
-      <c r="E274" s="22"/>
-      <c r="F274" s="20"/>
+      <c r="D274" s="26"/>
+      <c r="E274" s="29"/>
+      <c r="F274" s="19"/>
     </row>
     <row r="275" spans="1:6">
       <c r="A275" s="4">
@@ -53804,9 +53804,9 @@
         <v>276</v>
       </c>
       <c r="C275" s="4"/>
-      <c r="D275" s="17"/>
-      <c r="E275" s="22"/>
-      <c r="F275" s="20"/>
+      <c r="D275" s="26"/>
+      <c r="E275" s="29"/>
+      <c r="F275" s="19"/>
     </row>
     <row r="276" spans="1:6">
       <c r="A276" s="4">
@@ -53816,9 +53816,9 @@
         <v>277</v>
       </c>
       <c r="C276" s="4"/>
-      <c r="D276" s="17"/>
-      <c r="E276" s="22"/>
-      <c r="F276" s="20"/>
+      <c r="D276" s="26"/>
+      <c r="E276" s="29"/>
+      <c r="F276" s="19"/>
     </row>
     <row r="277" spans="1:6">
       <c r="A277" s="4">
@@ -53828,9 +53828,9 @@
         <v>278</v>
       </c>
       <c r="C277" s="4"/>
-      <c r="D277" s="17"/>
-      <c r="E277" s="22"/>
-      <c r="F277" s="20"/>
+      <c r="D277" s="26"/>
+      <c r="E277" s="29"/>
+      <c r="F277" s="19"/>
     </row>
     <row r="278" spans="1:6">
       <c r="A278" s="4">
@@ -53840,9 +53840,9 @@
         <v>279</v>
       </c>
       <c r="C278" s="4"/>
-      <c r="D278" s="17"/>
-      <c r="E278" s="22"/>
-      <c r="F278" s="20"/>
+      <c r="D278" s="26"/>
+      <c r="E278" s="29"/>
+      <c r="F278" s="19"/>
     </row>
     <row r="279" spans="1:6">
       <c r="A279" s="4">
@@ -53852,9 +53852,9 @@
         <v>280</v>
       </c>
       <c r="C279" s="4"/>
-      <c r="D279" s="17"/>
-      <c r="E279" s="22"/>
-      <c r="F279" s="20"/>
+      <c r="D279" s="26"/>
+      <c r="E279" s="29"/>
+      <c r="F279" s="19"/>
     </row>
     <row r="280" spans="1:6">
       <c r="A280" s="4">
@@ -53864,9 +53864,9 @@
         <v>281</v>
       </c>
       <c r="C280" s="4"/>
-      <c r="D280" s="17"/>
-      <c r="E280" s="22"/>
-      <c r="F280" s="20"/>
+      <c r="D280" s="26"/>
+      <c r="E280" s="29"/>
+      <c r="F280" s="19"/>
     </row>
     <row r="281" spans="1:6">
       <c r="A281" s="4">
@@ -53876,9 +53876,9 @@
         <v>282</v>
       </c>
       <c r="C281" s="4"/>
-      <c r="D281" s="17"/>
-      <c r="E281" s="22"/>
-      <c r="F281" s="20"/>
+      <c r="D281" s="26"/>
+      <c r="E281" s="29"/>
+      <c r="F281" s="19"/>
     </row>
     <row r="282" spans="1:6">
       <c r="A282" s="4">
@@ -53888,9 +53888,9 @@
         <v>283</v>
       </c>
       <c r="C282" s="4"/>
-      <c r="D282" s="17"/>
-      <c r="E282" s="22"/>
-      <c r="F282" s="20"/>
+      <c r="D282" s="26"/>
+      <c r="E282" s="29"/>
+      <c r="F282" s="19"/>
     </row>
     <row r="283" spans="1:6">
       <c r="A283" s="4">
@@ -53900,9 +53900,9 @@
         <v>284</v>
       </c>
       <c r="C283" s="4"/>
-      <c r="D283" s="17"/>
-      <c r="E283" s="22"/>
-      <c r="F283" s="20"/>
+      <c r="D283" s="26"/>
+      <c r="E283" s="29"/>
+      <c r="F283" s="19"/>
     </row>
     <row r="284" spans="1:6">
       <c r="A284" s="4">
@@ -53912,9 +53912,9 @@
         <v>285</v>
       </c>
       <c r="C284" s="4"/>
-      <c r="D284" s="17"/>
-      <c r="E284" s="22"/>
-      <c r="F284" s="20"/>
+      <c r="D284" s="26"/>
+      <c r="E284" s="29"/>
+      <c r="F284" s="19"/>
     </row>
     <row r="285" spans="1:6">
       <c r="A285" s="4">
@@ -53924,9 +53924,9 @@
         <v>286</v>
       </c>
       <c r="C285" s="4"/>
-      <c r="D285" s="17"/>
-      <c r="E285" s="22"/>
-      <c r="F285" s="20"/>
+      <c r="D285" s="26"/>
+      <c r="E285" s="29"/>
+      <c r="F285" s="19"/>
     </row>
     <row r="286" spans="1:6">
       <c r="A286" s="4">
@@ -53936,9 +53936,9 @@
         <v>287</v>
       </c>
       <c r="C286" s="4"/>
-      <c r="D286" s="17"/>
-      <c r="E286" s="22"/>
-      <c r="F286" s="20"/>
+      <c r="D286" s="26"/>
+      <c r="E286" s="29"/>
+      <c r="F286" s="19"/>
     </row>
     <row r="287" spans="1:6">
       <c r="A287" s="4">
@@ -53948,9 +53948,9 @@
         <v>288</v>
       </c>
       <c r="C287" s="4"/>
-      <c r="D287" s="17"/>
-      <c r="E287" s="22"/>
-      <c r="F287" s="20"/>
+      <c r="D287" s="26"/>
+      <c r="E287" s="29"/>
+      <c r="F287" s="19"/>
     </row>
     <row r="288" spans="1:6">
       <c r="A288" s="4">
@@ -53960,9 +53960,9 @@
         <v>289</v>
       </c>
       <c r="C288" s="4"/>
-      <c r="D288" s="17"/>
-      <c r="E288" s="22"/>
-      <c r="F288" s="20"/>
+      <c r="D288" s="26"/>
+      <c r="E288" s="29"/>
+      <c r="F288" s="19"/>
     </row>
     <row r="289" spans="1:6">
       <c r="A289" s="4">
@@ -53972,9 +53972,9 @@
         <v>290</v>
       </c>
       <c r="C289" s="4"/>
-      <c r="D289" s="17"/>
-      <c r="E289" s="22"/>
-      <c r="F289" s="20"/>
+      <c r="D289" s="26"/>
+      <c r="E289" s="29"/>
+      <c r="F289" s="19"/>
     </row>
     <row r="290" spans="1:6">
       <c r="A290" s="4">
@@ -53984,9 +53984,9 @@
         <v>291</v>
       </c>
       <c r="C290" s="4"/>
-      <c r="D290" s="17"/>
-      <c r="E290" s="22"/>
-      <c r="F290" s="20"/>
+      <c r="D290" s="26"/>
+      <c r="E290" s="29"/>
+      <c r="F290" s="19"/>
     </row>
     <row r="291" spans="1:6">
       <c r="A291" s="4">
@@ -53996,9 +53996,9 @@
         <v>292</v>
       </c>
       <c r="C291" s="4"/>
-      <c r="D291" s="17"/>
-      <c r="E291" s="22"/>
-      <c r="F291" s="20"/>
+      <c r="D291" s="26"/>
+      <c r="E291" s="29"/>
+      <c r="F291" s="19"/>
     </row>
     <row r="292" spans="1:6">
       <c r="A292" s="4">
@@ -54008,9 +54008,9 @@
         <v>293</v>
       </c>
       <c r="C292" s="4"/>
-      <c r="D292" s="17"/>
-      <c r="E292" s="22"/>
-      <c r="F292" s="20"/>
+      <c r="D292" s="26"/>
+      <c r="E292" s="29"/>
+      <c r="F292" s="19"/>
     </row>
     <row r="293" spans="1:6">
       <c r="A293" s="4">
@@ -54020,9 +54020,9 @@
         <v>294</v>
       </c>
       <c r="C293" s="4"/>
-      <c r="D293" s="17"/>
-      <c r="E293" s="22"/>
-      <c r="F293" s="20"/>
+      <c r="D293" s="26"/>
+      <c r="E293" s="29"/>
+      <c r="F293" s="19"/>
     </row>
     <row r="294" spans="1:6">
       <c r="A294" s="4">
@@ -54032,9 +54032,9 @@
         <v>295</v>
       </c>
       <c r="C294" s="4"/>
-      <c r="D294" s="17"/>
-      <c r="E294" s="22"/>
-      <c r="F294" s="20"/>
+      <c r="D294" s="26"/>
+      <c r="E294" s="29"/>
+      <c r="F294" s="19"/>
     </row>
     <row r="295" spans="1:6">
       <c r="A295" s="4">
@@ -54044,9 +54044,9 @@
         <v>296</v>
       </c>
       <c r="C295" s="4"/>
-      <c r="D295" s="17"/>
-      <c r="E295" s="22"/>
-      <c r="F295" s="20"/>
+      <c r="D295" s="26"/>
+      <c r="E295" s="29"/>
+      <c r="F295" s="19"/>
     </row>
     <row r="296" spans="1:6">
       <c r="A296" s="4">
@@ -54056,9 +54056,9 @@
         <v>297</v>
       </c>
       <c r="C296" s="4"/>
-      <c r="D296" s="17"/>
-      <c r="E296" s="22"/>
-      <c r="F296" s="20"/>
+      <c r="D296" s="26"/>
+      <c r="E296" s="29"/>
+      <c r="F296" s="19"/>
     </row>
     <row r="297" spans="1:6">
       <c r="A297" s="4">
@@ -54068,9 +54068,9 @@
         <v>298</v>
       </c>
       <c r="C297" s="4"/>
-      <c r="D297" s="17"/>
-      <c r="E297" s="22"/>
-      <c r="F297" s="20"/>
+      <c r="D297" s="26"/>
+      <c r="E297" s="29"/>
+      <c r="F297" s="19"/>
     </row>
     <row r="298" spans="1:6">
       <c r="A298" s="4">
@@ -54080,9 +54080,9 @@
         <v>299</v>
       </c>
       <c r="C298" s="4"/>
-      <c r="D298" s="17"/>
-      <c r="E298" s="22"/>
-      <c r="F298" s="20"/>
+      <c r="D298" s="26"/>
+      <c r="E298" s="29"/>
+      <c r="F298" s="19"/>
     </row>
     <row r="299" spans="1:6">
       <c r="A299" s="4">
@@ -54092,9 +54092,9 @@
         <v>300</v>
       </c>
       <c r="C299" s="4"/>
-      <c r="D299" s="17"/>
-      <c r="E299" s="22"/>
-      <c r="F299" s="20"/>
+      <c r="D299" s="26"/>
+      <c r="E299" s="29"/>
+      <c r="F299" s="19"/>
     </row>
     <row r="300" spans="1:6">
       <c r="A300" s="4">
@@ -54104,9 +54104,9 @@
         <v>301</v>
       </c>
       <c r="C300" s="4"/>
-      <c r="D300" s="17"/>
-      <c r="E300" s="22"/>
-      <c r="F300" s="20"/>
+      <c r="D300" s="26"/>
+      <c r="E300" s="29"/>
+      <c r="F300" s="19"/>
     </row>
     <row r="301" spans="1:6">
       <c r="A301" s="4">
@@ -54116,9 +54116,9 @@
         <v>302</v>
       </c>
       <c r="C301" s="4"/>
-      <c r="D301" s="17"/>
-      <c r="E301" s="22"/>
-      <c r="F301" s="20"/>
+      <c r="D301" s="26"/>
+      <c r="E301" s="29"/>
+      <c r="F301" s="19"/>
     </row>
     <row r="302" spans="1:6">
       <c r="A302" s="4">
@@ -54128,9 +54128,9 @@
         <v>303</v>
       </c>
       <c r="C302" s="4"/>
-      <c r="D302" s="17"/>
-      <c r="E302" s="22"/>
-      <c r="F302" s="20"/>
+      <c r="D302" s="26"/>
+      <c r="E302" s="29"/>
+      <c r="F302" s="19"/>
     </row>
     <row r="303" spans="1:6">
       <c r="A303" s="4">
@@ -54140,9 +54140,9 @@
         <v>304</v>
       </c>
       <c r="C303" s="4"/>
-      <c r="D303" s="17"/>
-      <c r="E303" s="22"/>
-      <c r="F303" s="20"/>
+      <c r="D303" s="26"/>
+      <c r="E303" s="29"/>
+      <c r="F303" s="19"/>
     </row>
     <row r="304" spans="1:6">
       <c r="A304" s="4">
@@ -54152,9 +54152,9 @@
         <v>305</v>
       </c>
       <c r="C304" s="4"/>
-      <c r="D304" s="17"/>
-      <c r="E304" s="22"/>
-      <c r="F304" s="20"/>
+      <c r="D304" s="26"/>
+      <c r="E304" s="29"/>
+      <c r="F304" s="19"/>
     </row>
     <row r="305" spans="1:6">
       <c r="A305" s="4">
@@ -54164,9 +54164,9 @@
         <v>306</v>
       </c>
       <c r="C305" s="4"/>
-      <c r="D305" s="17"/>
-      <c r="E305" s="22"/>
-      <c r="F305" s="20"/>
+      <c r="D305" s="26"/>
+      <c r="E305" s="29"/>
+      <c r="F305" s="19"/>
     </row>
     <row r="306" spans="1:6">
       <c r="A306" s="4">
@@ -54176,9 +54176,9 @@
         <v>307</v>
       </c>
       <c r="C306" s="4"/>
-      <c r="D306" s="17"/>
-      <c r="E306" s="22"/>
-      <c r="F306" s="20"/>
+      <c r="D306" s="26"/>
+      <c r="E306" s="29"/>
+      <c r="F306" s="19"/>
     </row>
     <row r="307" spans="1:6">
       <c r="A307" s="4">
@@ -54188,9 +54188,9 @@
         <v>308</v>
       </c>
       <c r="C307" s="4"/>
-      <c r="D307" s="17"/>
-      <c r="E307" s="22"/>
-      <c r="F307" s="20"/>
+      <c r="D307" s="26"/>
+      <c r="E307" s="29"/>
+      <c r="F307" s="19"/>
     </row>
     <row r="308" spans="1:6">
       <c r="A308" s="4">
@@ -54200,9 +54200,9 @@
         <v>309</v>
       </c>
       <c r="C308" s="4"/>
-      <c r="D308" s="17"/>
-      <c r="E308" s="22"/>
-      <c r="F308" s="20"/>
+      <c r="D308" s="26"/>
+      <c r="E308" s="29"/>
+      <c r="F308" s="19"/>
     </row>
     <row r="309" spans="1:6">
       <c r="A309" s="4">
@@ -54212,9 +54212,9 @@
         <v>310</v>
       </c>
       <c r="C309" s="4"/>
-      <c r="D309" s="17"/>
-      <c r="E309" s="22"/>
-      <c r="F309" s="20"/>
+      <c r="D309" s="26"/>
+      <c r="E309" s="29"/>
+      <c r="F309" s="19"/>
     </row>
     <row r="310" spans="1:6">
       <c r="A310" s="4">
@@ -54224,9 +54224,9 @@
         <v>311</v>
       </c>
       <c r="C310" s="4"/>
-      <c r="D310" s="17"/>
-      <c r="E310" s="22"/>
-      <c r="F310" s="20"/>
+      <c r="D310" s="26"/>
+      <c r="E310" s="29"/>
+      <c r="F310" s="19"/>
     </row>
     <row r="311" spans="1:6">
       <c r="A311" s="4">
@@ -54236,9 +54236,9 @@
         <v>312</v>
       </c>
       <c r="C311" s="4"/>
-      <c r="D311" s="17"/>
-      <c r="E311" s="22"/>
-      <c r="F311" s="20"/>
+      <c r="D311" s="26"/>
+      <c r="E311" s="29"/>
+      <c r="F311" s="19"/>
     </row>
     <row r="312" spans="1:6">
       <c r="A312" s="4">
@@ -54248,9 +54248,9 @@
         <v>313</v>
       </c>
       <c r="C312" s="4"/>
-      <c r="D312" s="17"/>
-      <c r="E312" s="22"/>
-      <c r="F312" s="20"/>
+      <c r="D312" s="26"/>
+      <c r="E312" s="29"/>
+      <c r="F312" s="19"/>
     </row>
     <row r="313" spans="1:6">
       <c r="A313" s="4">
@@ -54260,9 +54260,9 @@
         <v>314</v>
       </c>
       <c r="C313" s="4"/>
-      <c r="D313" s="17"/>
-      <c r="E313" s="22"/>
-      <c r="F313" s="20"/>
+      <c r="D313" s="26"/>
+      <c r="E313" s="29"/>
+      <c r="F313" s="19"/>
     </row>
     <row r="314" spans="1:6">
       <c r="A314" s="4">
@@ -54272,9 +54272,9 @@
         <v>315</v>
       </c>
       <c r="C314" s="4"/>
-      <c r="D314" s="17"/>
-      <c r="E314" s="22"/>
-      <c r="F314" s="20"/>
+      <c r="D314" s="26"/>
+      <c r="E314" s="29"/>
+      <c r="F314" s="19"/>
     </row>
     <row r="315" spans="1:6">
       <c r="A315" s="4">
@@ -54284,9 +54284,9 @@
         <v>316</v>
       </c>
       <c r="C315" s="4"/>
-      <c r="D315" s="17"/>
-      <c r="E315" s="22"/>
-      <c r="F315" s="20"/>
+      <c r="D315" s="26"/>
+      <c r="E315" s="29"/>
+      <c r="F315" s="19"/>
     </row>
     <row r="316" spans="1:6">
       <c r="A316" s="4">
@@ -54296,9 +54296,9 @@
         <v>317</v>
       </c>
       <c r="C316" s="4"/>
-      <c r="D316" s="17"/>
-      <c r="E316" s="22"/>
-      <c r="F316" s="20"/>
+      <c r="D316" s="26"/>
+      <c r="E316" s="29"/>
+      <c r="F316" s="19"/>
     </row>
     <row r="317" spans="1:6">
       <c r="A317" s="4">
@@ -54308,9 +54308,9 @@
         <v>318</v>
       </c>
       <c r="C317" s="4"/>
-      <c r="D317" s="17"/>
-      <c r="E317" s="22"/>
-      <c r="F317" s="20"/>
+      <c r="D317" s="26"/>
+      <c r="E317" s="29"/>
+      <c r="F317" s="19"/>
     </row>
     <row r="318" spans="1:6">
       <c r="A318" s="4">
@@ -54320,9 +54320,9 @@
         <v>319</v>
       </c>
       <c r="C318" s="4"/>
-      <c r="D318" s="17"/>
-      <c r="E318" s="22"/>
-      <c r="F318" s="20"/>
+      <c r="D318" s="26"/>
+      <c r="E318" s="29"/>
+      <c r="F318" s="19"/>
     </row>
     <row r="319" spans="1:6">
       <c r="A319" s="4">
@@ -54332,9 +54332,9 @@
         <v>320</v>
       </c>
       <c r="C319" s="4"/>
-      <c r="D319" s="17"/>
-      <c r="E319" s="23"/>
-      <c r="F319" s="21"/>
+      <c r="D319" s="26"/>
+      <c r="E319" s="28"/>
+      <c r="F319" s="20"/>
     </row>
     <row r="320" spans="1:6">
       <c r="A320" s="4">
@@ -54344,13 +54344,13 @@
         <v>321</v>
       </c>
       <c r="C320" s="4"/>
-      <c r="D320" s="17">
+      <c r="D320" s="26">
         <v>97</v>
       </c>
-      <c r="E320" s="18" t="s">
+      <c r="E320" s="31" t="s">
         <v>2097</v>
       </c>
-      <c r="F320" s="19" t="s">
+      <c r="F320" s="18" t="s">
         <v>2098</v>
       </c>
     </row>
@@ -54362,9 +54362,9 @@
         <v>322</v>
       </c>
       <c r="C321" s="4"/>
-      <c r="D321" s="17"/>
-      <c r="E321" s="17"/>
-      <c r="F321" s="20"/>
+      <c r="D321" s="26"/>
+      <c r="E321" s="26"/>
+      <c r="F321" s="19"/>
     </row>
     <row r="322" spans="1:6">
       <c r="A322" s="4">
@@ -54374,9 +54374,9 @@
         <v>323</v>
       </c>
       <c r="C322" s="4"/>
-      <c r="D322" s="17"/>
-      <c r="E322" s="17"/>
-      <c r="F322" s="20"/>
+      <c r="D322" s="26"/>
+      <c r="E322" s="26"/>
+      <c r="F322" s="19"/>
     </row>
     <row r="323" spans="1:6">
       <c r="A323" s="4">
@@ -54386,9 +54386,9 @@
         <v>324</v>
       </c>
       <c r="C323" s="4"/>
-      <c r="D323" s="17"/>
-      <c r="E323" s="17"/>
-      <c r="F323" s="20"/>
+      <c r="D323" s="26"/>
+      <c r="E323" s="26"/>
+      <c r="F323" s="19"/>
     </row>
     <row r="324" spans="1:6">
       <c r="A324" s="4">
@@ -54398,9 +54398,9 @@
         <v>325</v>
       </c>
       <c r="C324" s="4"/>
-      <c r="D324" s="17"/>
-      <c r="E324" s="17"/>
-      <c r="F324" s="20"/>
+      <c r="D324" s="26"/>
+      <c r="E324" s="26"/>
+      <c r="F324" s="19"/>
     </row>
     <row r="325" spans="1:6">
       <c r="A325" s="4">
@@ -54410,9 +54410,9 @@
         <v>326</v>
       </c>
       <c r="C325" s="4"/>
-      <c r="D325" s="17"/>
-      <c r="E325" s="17"/>
-      <c r="F325" s="20"/>
+      <c r="D325" s="26"/>
+      <c r="E325" s="26"/>
+      <c r="F325" s="19"/>
     </row>
     <row r="326" spans="1:6">
       <c r="A326" s="4">
@@ -54422,9 +54422,9 @@
         <v>327</v>
       </c>
       <c r="C326" s="4"/>
-      <c r="D326" s="17"/>
-      <c r="E326" s="17"/>
-      <c r="F326" s="20"/>
+      <c r="D326" s="26"/>
+      <c r="E326" s="26"/>
+      <c r="F326" s="19"/>
     </row>
     <row r="327" spans="1:6">
       <c r="A327" s="4">
@@ -54434,9 +54434,9 @@
         <v>328</v>
       </c>
       <c r="C327" s="4"/>
-      <c r="D327" s="17"/>
-      <c r="E327" s="17"/>
-      <c r="F327" s="20"/>
+      <c r="D327" s="26"/>
+      <c r="E327" s="26"/>
+      <c r="F327" s="19"/>
     </row>
     <row r="328" spans="1:6">
       <c r="A328" s="4">
@@ -54446,9 +54446,9 @@
         <v>329</v>
       </c>
       <c r="C328" s="4"/>
-      <c r="D328" s="17"/>
-      <c r="E328" s="17"/>
-      <c r="F328" s="20"/>
+      <c r="D328" s="26"/>
+      <c r="E328" s="26"/>
+      <c r="F328" s="19"/>
     </row>
     <row r="329" spans="1:6">
       <c r="A329" s="4">
@@ -54458,9 +54458,9 @@
         <v>330</v>
       </c>
       <c r="C329" s="4"/>
-      <c r="D329" s="17"/>
-      <c r="E329" s="17"/>
-      <c r="F329" s="20"/>
+      <c r="D329" s="26"/>
+      <c r="E329" s="26"/>
+      <c r="F329" s="19"/>
     </row>
     <row r="330" spans="1:6">
       <c r="A330" s="4">
@@ -54470,9 +54470,9 @@
         <v>331</v>
       </c>
       <c r="C330" s="4"/>
-      <c r="D330" s="17"/>
-      <c r="E330" s="17"/>
-      <c r="F330" s="20"/>
+      <c r="D330" s="26"/>
+      <c r="E330" s="26"/>
+      <c r="F330" s="19"/>
     </row>
     <row r="331" spans="1:6">
       <c r="A331" s="4">
@@ -54482,9 +54482,9 @@
         <v>332</v>
       </c>
       <c r="C331" s="4"/>
-      <c r="D331" s="17"/>
-      <c r="E331" s="17"/>
-      <c r="F331" s="20"/>
+      <c r="D331" s="26"/>
+      <c r="E331" s="26"/>
+      <c r="F331" s="19"/>
     </row>
     <row r="332" spans="1:6">
       <c r="A332" s="4">
@@ -54494,9 +54494,9 @@
         <v>333</v>
       </c>
       <c r="C332" s="4"/>
-      <c r="D332" s="17"/>
-      <c r="E332" s="17"/>
-      <c r="F332" s="20"/>
+      <c r="D332" s="26"/>
+      <c r="E332" s="26"/>
+      <c r="F332" s="19"/>
     </row>
     <row r="333" spans="1:6">
       <c r="A333" s="4">
@@ -54506,9 +54506,9 @@
         <v>334</v>
       </c>
       <c r="C333" s="4"/>
-      <c r="D333" s="17"/>
-      <c r="E333" s="17"/>
-      <c r="F333" s="20"/>
+      <c r="D333" s="26"/>
+      <c r="E333" s="26"/>
+      <c r="F333" s="19"/>
     </row>
     <row r="334" spans="1:6">
       <c r="A334" s="4">
@@ -54518,9 +54518,9 @@
         <v>335</v>
       </c>
       <c r="C334" s="4"/>
-      <c r="D334" s="17"/>
-      <c r="E334" s="17"/>
-      <c r="F334" s="20"/>
+      <c r="D334" s="26"/>
+      <c r="E334" s="26"/>
+      <c r="F334" s="19"/>
     </row>
     <row r="335" spans="1:6">
       <c r="A335" s="4">
@@ -54530,9 +54530,9 @@
         <v>336</v>
       </c>
       <c r="C335" s="4"/>
-      <c r="D335" s="17"/>
-      <c r="E335" s="17"/>
-      <c r="F335" s="20"/>
+      <c r="D335" s="26"/>
+      <c r="E335" s="26"/>
+      <c r="F335" s="19"/>
     </row>
     <row r="336" spans="1:6">
       <c r="A336" s="4">
@@ -54542,9 +54542,9 @@
         <v>337</v>
       </c>
       <c r="C336" s="4"/>
-      <c r="D336" s="17"/>
-      <c r="E336" s="17"/>
-      <c r="F336" s="20"/>
+      <c r="D336" s="26"/>
+      <c r="E336" s="26"/>
+      <c r="F336" s="19"/>
     </row>
     <row r="337" spans="1:6">
       <c r="A337" s="4">
@@ -54554,9 +54554,9 @@
         <v>338</v>
       </c>
       <c r="C337" s="4"/>
-      <c r="D337" s="17"/>
-      <c r="E337" s="17"/>
-      <c r="F337" s="20"/>
+      <c r="D337" s="26"/>
+      <c r="E337" s="26"/>
+      <c r="F337" s="19"/>
     </row>
     <row r="338" spans="1:6">
       <c r="A338" s="4">
@@ -54566,9 +54566,9 @@
         <v>339</v>
       </c>
       <c r="C338" s="4"/>
-      <c r="D338" s="17"/>
-      <c r="E338" s="17"/>
-      <c r="F338" s="20"/>
+      <c r="D338" s="26"/>
+      <c r="E338" s="26"/>
+      <c r="F338" s="19"/>
     </row>
     <row r="339" spans="1:6">
       <c r="A339" s="4">
@@ -54578,9 +54578,9 @@
         <v>340</v>
       </c>
       <c r="C339" s="4"/>
-      <c r="D339" s="17"/>
-      <c r="E339" s="17"/>
-      <c r="F339" s="20"/>
+      <c r="D339" s="26"/>
+      <c r="E339" s="26"/>
+      <c r="F339" s="19"/>
     </row>
     <row r="340" spans="1:6">
       <c r="A340" s="4">
@@ -54590,9 +54590,9 @@
         <v>341</v>
       </c>
       <c r="C340" s="4"/>
-      <c r="D340" s="17"/>
-      <c r="E340" s="17"/>
-      <c r="F340" s="20"/>
+      <c r="D340" s="26"/>
+      <c r="E340" s="26"/>
+      <c r="F340" s="19"/>
     </row>
     <row r="341" spans="1:6">
       <c r="A341" s="4">
@@ -54602,9 +54602,9 @@
         <v>342</v>
       </c>
       <c r="C341" s="4"/>
-      <c r="D341" s="17"/>
-      <c r="E341" s="17"/>
-      <c r="F341" s="20"/>
+      <c r="D341" s="26"/>
+      <c r="E341" s="26"/>
+      <c r="F341" s="19"/>
     </row>
     <row r="342" spans="1:6">
       <c r="A342" s="4">
@@ -54614,9 +54614,9 @@
         <v>343</v>
       </c>
       <c r="C342" s="4"/>
-      <c r="D342" s="17"/>
-      <c r="E342" s="17"/>
-      <c r="F342" s="20"/>
+      <c r="D342" s="26"/>
+      <c r="E342" s="26"/>
+      <c r="F342" s="19"/>
     </row>
     <row r="343" spans="1:6">
       <c r="A343" s="4">
@@ -54626,9 +54626,9 @@
         <v>344</v>
       </c>
       <c r="C343" s="4"/>
-      <c r="D343" s="17"/>
-      <c r="E343" s="17"/>
-      <c r="F343" s="20"/>
+      <c r="D343" s="26"/>
+      <c r="E343" s="26"/>
+      <c r="F343" s="19"/>
     </row>
     <row r="344" spans="1:6">
       <c r="A344" s="4">
@@ -54638,9 +54638,9 @@
         <v>345</v>
       </c>
       <c r="C344" s="4"/>
-      <c r="D344" s="17"/>
-      <c r="E344" s="17"/>
-      <c r="F344" s="20"/>
+      <c r="D344" s="26"/>
+      <c r="E344" s="26"/>
+      <c r="F344" s="19"/>
     </row>
     <row r="345" spans="1:6">
       <c r="A345" s="4">
@@ -54650,9 +54650,9 @@
         <v>346</v>
       </c>
       <c r="C345" s="4"/>
-      <c r="D345" s="17"/>
-      <c r="E345" s="17"/>
-      <c r="F345" s="20"/>
+      <c r="D345" s="26"/>
+      <c r="E345" s="26"/>
+      <c r="F345" s="19"/>
     </row>
     <row r="346" spans="1:6">
       <c r="A346" s="4">
@@ -54662,9 +54662,9 @@
         <v>347</v>
       </c>
       <c r="C346" s="4"/>
-      <c r="D346" s="17"/>
-      <c r="E346" s="17"/>
-      <c r="F346" s="20"/>
+      <c r="D346" s="26"/>
+      <c r="E346" s="26"/>
+      <c r="F346" s="19"/>
     </row>
     <row r="347" spans="1:6">
       <c r="A347" s="4">
@@ -54674,9 +54674,9 @@
         <v>348</v>
       </c>
       <c r="C347" s="4"/>
-      <c r="D347" s="17"/>
-      <c r="E347" s="17"/>
-      <c r="F347" s="20"/>
+      <c r="D347" s="26"/>
+      <c r="E347" s="26"/>
+      <c r="F347" s="19"/>
     </row>
     <row r="348" spans="1:6">
       <c r="A348" s="4">
@@ -54686,9 +54686,9 @@
         <v>349</v>
       </c>
       <c r="C348" s="4"/>
-      <c r="D348" s="17"/>
-      <c r="E348" s="17"/>
-      <c r="F348" s="20"/>
+      <c r="D348" s="26"/>
+      <c r="E348" s="26"/>
+      <c r="F348" s="19"/>
     </row>
     <row r="349" spans="1:6">
       <c r="A349" s="4">
@@ -54698,9 +54698,9 @@
         <v>350</v>
       </c>
       <c r="C349" s="4"/>
-      <c r="D349" s="17"/>
-      <c r="E349" s="17"/>
-      <c r="F349" s="20"/>
+      <c r="D349" s="26"/>
+      <c r="E349" s="26"/>
+      <c r="F349" s="19"/>
     </row>
     <row r="350" spans="1:6">
       <c r="A350" s="4">
@@ -54710,9 +54710,9 @@
         <v>351</v>
       </c>
       <c r="C350" s="4"/>
-      <c r="D350" s="17"/>
-      <c r="E350" s="17"/>
-      <c r="F350" s="20"/>
+      <c r="D350" s="26"/>
+      <c r="E350" s="26"/>
+      <c r="F350" s="19"/>
     </row>
     <row r="351" spans="1:6">
       <c r="A351" s="4">
@@ -54722,9 +54722,9 @@
         <v>352</v>
       </c>
       <c r="C351" s="4"/>
-      <c r="D351" s="17"/>
-      <c r="E351" s="17"/>
-      <c r="F351" s="20"/>
+      <c r="D351" s="26"/>
+      <c r="E351" s="26"/>
+      <c r="F351" s="19"/>
     </row>
     <row r="352" spans="1:6">
       <c r="A352" s="4">
@@ -54734,9 +54734,9 @@
         <v>353</v>
       </c>
       <c r="C352" s="4"/>
-      <c r="D352" s="17"/>
-      <c r="E352" s="17"/>
-      <c r="F352" s="20"/>
+      <c r="D352" s="26"/>
+      <c r="E352" s="26"/>
+      <c r="F352" s="19"/>
     </row>
     <row r="353" spans="1:6">
       <c r="A353" s="4">
@@ -54746,9 +54746,9 @@
         <v>354</v>
       </c>
       <c r="C353" s="4"/>
-      <c r="D353" s="17"/>
-      <c r="E353" s="17"/>
-      <c r="F353" s="20"/>
+      <c r="D353" s="26"/>
+      <c r="E353" s="26"/>
+      <c r="F353" s="19"/>
     </row>
     <row r="354" spans="1:6">
       <c r="A354" s="4">
@@ -54758,9 +54758,9 @@
         <v>355</v>
       </c>
       <c r="C354" s="4"/>
-      <c r="D354" s="17"/>
-      <c r="E354" s="17"/>
-      <c r="F354" s="20"/>
+      <c r="D354" s="26"/>
+      <c r="E354" s="26"/>
+      <c r="F354" s="19"/>
     </row>
     <row r="355" spans="1:6">
       <c r="A355" s="4">
@@ -54770,9 +54770,9 @@
         <v>356</v>
       </c>
       <c r="C355" s="4"/>
-      <c r="D355" s="17"/>
-      <c r="E355" s="17"/>
-      <c r="F355" s="20"/>
+      <c r="D355" s="26"/>
+      <c r="E355" s="26"/>
+      <c r="F355" s="19"/>
     </row>
     <row r="356" spans="1:6">
       <c r="A356" s="4">
@@ -54782,9 +54782,9 @@
         <v>357</v>
       </c>
       <c r="C356" s="4"/>
-      <c r="D356" s="17"/>
-      <c r="E356" s="17"/>
-      <c r="F356" s="20"/>
+      <c r="D356" s="26"/>
+      <c r="E356" s="26"/>
+      <c r="F356" s="19"/>
     </row>
     <row r="357" spans="1:6">
       <c r="A357" s="4">
@@ -54794,9 +54794,9 @@
         <v>358</v>
       </c>
       <c r="C357" s="4"/>
-      <c r="D357" s="17"/>
-      <c r="E357" s="17"/>
-      <c r="F357" s="20"/>
+      <c r="D357" s="26"/>
+      <c r="E357" s="26"/>
+      <c r="F357" s="19"/>
     </row>
     <row r="358" spans="1:6">
       <c r="A358" s="4">
@@ -54806,9 +54806,9 @@
         <v>359</v>
       </c>
       <c r="C358" s="4"/>
-      <c r="D358" s="17"/>
-      <c r="E358" s="17"/>
-      <c r="F358" s="20"/>
+      <c r="D358" s="26"/>
+      <c r="E358" s="26"/>
+      <c r="F358" s="19"/>
     </row>
     <row r="359" spans="1:6">
       <c r="A359" s="4">
@@ -54818,9 +54818,9 @@
         <v>360</v>
       </c>
       <c r="C359" s="4"/>
-      <c r="D359" s="17"/>
-      <c r="E359" s="17"/>
-      <c r="F359" s="20"/>
+      <c r="D359" s="26"/>
+      <c r="E359" s="26"/>
+      <c r="F359" s="19"/>
     </row>
     <row r="360" spans="1:6">
       <c r="A360" s="4">
@@ -54830,9 +54830,9 @@
         <v>361</v>
       </c>
       <c r="C360" s="4"/>
-      <c r="D360" s="17"/>
-      <c r="E360" s="17"/>
-      <c r="F360" s="20"/>
+      <c r="D360" s="26"/>
+      <c r="E360" s="26"/>
+      <c r="F360" s="19"/>
     </row>
     <row r="361" spans="1:6">
       <c r="A361" s="4">
@@ -54842,9 +54842,9 @@
         <v>362</v>
       </c>
       <c r="C361" s="4"/>
-      <c r="D361" s="17"/>
-      <c r="E361" s="17"/>
-      <c r="F361" s="20"/>
+      <c r="D361" s="26"/>
+      <c r="E361" s="26"/>
+      <c r="F361" s="19"/>
     </row>
     <row r="362" spans="1:6">
       <c r="A362" s="4">
@@ -54854,9 +54854,9 @@
         <v>363</v>
       </c>
       <c r="C362" s="4"/>
-      <c r="D362" s="17"/>
-      <c r="E362" s="17"/>
-      <c r="F362" s="20"/>
+      <c r="D362" s="26"/>
+      <c r="E362" s="26"/>
+      <c r="F362" s="19"/>
     </row>
     <row r="363" spans="1:6">
       <c r="A363" s="4">
@@ -54866,9 +54866,9 @@
         <v>364</v>
       </c>
       <c r="C363" s="4"/>
-      <c r="D363" s="17"/>
-      <c r="E363" s="17"/>
-      <c r="F363" s="20"/>
+      <c r="D363" s="26"/>
+      <c r="E363" s="26"/>
+      <c r="F363" s="19"/>
     </row>
     <row r="364" spans="1:6">
       <c r="A364" s="4">
@@ -54878,9 +54878,9 @@
         <v>365</v>
       </c>
       <c r="C364" s="4"/>
-      <c r="D364" s="17"/>
-      <c r="E364" s="17"/>
-      <c r="F364" s="20"/>
+      <c r="D364" s="26"/>
+      <c r="E364" s="26"/>
+      <c r="F364" s="19"/>
     </row>
     <row r="365" spans="1:6">
       <c r="A365" s="4">
@@ -54890,9 +54890,9 @@
         <v>366</v>
       </c>
       <c r="C365" s="4"/>
-      <c r="D365" s="17"/>
-      <c r="E365" s="17"/>
-      <c r="F365" s="20"/>
+      <c r="D365" s="26"/>
+      <c r="E365" s="26"/>
+      <c r="F365" s="19"/>
     </row>
     <row r="366" spans="1:6">
       <c r="A366" s="4">
@@ -54902,9 +54902,9 @@
         <v>367</v>
       </c>
       <c r="C366" s="4"/>
-      <c r="D366" s="17"/>
-      <c r="E366" s="17"/>
-      <c r="F366" s="20"/>
+      <c r="D366" s="26"/>
+      <c r="E366" s="26"/>
+      <c r="F366" s="19"/>
     </row>
     <row r="367" spans="1:6">
       <c r="A367" s="4">
@@ -54914,9 +54914,9 @@
         <v>368</v>
       </c>
       <c r="C367" s="4"/>
-      <c r="D367" s="17"/>
-      <c r="E367" s="17"/>
-      <c r="F367" s="20"/>
+      <c r="D367" s="26"/>
+      <c r="E367" s="26"/>
+      <c r="F367" s="19"/>
     </row>
     <row r="368" spans="1:6">
       <c r="A368" s="4">
@@ -54926,9 +54926,9 @@
         <v>369</v>
       </c>
       <c r="C368" s="4"/>
-      <c r="D368" s="17"/>
-      <c r="E368" s="17"/>
-      <c r="F368" s="20"/>
+      <c r="D368" s="26"/>
+      <c r="E368" s="26"/>
+      <c r="F368" s="19"/>
     </row>
     <row r="369" spans="1:6">
       <c r="A369" s="4">
@@ -54938,9 +54938,9 @@
         <v>370</v>
       </c>
       <c r="C369" s="4"/>
-      <c r="D369" s="17"/>
-      <c r="E369" s="17"/>
-      <c r="F369" s="21"/>
+      <c r="D369" s="26"/>
+      <c r="E369" s="26"/>
+      <c r="F369" s="20"/>
     </row>
     <row r="370" spans="1:6">
       <c r="A370" s="4">
@@ -54950,13 +54950,13 @@
         <v>371</v>
       </c>
       <c r="C370" s="4"/>
-      <c r="D370" s="17">
+      <c r="D370" s="26">
         <v>97</v>
       </c>
-      <c r="E370" s="18" t="s">
+      <c r="E370" s="31" t="s">
         <v>2099</v>
       </c>
-      <c r="F370" s="19" t="s">
+      <c r="F370" s="18" t="s">
         <v>2098</v>
       </c>
     </row>
@@ -54968,9 +54968,9 @@
         <v>372</v>
       </c>
       <c r="C371" s="4"/>
-      <c r="D371" s="17"/>
-      <c r="E371" s="17"/>
-      <c r="F371" s="20"/>
+      <c r="D371" s="26"/>
+      <c r="E371" s="26"/>
+      <c r="F371" s="19"/>
     </row>
     <row r="372" spans="1:6">
       <c r="A372" s="4">
@@ -54980,9 +54980,9 @@
         <v>373</v>
       </c>
       <c r="C372" s="4"/>
-      <c r="D372" s="17"/>
-      <c r="E372" s="17"/>
-      <c r="F372" s="20"/>
+      <c r="D372" s="26"/>
+      <c r="E372" s="26"/>
+      <c r="F372" s="19"/>
     </row>
     <row r="373" spans="1:6">
       <c r="A373" s="4">
@@ -54992,9 +54992,9 @@
         <v>374</v>
       </c>
       <c r="C373" s="4"/>
-      <c r="D373" s="17"/>
-      <c r="E373" s="17"/>
-      <c r="F373" s="20"/>
+      <c r="D373" s="26"/>
+      <c r="E373" s="26"/>
+      <c r="F373" s="19"/>
     </row>
     <row r="374" spans="1:6">
       <c r="A374" s="4">
@@ -55004,9 +55004,9 @@
         <v>375</v>
       </c>
       <c r="C374" s="4"/>
-      <c r="D374" s="17"/>
-      <c r="E374" s="17"/>
-      <c r="F374" s="20"/>
+      <c r="D374" s="26"/>
+      <c r="E374" s="26"/>
+      <c r="F374" s="19"/>
     </row>
     <row r="375" spans="1:6">
       <c r="A375" s="4">
@@ -55016,9 +55016,9 @@
         <v>376</v>
       </c>
       <c r="C375" s="4"/>
-      <c r="D375" s="17"/>
-      <c r="E375" s="17"/>
-      <c r="F375" s="20"/>
+      <c r="D375" s="26"/>
+      <c r="E375" s="26"/>
+      <c r="F375" s="19"/>
     </row>
     <row r="376" spans="1:6">
       <c r="A376" s="4">
@@ -55028,9 +55028,9 @@
         <v>377</v>
       </c>
       <c r="C376" s="4"/>
-      <c r="D376" s="17"/>
-      <c r="E376" s="17"/>
-      <c r="F376" s="20"/>
+      <c r="D376" s="26"/>
+      <c r="E376" s="26"/>
+      <c r="F376" s="19"/>
     </row>
     <row r="377" spans="1:6">
       <c r="A377" s="4">
@@ -55040,9 +55040,9 @@
         <v>378</v>
       </c>
       <c r="C377" s="4"/>
-      <c r="D377" s="17"/>
-      <c r="E377" s="17"/>
-      <c r="F377" s="20"/>
+      <c r="D377" s="26"/>
+      <c r="E377" s="26"/>
+      <c r="F377" s="19"/>
     </row>
     <row r="378" spans="1:6">
       <c r="A378" s="4">
@@ -55052,9 +55052,9 @@
         <v>379</v>
       </c>
       <c r="C378" s="4"/>
-      <c r="D378" s="17"/>
-      <c r="E378" s="17"/>
-      <c r="F378" s="20"/>
+      <c r="D378" s="26"/>
+      <c r="E378" s="26"/>
+      <c r="F378" s="19"/>
     </row>
     <row r="379" spans="1:6">
       <c r="A379" s="4">
@@ -55064,9 +55064,9 @@
         <v>380</v>
       </c>
       <c r="C379" s="4"/>
-      <c r="D379" s="17"/>
-      <c r="E379" s="17"/>
-      <c r="F379" s="20"/>
+      <c r="D379" s="26"/>
+      <c r="E379" s="26"/>
+      <c r="F379" s="19"/>
     </row>
     <row r="380" spans="1:6">
       <c r="A380" s="4">
@@ -55076,9 +55076,9 @@
         <v>381</v>
       </c>
       <c r="C380" s="4"/>
-      <c r="D380" s="17"/>
-      <c r="E380" s="17"/>
-      <c r="F380" s="20"/>
+      <c r="D380" s="26"/>
+      <c r="E380" s="26"/>
+      <c r="F380" s="19"/>
     </row>
     <row r="381" spans="1:6">
       <c r="A381" s="4">
@@ -55088,9 +55088,9 @@
         <v>382</v>
       </c>
       <c r="C381" s="4"/>
-      <c r="D381" s="17"/>
-      <c r="E381" s="17"/>
-      <c r="F381" s="20"/>
+      <c r="D381" s="26"/>
+      <c r="E381" s="26"/>
+      <c r="F381" s="19"/>
     </row>
     <row r="382" spans="1:6">
       <c r="A382" s="4">
@@ -55100,9 +55100,9 @@
         <v>383</v>
       </c>
       <c r="C382" s="4"/>
-      <c r="D382" s="17"/>
-      <c r="E382" s="17"/>
-      <c r="F382" s="20"/>
+      <c r="D382" s="26"/>
+      <c r="E382" s="26"/>
+      <c r="F382" s="19"/>
     </row>
     <row r="383" spans="1:6">
       <c r="A383" s="4">
@@ -55112,9 +55112,9 @@
         <v>384</v>
       </c>
       <c r="C383" s="4"/>
-      <c r="D383" s="17"/>
-      <c r="E383" s="17"/>
-      <c r="F383" s="20"/>
+      <c r="D383" s="26"/>
+      <c r="E383" s="26"/>
+      <c r="F383" s="19"/>
     </row>
     <row r="384" spans="1:6">
       <c r="A384" s="4">
@@ -55124,9 +55124,9 @@
         <v>385</v>
       </c>
       <c r="C384" s="4"/>
-      <c r="D384" s="17"/>
-      <c r="E384" s="17"/>
-      <c r="F384" s="20"/>
+      <c r="D384" s="26"/>
+      <c r="E384" s="26"/>
+      <c r="F384" s="19"/>
     </row>
     <row r="385" spans="1:6">
       <c r="A385" s="4">
@@ -55136,9 +55136,9 @@
         <v>386</v>
       </c>
       <c r="C385" s="4"/>
-      <c r="D385" s="17"/>
-      <c r="E385" s="17"/>
-      <c r="F385" s="20"/>
+      <c r="D385" s="26"/>
+      <c r="E385" s="26"/>
+      <c r="F385" s="19"/>
     </row>
     <row r="386" spans="1:6">
       <c r="A386" s="4">
@@ -55148,9 +55148,9 @@
         <v>387</v>
       </c>
       <c r="C386" s="4"/>
-      <c r="D386" s="17"/>
-      <c r="E386" s="17"/>
-      <c r="F386" s="20"/>
+      <c r="D386" s="26"/>
+      <c r="E386" s="26"/>
+      <c r="F386" s="19"/>
     </row>
     <row r="387" spans="1:6">
       <c r="A387" s="4">
@@ -55160,9 +55160,9 @@
         <v>388</v>
       </c>
       <c r="C387" s="4"/>
-      <c r="D387" s="17"/>
-      <c r="E387" s="17"/>
-      <c r="F387" s="20"/>
+      <c r="D387" s="26"/>
+      <c r="E387" s="26"/>
+      <c r="F387" s="19"/>
     </row>
     <row r="388" spans="1:6">
       <c r="A388" s="4">
@@ -55172,9 +55172,9 @@
         <v>389</v>
       </c>
       <c r="C388" s="4"/>
-      <c r="D388" s="17"/>
-      <c r="E388" s="17"/>
-      <c r="F388" s="20"/>
+      <c r="D388" s="26"/>
+      <c r="E388" s="26"/>
+      <c r="F388" s="19"/>
     </row>
     <row r="389" spans="1:6">
       <c r="A389" s="4">
@@ -55184,9 +55184,9 @@
         <v>390</v>
       </c>
       <c r="C389" s="4"/>
-      <c r="D389" s="17"/>
-      <c r="E389" s="17"/>
-      <c r="F389" s="20"/>
+      <c r="D389" s="26"/>
+      <c r="E389" s="26"/>
+      <c r="F389" s="19"/>
     </row>
     <row r="390" spans="1:6">
       <c r="A390" s="4">
@@ -55196,9 +55196,9 @@
         <v>391</v>
       </c>
       <c r="C390" s="4"/>
-      <c r="D390" s="17"/>
-      <c r="E390" s="17"/>
-      <c r="F390" s="20"/>
+      <c r="D390" s="26"/>
+      <c r="E390" s="26"/>
+      <c r="F390" s="19"/>
     </row>
     <row r="391" spans="1:6">
       <c r="A391" s="4">
@@ -55208,9 +55208,9 @@
         <v>392</v>
       </c>
       <c r="C391" s="4"/>
-      <c r="D391" s="17"/>
-      <c r="E391" s="17"/>
-      <c r="F391" s="20"/>
+      <c r="D391" s="26"/>
+      <c r="E391" s="26"/>
+      <c r="F391" s="19"/>
     </row>
     <row r="392" spans="1:6">
       <c r="A392" s="4">
@@ -55220,9 +55220,9 @@
         <v>393</v>
       </c>
       <c r="C392" s="4"/>
-      <c r="D392" s="17"/>
-      <c r="E392" s="17"/>
-      <c r="F392" s="20"/>
+      <c r="D392" s="26"/>
+      <c r="E392" s="26"/>
+      <c r="F392" s="19"/>
     </row>
     <row r="393" spans="1:6">
       <c r="A393" s="4">
@@ -55232,9 +55232,9 @@
         <v>394</v>
       </c>
       <c r="C393" s="4"/>
-      <c r="D393" s="17"/>
-      <c r="E393" s="17"/>
-      <c r="F393" s="20"/>
+      <c r="D393" s="26"/>
+      <c r="E393" s="26"/>
+      <c r="F393" s="19"/>
     </row>
     <row r="394" spans="1:6">
       <c r="A394" s="4">
@@ -55244,9 +55244,9 @@
         <v>395</v>
       </c>
       <c r="C394" s="4"/>
-      <c r="D394" s="17"/>
-      <c r="E394" s="17"/>
-      <c r="F394" s="20"/>
+      <c r="D394" s="26"/>
+      <c r="E394" s="26"/>
+      <c r="F394" s="19"/>
     </row>
     <row r="395" spans="1:6">
       <c r="A395" s="4">
@@ -55256,9 +55256,9 @@
         <v>396</v>
       </c>
       <c r="C395" s="4"/>
-      <c r="D395" s="17"/>
-      <c r="E395" s="17"/>
-      <c r="F395" s="20"/>
+      <c r="D395" s="26"/>
+      <c r="E395" s="26"/>
+      <c r="F395" s="19"/>
     </row>
     <row r="396" spans="1:6">
       <c r="A396" s="4">
@@ -55268,9 +55268,9 @@
         <v>397</v>
       </c>
       <c r="C396" s="4"/>
-      <c r="D396" s="17"/>
-      <c r="E396" s="17"/>
-      <c r="F396" s="20"/>
+      <c r="D396" s="26"/>
+      <c r="E396" s="26"/>
+      <c r="F396" s="19"/>
     </row>
     <row r="397" spans="1:6">
       <c r="A397" s="4">
@@ -55280,9 +55280,9 @@
         <v>398</v>
       </c>
       <c r="C397" s="4"/>
-      <c r="D397" s="17"/>
-      <c r="E397" s="17"/>
-      <c r="F397" s="20"/>
+      <c r="D397" s="26"/>
+      <c r="E397" s="26"/>
+      <c r="F397" s="19"/>
     </row>
     <row r="398" spans="1:6">
       <c r="A398" s="4">
@@ -55292,9 +55292,9 @@
         <v>399</v>
       </c>
       <c r="C398" s="4"/>
-      <c r="D398" s="17"/>
-      <c r="E398" s="17"/>
-      <c r="F398" s="20"/>
+      <c r="D398" s="26"/>
+      <c r="E398" s="26"/>
+      <c r="F398" s="19"/>
     </row>
     <row r="399" spans="1:6">
       <c r="A399" s="4">
@@ -55304,9 +55304,9 @@
         <v>400</v>
       </c>
       <c r="C399" s="4"/>
-      <c r="D399" s="17"/>
-      <c r="E399" s="17"/>
-      <c r="F399" s="20"/>
+      <c r="D399" s="26"/>
+      <c r="E399" s="26"/>
+      <c r="F399" s="19"/>
     </row>
     <row r="400" spans="1:6">
       <c r="A400" s="4">
@@ -55316,9 +55316,9 @@
         <v>401</v>
       </c>
       <c r="C400" s="4"/>
-      <c r="D400" s="17"/>
-      <c r="E400" s="17"/>
-      <c r="F400" s="20"/>
+      <c r="D400" s="26"/>
+      <c r="E400" s="26"/>
+      <c r="F400" s="19"/>
     </row>
     <row r="401" spans="1:6">
       <c r="A401" s="4">
@@ -55328,9 +55328,9 @@
         <v>402</v>
       </c>
       <c r="C401" s="4"/>
-      <c r="D401" s="17"/>
-      <c r="E401" s="17"/>
-      <c r="F401" s="20"/>
+      <c r="D401" s="26"/>
+      <c r="E401" s="26"/>
+      <c r="F401" s="19"/>
     </row>
     <row r="402" spans="1:6">
       <c r="A402" s="4">
@@ -55340,9 +55340,9 @@
         <v>403</v>
       </c>
       <c r="C402" s="4"/>
-      <c r="D402" s="17"/>
-      <c r="E402" s="17"/>
-      <c r="F402" s="20"/>
+      <c r="D402" s="26"/>
+      <c r="E402" s="26"/>
+      <c r="F402" s="19"/>
     </row>
     <row r="403" spans="1:6">
       <c r="A403" s="4">
@@ -55352,9 +55352,9 @@
         <v>404</v>
       </c>
       <c r="C403" s="4"/>
-      <c r="D403" s="17"/>
-      <c r="E403" s="17"/>
-      <c r="F403" s="20"/>
+      <c r="D403" s="26"/>
+      <c r="E403" s="26"/>
+      <c r="F403" s="19"/>
     </row>
     <row r="404" spans="1:6">
       <c r="A404" s="4">
@@ -55364,9 +55364,9 @@
         <v>405</v>
       </c>
       <c r="C404" s="4"/>
-      <c r="D404" s="17"/>
-      <c r="E404" s="17"/>
-      <c r="F404" s="20"/>
+      <c r="D404" s="26"/>
+      <c r="E404" s="26"/>
+      <c r="F404" s="19"/>
     </row>
     <row r="405" spans="1:6">
       <c r="A405" s="4">
@@ -55376,177 +55376,177 @@
         <v>406</v>
       </c>
       <c r="C405" s="4"/>
-      <c r="D405" s="17"/>
-      <c r="E405" s="17"/>
-      <c r="F405" s="20"/>
+      <c r="D405" s="26"/>
+      <c r="E405" s="26"/>
+      <c r="F405" s="19"/>
     </row>
     <row r="406" spans="1:6">
       <c r="A406" s="4">
         <v>405</v>
       </c>
-      <c r="B406" s="4" t="s">
+      <c r="B406" s="5" t="s">
         <v>407</v>
       </c>
       <c r="C406" s="4"/>
-      <c r="D406" s="17"/>
-      <c r="E406" s="17"/>
-      <c r="F406" s="20"/>
+      <c r="D406" s="26"/>
+      <c r="E406" s="26"/>
+      <c r="F406" s="19"/>
     </row>
     <row r="407" spans="1:6">
       <c r="A407" s="4">
         <v>406</v>
       </c>
-      <c r="B407" s="4" t="s">
+      <c r="B407" s="5" t="s">
         <v>408</v>
       </c>
       <c r="C407" s="4"/>
-      <c r="D407" s="17"/>
-      <c r="E407" s="17"/>
-      <c r="F407" s="20"/>
+      <c r="D407" s="26"/>
+      <c r="E407" s="26"/>
+      <c r="F407" s="19"/>
     </row>
     <row r="408" spans="1:6">
       <c r="A408" s="4">
         <v>407</v>
       </c>
-      <c r="B408" s="4" t="s">
+      <c r="B408" s="5" t="s">
         <v>409</v>
       </c>
       <c r="C408" s="4"/>
-      <c r="D408" s="17"/>
-      <c r="E408" s="17"/>
-      <c r="F408" s="20"/>
+      <c r="D408" s="26"/>
+      <c r="E408" s="26"/>
+      <c r="F408" s="19"/>
     </row>
     <row r="409" spans="1:6">
       <c r="A409" s="4">
         <v>408</v>
       </c>
-      <c r="B409" s="4" t="s">
+      <c r="B409" s="5" t="s">
         <v>410</v>
       </c>
       <c r="C409" s="4"/>
-      <c r="D409" s="17"/>
-      <c r="E409" s="17"/>
-      <c r="F409" s="20"/>
+      <c r="D409" s="26"/>
+      <c r="E409" s="26"/>
+      <c r="F409" s="19"/>
     </row>
     <row r="410" spans="1:6">
       <c r="A410" s="4">
         <v>409</v>
       </c>
-      <c r="B410" s="4" t="s">
+      <c r="B410" s="5" t="s">
         <v>411</v>
       </c>
       <c r="C410" s="4"/>
-      <c r="D410" s="17"/>
-      <c r="E410" s="17"/>
-      <c r="F410" s="20"/>
+      <c r="D410" s="26"/>
+      <c r="E410" s="26"/>
+      <c r="F410" s="19"/>
     </row>
     <row r="411" spans="1:6">
       <c r="A411" s="4">
         <v>410</v>
       </c>
-      <c r="B411" s="4" t="s">
+      <c r="B411" s="5" t="s">
         <v>412</v>
       </c>
       <c r="C411" s="4"/>
-      <c r="D411" s="17"/>
-      <c r="E411" s="17"/>
-      <c r="F411" s="20"/>
+      <c r="D411" s="26"/>
+      <c r="E411" s="26"/>
+      <c r="F411" s="19"/>
     </row>
     <row r="412" spans="1:6">
       <c r="A412" s="4">
         <v>411</v>
       </c>
-      <c r="B412" s="4" t="s">
+      <c r="B412" s="5" t="s">
         <v>413</v>
       </c>
       <c r="C412" s="4"/>
-      <c r="D412" s="17"/>
-      <c r="E412" s="17"/>
-      <c r="F412" s="20"/>
+      <c r="D412" s="26"/>
+      <c r="E412" s="26"/>
+      <c r="F412" s="19"/>
     </row>
     <row r="413" spans="1:6">
       <c r="A413" s="4">
         <v>412</v>
       </c>
-      <c r="B413" s="4" t="s">
+      <c r="B413" s="5" t="s">
         <v>414</v>
       </c>
       <c r="C413" s="4"/>
-      <c r="D413" s="17"/>
-      <c r="E413" s="17"/>
-      <c r="F413" s="20"/>
+      <c r="D413" s="26"/>
+      <c r="E413" s="26"/>
+      <c r="F413" s="19"/>
     </row>
     <row r="414" spans="1:6">
       <c r="A414" s="4">
         <v>413</v>
       </c>
-      <c r="B414" s="4" t="s">
+      <c r="B414" s="5" t="s">
         <v>415</v>
       </c>
       <c r="C414" s="4"/>
-      <c r="D414" s="17"/>
-      <c r="E414" s="17"/>
-      <c r="F414" s="20"/>
+      <c r="D414" s="26"/>
+      <c r="E414" s="26"/>
+      <c r="F414" s="19"/>
     </row>
     <row r="415" spans="1:6">
       <c r="A415" s="4">
         <v>414</v>
       </c>
-      <c r="B415" s="4" t="s">
+      <c r="B415" s="5" t="s">
         <v>416</v>
       </c>
       <c r="C415" s="4"/>
-      <c r="D415" s="17"/>
-      <c r="E415" s="17"/>
-      <c r="F415" s="20"/>
+      <c r="D415" s="26"/>
+      <c r="E415" s="26"/>
+      <c r="F415" s="19"/>
     </row>
     <row r="416" spans="1:6">
       <c r="A416" s="4">
         <v>415</v>
       </c>
-      <c r="B416" s="4" t="s">
+      <c r="B416" s="5" t="s">
         <v>417</v>
       </c>
       <c r="C416" s="4"/>
-      <c r="D416" s="17"/>
-      <c r="E416" s="17"/>
-      <c r="F416" s="20"/>
+      <c r="D416" s="26"/>
+      <c r="E416" s="26"/>
+      <c r="F416" s="19"/>
     </row>
     <row r="417" spans="1:6">
       <c r="A417" s="4">
         <v>416</v>
       </c>
-      <c r="B417" s="4" t="s">
+      <c r="B417" s="5" t="s">
         <v>418</v>
       </c>
       <c r="C417" s="4"/>
-      <c r="D417" s="17"/>
-      <c r="E417" s="17"/>
-      <c r="F417" s="20"/>
+      <c r="D417" s="26"/>
+      <c r="E417" s="26"/>
+      <c r="F417" s="19"/>
     </row>
     <row r="418" spans="1:6">
       <c r="A418" s="4">
         <v>417</v>
       </c>
-      <c r="B418" s="4" t="s">
+      <c r="B418" s="5" t="s">
         <v>419</v>
       </c>
       <c r="C418" s="4"/>
-      <c r="D418" s="17"/>
-      <c r="E418" s="17"/>
-      <c r="F418" s="20"/>
+      <c r="D418" s="26"/>
+      <c r="E418" s="26"/>
+      <c r="F418" s="19"/>
     </row>
     <row r="419" spans="1:6">
       <c r="A419" s="4">
         <v>418</v>
       </c>
-      <c r="B419" s="4" t="s">
+      <c r="B419" s="5" t="s">
         <v>420</v>
       </c>
       <c r="C419" s="4"/>
-      <c r="D419" s="17"/>
-      <c r="E419" s="17"/>
-      <c r="F419" s="21"/>
+      <c r="D419" s="26"/>
+      <c r="E419" s="26"/>
+      <c r="F419" s="20"/>
     </row>
     <row r="420" spans="1:6">
       <c r="A420" s="4">
@@ -68475,14 +68475,14 @@
       <c r="B2035" s="11" t="s">
         <v>2064</v>
       </c>
-      <c r="C2035" s="46"/>
+      <c r="C2035" s="16"/>
       <c r="D2035" s="6"/>
       <c r="E2035" s="4"/>
-      <c r="F2035" s="28" t="s">
+      <c r="F2035" s="21" t="s">
         <v>2067</v>
       </c>
-      <c r="G2035" s="29"/>
-      <c r="H2035" s="29"/>
+      <c r="G2035" s="42"/>
+      <c r="H2035" s="42"/>
     </row>
     <row r="2036" spans="1:8">
       <c r="A2036" s="4">
@@ -68491,12 +68491,12 @@
       <c r="B2036" s="11" t="s">
         <v>2065</v>
       </c>
-      <c r="C2036" s="46"/>
+      <c r="C2036" s="16"/>
       <c r="D2036" s="6"/>
       <c r="E2036" s="4"/>
-      <c r="F2036" s="29"/>
-      <c r="G2036" s="29"/>
-      <c r="H2036" s="29"/>
+      <c r="F2036" s="42"/>
+      <c r="G2036" s="42"/>
+      <c r="H2036" s="42"/>
     </row>
     <row r="2037" spans="1:8">
       <c r="A2037" s="4">
@@ -68505,32 +68505,51 @@
       <c r="B2037" s="11" t="s">
         <v>2066</v>
       </c>
-      <c r="C2037" s="46"/>
+      <c r="C2037" s="16"/>
       <c r="D2037" s="6"/>
       <c r="E2037" s="4"/>
-      <c r="F2037" s="29"/>
-      <c r="G2037" s="29"/>
-      <c r="H2037" s="29"/>
+      <c r="F2037" s="42"/>
+      <c r="G2037" s="42"/>
+      <c r="H2037" s="42"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <autoFilter ref="B1:B2034" xr:uid="{51EAE468-3514-4CC7-8045-27F85827609B}"/>
   <mergeCells count="75">
-    <mergeCell ref="F370:F419"/>
-    <mergeCell ref="I25:K39"/>
-    <mergeCell ref="D25:D39"/>
-    <mergeCell ref="D40:D44"/>
-    <mergeCell ref="D45:D49"/>
-    <mergeCell ref="D50:D54"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="D4:D7"/>
-    <mergeCell ref="D8:D11"/>
-    <mergeCell ref="D21:D24"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="I4:K7"/>
-    <mergeCell ref="I8:K11"/>
-    <mergeCell ref="F12:H16"/>
+    <mergeCell ref="D320:D369"/>
+    <mergeCell ref="E320:E369"/>
+    <mergeCell ref="F320:F369"/>
+    <mergeCell ref="D240:D269"/>
+    <mergeCell ref="E240:E269"/>
+    <mergeCell ref="F240:G269"/>
+    <mergeCell ref="D270:D319"/>
+    <mergeCell ref="E270:E319"/>
+    <mergeCell ref="F270:F319"/>
+    <mergeCell ref="F130:G139"/>
+    <mergeCell ref="E210:E219"/>
+    <mergeCell ref="D210:D219"/>
+    <mergeCell ref="F210:G219"/>
+    <mergeCell ref="D180:D189"/>
+    <mergeCell ref="D190:D199"/>
+    <mergeCell ref="D200:D209"/>
+    <mergeCell ref="F180:G209"/>
+    <mergeCell ref="E180:E209"/>
+    <mergeCell ref="F2035:H2037"/>
+    <mergeCell ref="D17:D20"/>
+    <mergeCell ref="F140:G159"/>
+    <mergeCell ref="F25:H54"/>
+    <mergeCell ref="D220:D239"/>
+    <mergeCell ref="E220:E239"/>
+    <mergeCell ref="F220:G239"/>
+    <mergeCell ref="E85:E114"/>
+    <mergeCell ref="D85:D114"/>
+    <mergeCell ref="F85:H114"/>
+    <mergeCell ref="E115:E124"/>
+    <mergeCell ref="D115:D124"/>
+    <mergeCell ref="F115:H124"/>
+    <mergeCell ref="D370:D419"/>
+    <mergeCell ref="E370:E419"/>
+    <mergeCell ref="E160:E179"/>
     <mergeCell ref="C2:C11"/>
     <mergeCell ref="E2:E11"/>
     <mergeCell ref="F2:H11"/>
@@ -68547,23 +68566,22 @@
     <mergeCell ref="C12:C16"/>
     <mergeCell ref="E12:E16"/>
     <mergeCell ref="D12:D16"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="D4:D7"/>
+    <mergeCell ref="D8:D11"/>
+    <mergeCell ref="D21:D24"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I4:K7"/>
+    <mergeCell ref="I8:K11"/>
+    <mergeCell ref="F12:H16"/>
+    <mergeCell ref="F370:F419"/>
+    <mergeCell ref="I25:K39"/>
+    <mergeCell ref="D25:D39"/>
+    <mergeCell ref="D40:D44"/>
+    <mergeCell ref="D45:D49"/>
+    <mergeCell ref="D50:D54"/>
     <mergeCell ref="F55:H84"/>
-    <mergeCell ref="F2035:H2037"/>
-    <mergeCell ref="D17:D20"/>
-    <mergeCell ref="F140:G159"/>
-    <mergeCell ref="F25:H54"/>
-    <mergeCell ref="D220:D239"/>
-    <mergeCell ref="E220:E239"/>
-    <mergeCell ref="F220:G239"/>
-    <mergeCell ref="E85:E114"/>
-    <mergeCell ref="D85:D114"/>
-    <mergeCell ref="F85:H114"/>
-    <mergeCell ref="E115:E124"/>
-    <mergeCell ref="D115:D124"/>
-    <mergeCell ref="F115:H124"/>
-    <mergeCell ref="D370:D419"/>
-    <mergeCell ref="E370:E419"/>
-    <mergeCell ref="E160:E179"/>
     <mergeCell ref="D160:D179"/>
     <mergeCell ref="F160:G179"/>
     <mergeCell ref="E125:E129"/>
@@ -68573,24 +68591,6 @@
     <mergeCell ref="E140:E159"/>
     <mergeCell ref="D140:D159"/>
     <mergeCell ref="D130:D139"/>
-    <mergeCell ref="F130:G139"/>
-    <mergeCell ref="E210:E219"/>
-    <mergeCell ref="D210:D219"/>
-    <mergeCell ref="F210:G219"/>
-    <mergeCell ref="D180:D189"/>
-    <mergeCell ref="D190:D199"/>
-    <mergeCell ref="D200:D209"/>
-    <mergeCell ref="F180:G209"/>
-    <mergeCell ref="E180:E209"/>
-    <mergeCell ref="D320:D369"/>
-    <mergeCell ref="E320:E369"/>
-    <mergeCell ref="F320:F369"/>
-    <mergeCell ref="D240:D269"/>
-    <mergeCell ref="E240:E269"/>
-    <mergeCell ref="F240:G269"/>
-    <mergeCell ref="D270:D319"/>
-    <mergeCell ref="E270:E319"/>
-    <mergeCell ref="F270:F319"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -68634,10 +68634,10 @@
       <c r="D1" s="2" t="s">
         <v>2058</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="F1" s="26" t="s">
         <v>2062</v>
       </c>
-      <c r="G1" s="17"/>
+      <c r="G1" s="26"/>
       <c r="I1" s="2" t="s">
         <v>2085</v>
       </c>
